--- a/BEST-NIFTY/Companies.xlsx
+++ b/BEST-NIFTY/Companies.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,454 +407,475 @@
         <v>Company_Name</v>
       </c>
       <c r="B1" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C1" t="str">
         <v>Open</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>Previous_Close</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Volume</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Value</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Beta</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>High</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Low</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>UC_Limit</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>LC_Limit</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Week_high_52</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>Week_low_52</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>TTM_EPS</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>TTM_PE</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>Sector_PE</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>Book_value_per_share</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>P_B</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>Face_value</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>Mkt_cap</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>Dividend_Yield</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>Avg_Volume_20D</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Avenue Supermarts</v>
+        <v>State Bank</v>
       </c>
       <c r="B2" t="str">
-        <v>4,217.00</v>
+        <v>Banks</v>
       </c>
       <c r="C2" t="str">
-        <v>4,192.75</v>
+        <v>490.60</v>
       </c>
       <c r="D2" t="str">
-        <v>370,641.00</v>
+        <v>490.60</v>
       </c>
       <c r="E2" t="str">
-        <v>15,178.49</v>
+        <v>26,157,969.00</v>
       </c>
       <c r="F2" t="str">
-        <v>0.890.86</v>
+        <v>129,141.89</v>
       </c>
       <c r="G2" t="str">
-        <v>4,217.00</v>
+        <v>1.301.28</v>
       </c>
       <c r="H2" t="str">
-        <v>4,080.60</v>
+        <v>495.80</v>
       </c>
       <c r="I2" t="str">
-        <v>5,031.30</v>
+        <v>477.25</v>
       </c>
       <c r="J2" t="str">
-        <v>3,354.20</v>
+        <v>539.65</v>
       </c>
       <c r="K2" t="str">
-        <v>5,900.00</v>
+        <v>441.55</v>
       </c>
       <c r="L2" t="str">
-        <v>2,676.40</v>
+        <v>549.00</v>
       </c>
       <c r="M2" t="str">
-        <v>22.84</v>
+        <v>321.30</v>
       </c>
       <c r="N2" t="str">
-        <v>179.30</v>
+        <v>36.68</v>
       </c>
       <c r="O2" t="str">
-        <v>232.15</v>
+        <v>13.46</v>
       </c>
       <c r="P2" t="str">
-        <v>188.09</v>
+        <v>20.33</v>
       </c>
       <c r="Q2" t="str">
-        <v>21.78</v>
+        <v>293.13</v>
       </c>
       <c r="R2" t="str">
-        <v>10.00</v>
+        <v>1.69</v>
       </c>
       <c r="S2" t="str">
-        <v>265,277</v>
+        <v>1.00</v>
       </c>
       <c r="T2" t="str">
-        <v>0.00</v>
+        <v>440,608</v>
       </c>
       <c r="U2" t="str">
-        <v>463,639</v>
+        <v>0.81</v>
+      </c>
+      <c r="V2" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>TATA Consumer</v>
+        <v>Reliance Industries</v>
       </c>
       <c r="B3" t="str">
-        <v>772.00</v>
+        <v>Refineries</v>
       </c>
       <c r="C3" t="str">
-        <v>772.30</v>
+        <v>2,460.10</v>
       </c>
       <c r="D3" t="str">
-        <v>1,889,226.00</v>
+        <v>2,467.40</v>
       </c>
       <c r="E3" t="str">
-        <v>14,127.63</v>
+        <v>10,410,082.00</v>
       </c>
       <c r="F3" t="str">
-        <v>0.870.82</v>
+        <v>263,494.79</v>
       </c>
       <c r="G3" t="str">
-        <v>773.85</v>
+        <v>1.091.09</v>
       </c>
       <c r="H3" t="str">
-        <v>745.30</v>
+        <v>2,534.95</v>
       </c>
       <c r="I3" t="str">
-        <v>849.50</v>
+        <v>2,453.60</v>
       </c>
       <c r="J3" t="str">
-        <v>695.10</v>
+        <v>2,714.10</v>
       </c>
       <c r="K3" t="str">
-        <v>889.00</v>
+        <v>2,220.70</v>
       </c>
       <c r="L3" t="str">
-        <v>577.05</v>
+        <v>2,751.35</v>
       </c>
       <c r="M3" t="str">
-        <v>8.38</v>
+        <v>1,876.70</v>
       </c>
       <c r="N3" t="str">
-        <v>89.24</v>
+        <v>85.35</v>
       </c>
       <c r="O3" t="str">
-        <v>74.84</v>
+        <v>29.66</v>
       </c>
       <c r="P3" t="str">
-        <v>169.34</v>
+        <v>24.41</v>
       </c>
       <c r="Q3" t="str">
-        <v>4.42</v>
+        <v>1,240.43</v>
       </c>
       <c r="R3" t="str">
-        <v>1.00</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="str">
-        <v>68,914</v>
+        <v>10.00</v>
       </c>
       <c r="T3" t="str">
-        <v>0.54</v>
+        <v>1,712,094</v>
       </c>
       <c r="U3" t="str">
-        <v>2,592,575</v>
+        <v>0.28</v>
+      </c>
+      <c r="V3" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Adani Wilmar</v>
+        <v>Avenue Supermarts</v>
       </c>
       <c r="B4" t="str">
-        <v>390.00</v>
+        <v>Retail</v>
       </c>
       <c r="C4" t="str">
-        <v>379.80</v>
+        <v>4,129.00</v>
       </c>
       <c r="D4" t="str">
-        <v>19,955,446.00</v>
+        <v>4,095.20</v>
       </c>
       <c r="E4" t="str">
-        <v>78,075.68</v>
+        <v>396,898.00</v>
       </c>
       <c r="F4" t="str">
-        <v>1.751.65</v>
+        <v>16,090.24</v>
       </c>
       <c r="G4" t="str">
-        <v>398.75</v>
+        <v>0.920.89</v>
       </c>
       <c r="H4" t="str">
-        <v>382.30</v>
+        <v>4,129.00</v>
       </c>
       <c r="I4" t="str">
-        <v>417.75</v>
+        <v>4,031.00</v>
       </c>
       <c r="J4" t="str">
-        <v>341.85</v>
+        <v>4,914.20</v>
       </c>
       <c r="K4" t="str">
-        <v>419.90</v>
+        <v>3,276.20</v>
       </c>
       <c r="L4" t="str">
-        <v>227.00</v>
+        <v>5,900.00</v>
       </c>
       <c r="M4" t="str">
+        <v>2,676.40</v>
+      </c>
+      <c r="N4" t="str">
+        <v>22.84</v>
+      </c>
+      <c r="O4" t="str">
+        <v>177.50</v>
+      </c>
+      <c r="P4" t="str">
+        <v>226.85</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>188.09</v>
+      </c>
+      <c r="R4" t="str">
+        <v>21.56</v>
+      </c>
+      <c r="S4" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="T4" t="str">
+        <v>262,608</v>
+      </c>
+      <c r="U4" t="str">
         <v>0.00</v>
       </c>
-      <c r="N4" t="str">
-        <v>--</v>
-      </c>
-      <c r="O4" t="str">
-        <v>60.79</v>
-      </c>
-      <c r="P4" t="str">
-        <v>25.50</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>15.35</v>
-      </c>
-      <c r="R4" t="str">
-        <v>1.00</v>
-      </c>
-      <c r="S4" t="str">
-        <v>50,850</v>
-      </c>
-      <c r="T4" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="U4" t="str">
-        <v>12,556,339</v>
+      <c r="V4" t="str">
+        <v>464,308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Britannia Industries</v>
+        <v>Asian Paints</v>
       </c>
       <c r="B5" t="str">
-        <v>3,350.00</v>
+        <v>Paints</v>
       </c>
       <c r="C5" t="str">
-        <v>3,355.95</v>
+        <v>3,024.00</v>
       </c>
       <c r="D5" t="str">
-        <v>354,460.00</v>
+        <v>3,045.75</v>
       </c>
       <c r="E5" t="str">
-        <v>11,475.82</v>
+        <v>1,515,772.00</v>
       </c>
       <c r="F5" t="str">
-        <v>0.460.46</v>
+        <v>46,248.48</v>
       </c>
       <c r="G5" t="str">
-        <v>3,350.00</v>
+        <v>0.760.77</v>
       </c>
       <c r="H5" t="str">
-        <v>3,230.00</v>
+        <v>3,062.70</v>
       </c>
       <c r="I5" t="str">
-        <v>3,691.50</v>
+        <v>2,975.00</v>
       </c>
       <c r="J5" t="str">
-        <v>3,020.40</v>
+        <v>3,350.30</v>
       </c>
       <c r="K5" t="str">
-        <v>4,153.00</v>
+        <v>2,741.20</v>
       </c>
       <c r="L5" t="str">
-        <v>3,050.00</v>
+        <v>3,590.00</v>
       </c>
       <c r="M5" t="str">
-        <v>62.66</v>
+        <v>2,390.00</v>
       </c>
       <c r="N5" t="str">
-        <v>51.67</v>
+        <v>31.61</v>
       </c>
       <c r="O5" t="str">
-        <v>65.48</v>
+        <v>96.52</v>
       </c>
       <c r="P5" t="str">
-        <v>147.63</v>
+        <v>88.32</v>
       </c>
       <c r="Q5" t="str">
-        <v>21.94</v>
+        <v>137.92</v>
       </c>
       <c r="R5" t="str">
+        <v>22.13</v>
+      </c>
+      <c r="S5" t="str">
         <v>1.00</v>
       </c>
-      <c r="S5" t="str">
-        <v>77,982</v>
-      </c>
       <c r="T5" t="str">
-        <v>4.86</v>
+        <v>292,666</v>
       </c>
       <c r="U5" t="str">
-        <v>386,157</v>
+        <v>0.59</v>
+      </c>
+      <c r="V5" t="str">
+        <v>2,292,001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Jindal Steel</v>
+        <v>Havells India</v>
       </c>
       <c r="B6" t="str">
-        <v>484.95</v>
+        <v>Electric</v>
       </c>
       <c r="C6" t="str">
-        <v>477.15</v>
+        <v>1,139.95</v>
       </c>
       <c r="D6" t="str">
-        <v>7,437,561.00</v>
+        <v>1,137.15</v>
       </c>
       <c r="E6" t="str">
-        <v>36,265.55</v>
+        <v>1,207,877.00</v>
       </c>
       <c r="F6" t="str">
-        <v>1.511.35</v>
+        <v>13,588.01</v>
       </c>
       <c r="G6" t="str">
-        <v>494.75</v>
+        <v>1.010.98</v>
       </c>
       <c r="H6" t="str">
-        <v>480.65</v>
+        <v>1,144.00</v>
       </c>
       <c r="I6" t="str">
-        <v>524.85</v>
+        <v>1,096.00</v>
       </c>
       <c r="J6" t="str">
-        <v>429.45</v>
+        <v>1,250.85</v>
       </c>
       <c r="K6" t="str">
-        <v>501.70</v>
+        <v>1,023.45</v>
       </c>
       <c r="L6" t="str">
-        <v>296.70</v>
+        <v>1,504.45</v>
       </c>
       <c r="M6" t="str">
-        <v>63.33</v>
+        <v>958.00</v>
       </c>
       <c r="N6" t="str">
-        <v>7.70</v>
+        <v>18.33</v>
       </c>
       <c r="O6" t="str">
-        <v>7.73</v>
+        <v>61.37</v>
       </c>
       <c r="P6" t="str">
-        <v>303.28</v>
+        <v>56.03</v>
       </c>
       <c r="Q6" t="str">
-        <v>1.61</v>
+        <v>82.64</v>
       </c>
       <c r="R6" t="str">
+        <v>13.62</v>
+      </c>
+      <c r="S6" t="str">
         <v>1.00</v>
       </c>
-      <c r="S6" t="str">
-        <v>49,740</v>
-      </c>
       <c r="T6" t="str">
-        <v>0.00</v>
+        <v>70,456</v>
       </c>
       <c r="U6" t="str">
-        <v>8,510,035</v>
+        <v>0.58</v>
+      </c>
+      <c r="V6" t="str">
+        <v>1,268,834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Coal India</v>
+        <v>Hindustan Zinc</v>
       </c>
       <c r="B7" t="str">
-        <v>177.85</v>
+        <v>Metals</v>
       </c>
       <c r="C7" t="str">
-        <v>176.55</v>
+        <v>313.25</v>
       </c>
       <c r="D7" t="str">
-        <v>20,271,556.00</v>
+        <v>311.40</v>
       </c>
       <c r="E7" t="str">
-        <v>36,955.05</v>
+        <v>1,178,316.00</v>
       </c>
       <c r="F7" t="str">
-        <v>0.890.78</v>
+        <v>3,688.13</v>
       </c>
       <c r="G7" t="str">
-        <v>186.35</v>
+        <v>0.660.59</v>
       </c>
       <c r="H7" t="str">
-        <v>177.50</v>
+        <v>315.00</v>
       </c>
       <c r="I7" t="str">
-        <v>194.20</v>
+        <v>311.45</v>
       </c>
       <c r="J7" t="str">
-        <v>158.90</v>
+        <v>373.65</v>
       </c>
       <c r="K7" t="str">
-        <v>203.80</v>
+        <v>249.15</v>
       </c>
       <c r="L7" t="str">
-        <v>123.40</v>
+        <v>408.60</v>
       </c>
       <c r="M7" t="str">
-        <v>24.75</v>
+        <v>257.00</v>
       </c>
       <c r="N7" t="str">
-        <v>7.37</v>
+        <v>0.00</v>
       </c>
       <c r="O7" t="str">
-        <v>12.57</v>
+        <v>--</v>
       </c>
       <c r="P7" t="str">
-        <v>59.97</v>
+        <v>16.48</v>
       </c>
       <c r="Q7" t="str">
-        <v>3.04</v>
+        <v>20.89</v>
       </c>
       <c r="R7" t="str">
-        <v>10.00</v>
+        <v>14.99</v>
       </c>
       <c r="S7" t="str">
-        <v>112,347</v>
+        <v>2.00</v>
       </c>
       <c r="T7" t="str">
-        <v>8.78</v>
+        <v>132,252</v>
       </c>
       <c r="U7" t="str">
-        <v>23,797,504</v>
+        <v>6.81</v>
+      </c>
+      <c r="V7" t="str">
+        <v>2,255,292</v>
       </c>
     </row>
     <row r="8">
@@ -862,6114 +883,6396 @@
         <v>SRF Ltd.</v>
       </c>
       <c r="B8" t="str">
-        <v>2,615.40</v>
+        <v>Diversified</v>
       </c>
       <c r="C8" t="str">
-        <v>2,588.20</v>
+        <v>2,613.95</v>
       </c>
       <c r="D8" t="str">
-        <v>1,055,088.00</v>
+        <v>2,605.45</v>
       </c>
       <c r="E8" t="str">
-        <v>27,489.79</v>
+        <v>729,721.00</v>
       </c>
       <c r="F8" t="str">
+        <v>19,194.95</v>
+      </c>
+      <c r="G8" t="str">
         <v>1.201.15</v>
       </c>
-      <c r="G8" t="str">
-        <v>2,658.95</v>
-      </c>
       <c r="H8" t="str">
-        <v>2,582.15</v>
+        <v>2,653.95</v>
       </c>
       <c r="I8" t="str">
-        <v>2,847.00</v>
+        <v>2,560.40</v>
       </c>
       <c r="J8" t="str">
-        <v>2,329.40</v>
+        <v>2,865.95</v>
       </c>
       <c r="K8" t="str">
+        <v>2,344.95</v>
+      </c>
+      <c r="L8" t="str">
         <v>2,680.00</v>
       </c>
-      <c r="L8" t="str">
-        <v>1,026.21</v>
-      </c>
       <c r="M8" t="str">
+        <v>1,045.00</v>
+      </c>
+      <c r="N8" t="str">
         <v>56.14</v>
       </c>
-      <c r="N8" t="str">
-        <v>46.41</v>
-      </c>
       <c r="O8" t="str">
-        <v>82.82</v>
+        <v>46.86</v>
       </c>
       <c r="P8" t="str">
+        <v>83.43</v>
+      </c>
+      <c r="Q8" t="str">
         <v>231.28</v>
       </c>
-      <c r="Q8" t="str">
-        <v>11.27</v>
-      </c>
       <c r="R8" t="str">
+        <v>11.38</v>
+      </c>
+      <c r="S8" t="str">
         <v>10.00</v>
       </c>
-      <c r="S8" t="str">
-        <v>77,231</v>
-      </c>
       <c r="T8" t="str">
-        <v>0.92</v>
+        <v>77,972</v>
       </c>
       <c r="U8" t="str">
-        <v>754,655</v>
+        <v>0.91</v>
+      </c>
+      <c r="V8" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>United Spirits</v>
+        <v>Shree Cements</v>
       </c>
       <c r="B9" t="str">
-        <v>922.55</v>
+        <v>Cement</v>
       </c>
       <c r="C9" t="str">
-        <v>919.55</v>
+        <v>23,345.80</v>
       </c>
       <c r="D9" t="str">
-        <v>2,156,745.00</v>
+        <v>23,390.30</v>
       </c>
       <c r="E9" t="str">
-        <v>19,517.46</v>
+        <v>39,121.00</v>
       </c>
       <c r="F9" t="str">
-        <v>1.000.97</v>
+        <v>9,143.87</v>
       </c>
       <c r="G9" t="str">
-        <v>934.90</v>
+        <v>1.010.97</v>
       </c>
       <c r="H9" t="str">
-        <v>902.00</v>
+        <v>23,669.50</v>
       </c>
       <c r="I9" t="str">
-        <v>1,011.50</v>
+        <v>23,032.00</v>
       </c>
       <c r="J9" t="str">
-        <v>827.60</v>
+        <v>25,729.30</v>
       </c>
       <c r="K9" t="str">
-        <v>1,019.95</v>
+        <v>21,051.30</v>
       </c>
       <c r="L9" t="str">
-        <v>507.50</v>
+        <v>32,048.00</v>
       </c>
       <c r="M9" t="str">
-        <v>11.77</v>
+        <v>21,650.00</v>
       </c>
       <c r="N9" t="str">
-        <v>76.89</v>
+        <v>685.44</v>
       </c>
       <c r="O9" t="str">
-        <v>124.84</v>
+        <v>34.10</v>
       </c>
       <c r="P9" t="str">
-        <v>55.86</v>
+        <v>30.96</v>
       </c>
       <c r="Q9" t="str">
-        <v>16.21</v>
+        <v>4,281.67</v>
       </c>
       <c r="R9" t="str">
-        <v>2.00</v>
+        <v>5.46</v>
       </c>
       <c r="S9" t="str">
-        <v>65,757</v>
+        <v>10.00</v>
       </c>
       <c r="T9" t="str">
-        <v>0.00</v>
+        <v>84,333</v>
       </c>
       <c r="U9" t="str">
-        <v>2,313,705</v>
+        <v>0.26</v>
+      </c>
+      <c r="V9" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Shree Cements</v>
+        <v>IndusInd Bank</v>
       </c>
       <c r="B10" t="str">
-        <v>24,188.05</v>
+        <v>Banks</v>
       </c>
       <c r="C10" t="str">
-        <v>24,090.20</v>
+        <v>916.00</v>
       </c>
       <c r="D10" t="str">
-        <v>50,943.00</v>
+        <v>913.40</v>
       </c>
       <c r="E10" t="str">
-        <v>11,915.72</v>
+        <v>2,764,481.00</v>
       </c>
       <c r="F10" t="str">
-        <v>1.000.96</v>
+        <v>25,646.09</v>
       </c>
       <c r="G10" t="str">
-        <v>24,188.05</v>
+        <v>1.441.45</v>
       </c>
       <c r="H10" t="str">
-        <v>23,333.00</v>
+        <v>932.00</v>
       </c>
       <c r="I10" t="str">
-        <v>26,499.20</v>
+        <v>903.60</v>
       </c>
       <c r="J10" t="str">
-        <v>21,681.20</v>
+        <v>1,004.70</v>
       </c>
       <c r="K10" t="str">
-        <v>32,048.00</v>
+        <v>822.10</v>
       </c>
       <c r="L10" t="str">
-        <v>21,650.00</v>
+        <v>1,242.00</v>
       </c>
       <c r="M10" t="str">
-        <v>685.44</v>
+        <v>811.00</v>
       </c>
       <c r="N10" t="str">
-        <v>34.12</v>
+        <v>55.90</v>
       </c>
       <c r="O10" t="str">
-        <v>31.72</v>
+        <v>16.60</v>
       </c>
       <c r="P10" t="str">
-        <v>4,281.67</v>
+        <v>29.51</v>
       </c>
       <c r="Q10" t="str">
-        <v>5.47</v>
+        <v>557.45</v>
       </c>
       <c r="R10" t="str">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="str">
         <v>10.00</v>
       </c>
-      <c r="S10" t="str">
-        <v>84,394</v>
-      </c>
       <c r="T10" t="str">
-        <v>0.26</v>
+        <v>71,864</v>
       </c>
       <c r="U10" t="str">
-        <v>80,982</v>
+        <v>0.54</v>
+      </c>
+      <c r="V10" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bharat Petroleum</v>
+        <v>Pidilite Industries</v>
       </c>
       <c r="B11" t="str">
-        <v>360.00</v>
+        <v>Chemicals</v>
       </c>
       <c r="C11" t="str">
-        <v>364.20</v>
+        <v>2,475.00</v>
       </c>
       <c r="D11" t="str">
-        <v>6,184,825.00</v>
+        <v>2,485.25</v>
       </c>
       <c r="E11" t="str">
-        <v>22,092.19</v>
+        <v>457,034.00</v>
       </c>
       <c r="F11" t="str">
-        <v>0.850.80</v>
+        <v>11,198.93</v>
       </c>
       <c r="G11" t="str">
-        <v>367.30</v>
+        <v>0.760.75</v>
       </c>
       <c r="H11" t="str">
-        <v>356.30</v>
+        <v>2,475.00</v>
       </c>
       <c r="I11" t="str">
-        <v>400.60</v>
+        <v>2,405.00</v>
       </c>
       <c r="J11" t="str">
-        <v>327.80</v>
+        <v>2,733.75</v>
       </c>
       <c r="K11" t="str">
-        <v>503.00</v>
+        <v>2,236.75</v>
       </c>
       <c r="L11" t="str">
-        <v>331.10</v>
+        <v>2,764.70</v>
       </c>
       <c r="M11" t="str">
-        <v>88.42</v>
+        <v>1,738.15</v>
       </c>
       <c r="N11" t="str">
-        <v>4.04</v>
+        <v>24.78</v>
       </c>
       <c r="O11" t="str">
-        <v>24.53</v>
+        <v>98.88</v>
       </c>
       <c r="P11" t="str">
-        <v>243.29</v>
+        <v>81.52</v>
       </c>
       <c r="Q11" t="str">
-        <v>1.47</v>
+        <v>114.26</v>
       </c>
       <c r="R11" t="str">
-        <v>10.00</v>
+        <v>21.45</v>
       </c>
       <c r="S11" t="str">
-        <v>77,486</v>
+        <v>1.00</v>
       </c>
       <c r="T11" t="str">
-        <v>22.12</v>
+        <v>124,548</v>
       </c>
       <c r="U11" t="str">
-        <v>6,656,707</v>
+        <v>0.35</v>
+      </c>
+      <c r="V11" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>HCL Technologies</v>
+        <v>Maruti Suzuki</v>
       </c>
       <c r="B12" t="str">
-        <v>1,199.90</v>
+        <v>Auto</v>
       </c>
       <c r="C12" t="str">
-        <v>1,196.90</v>
+        <v>7,714.95</v>
       </c>
       <c r="D12" t="str">
-        <v>4,046,440.00</v>
+        <v>7,705.55</v>
       </c>
       <c r="E12" t="str">
-        <v>47,264.44</v>
+        <v>1,093,502.00</v>
       </c>
       <c r="F12" t="str">
-        <v>0.790.78</v>
+        <v>84,928.47</v>
       </c>
       <c r="G12" t="str">
-        <v>1,209.90</v>
+        <v>0.930.91</v>
       </c>
       <c r="H12" t="str">
-        <v>1,165.10</v>
+        <v>7,809.00</v>
       </c>
       <c r="I12" t="str">
-        <v>1,316.55</v>
+        <v>7,536.65</v>
       </c>
       <c r="J12" t="str">
-        <v>1,077.25</v>
+        <v>8,476.10</v>
       </c>
       <c r="K12" t="str">
-        <v>1,377.75</v>
+        <v>6,935.00</v>
       </c>
       <c r="L12" t="str">
-        <v>891.00</v>
+        <v>9,050.00</v>
       </c>
       <c r="M12" t="str">
-        <v>40.57</v>
+        <v>6,400.00</v>
       </c>
       <c r="N12" t="str">
-        <v>28.79</v>
+        <v>107.42</v>
       </c>
       <c r="O12" t="str">
-        <v>41.19</v>
+        <v>72.30</v>
       </c>
       <c r="P12" t="str">
-        <v>221.40</v>
+        <v>73.37</v>
       </c>
       <c r="Q12" t="str">
-        <v>5.28</v>
+        <v>1,737.97</v>
       </c>
       <c r="R12" t="str">
-        <v>2.00</v>
+        <v>4.47</v>
       </c>
       <c r="S12" t="str">
-        <v>316,970</v>
+        <v>5.00</v>
       </c>
       <c r="T12" t="str">
-        <v>0.86</v>
+        <v>234,615</v>
       </c>
       <c r="U12" t="str">
-        <v>3,619,485</v>
+        <v>0.58</v>
+      </c>
+      <c r="V12" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Procter and</v>
+        <v>ICICI Bank</v>
       </c>
       <c r="B13" t="str">
-        <v>15,541.00</v>
+        <v>Banks</v>
       </c>
       <c r="C13" t="str">
-        <v>15,540.55</v>
+        <v>708.65</v>
       </c>
       <c r="D13" t="str">
-        <v>4,520.00</v>
+        <v>710.75</v>
       </c>
       <c r="E13" t="str">
-        <v>700.31</v>
+        <v>11,761,758.00</v>
       </c>
       <c r="F13" t="str">
-        <v>0.480.46</v>
+        <v>84,472.95</v>
       </c>
       <c r="G13" t="str">
-        <v>15,750.00</v>
+        <v>1.241.26</v>
       </c>
       <c r="H13" t="str">
-        <v>15,430.40</v>
+        <v>721.00</v>
       </c>
       <c r="I13" t="str">
-        <v>18,648.65</v>
+        <v>699.50</v>
       </c>
       <c r="J13" t="str">
-        <v>12,432.45</v>
+        <v>781.80</v>
       </c>
       <c r="K13" t="str">
-        <v>16,448.70</v>
+        <v>639.70</v>
       </c>
       <c r="L13" t="str">
-        <v>12,110.00</v>
+        <v>867.00</v>
       </c>
       <c r="M13" t="str">
-        <v>0.00</v>
+        <v>531.15</v>
       </c>
       <c r="N13" t="str">
-        <v>--</v>
+        <v>33.42</v>
       </c>
       <c r="O13" t="str">
-        <v>60.79</v>
+        <v>21.49</v>
       </c>
       <c r="P13" t="str">
-        <v>--</v>
+        <v>29.51</v>
       </c>
       <c r="Q13" t="str">
-        <v>0.00</v>
+        <v>236.14</v>
       </c>
       <c r="R13" t="str">
-        <v>10.00</v>
+        <v>3.05</v>
       </c>
       <c r="S13" t="str">
-        <v>50,293</v>
+        <v>2.00</v>
       </c>
       <c r="T13" t="str">
-        <v>1.52</v>
+        <v>499,023</v>
       </c>
       <c r="U13" t="str">
-        <v>14,576</v>
+        <v>0.28</v>
+      </c>
+      <c r="V13" t="str">
+        <v>21,013,688</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bajaj Holdings</v>
+        <v>ICICI Lombard</v>
       </c>
       <c r="B14" t="str">
-        <v>5,034.00</v>
+        <v>Life</v>
       </c>
       <c r="C14" t="str">
-        <v>5,008.70</v>
+        <v>1,240.65</v>
       </c>
       <c r="D14" t="str">
-        <v>15,955.00</v>
+        <v>1,240.55</v>
       </c>
       <c r="E14" t="str">
-        <v>799.09</v>
+        <v>388,976.00</v>
       </c>
       <c r="F14" t="str">
-        <v>0.610.59</v>
+        <v>4,863.76</v>
       </c>
       <c r="G14" t="str">
-        <v>5,041.55</v>
+        <v>0.700.67</v>
       </c>
       <c r="H14" t="str">
-        <v>4,993.95</v>
+        <v>1,253.00</v>
       </c>
       <c r="I14" t="str">
-        <v>6,010.40</v>
+        <v>1,224.10</v>
       </c>
       <c r="J14" t="str">
-        <v>4,007.00</v>
+        <v>1,364.60</v>
       </c>
       <c r="K14" t="str">
-        <v>5,660.40</v>
+        <v>1,116.50</v>
       </c>
       <c r="L14" t="str">
-        <v>3,141.00</v>
+        <v>1,675.00</v>
       </c>
       <c r="M14" t="str">
-        <v>350.36</v>
+        <v>1,192.00</v>
       </c>
       <c r="N14" t="str">
-        <v>14.30</v>
+        <v>0.00</v>
       </c>
       <c r="O14" t="str">
-        <v>51.62</v>
+        <v>--</v>
       </c>
       <c r="P14" t="str">
-        <v>3,964.08</v>
+        <v>26.08</v>
       </c>
       <c r="Q14" t="str">
-        <v>1.27</v>
+        <v>--</v>
       </c>
       <c r="R14" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="S14" t="str">
         <v>10.00</v>
       </c>
-      <c r="S14" t="str">
-        <v>55,740</v>
-      </c>
       <c r="T14" t="str">
-        <v>0.80</v>
+        <v>61,380</v>
       </c>
       <c r="U14" t="str">
-        <v>42,551</v>
+        <v>0.64</v>
+      </c>
+      <c r="V14" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>HDFC Life</v>
+        <v>Info Edge</v>
       </c>
       <c r="B15" t="str">
-        <v>532.80</v>
+        <v>Miscellaneous</v>
       </c>
       <c r="C15" t="str">
-        <v>530.15</v>
+        <v>4,655.95</v>
       </c>
       <c r="D15" t="str">
-        <v>4,064,003.00</v>
+        <v>4,643.10</v>
       </c>
       <c r="E15" t="str">
-        <v>21,228.32</v>
+        <v>663,502.00</v>
       </c>
       <c r="F15" t="str">
-        <v>0.820.80</v>
+        <v>31,585.68</v>
       </c>
       <c r="G15" t="str">
-        <v>534.30</v>
+        <v>0.920.89</v>
       </c>
       <c r="H15" t="str">
-        <v>520.25</v>
+        <v>4,791.95</v>
       </c>
       <c r="I15" t="str">
-        <v>583.15</v>
+        <v>4,560.30</v>
       </c>
       <c r="J15" t="str">
-        <v>477.15</v>
+        <v>5,107.40</v>
       </c>
       <c r="K15" t="str">
-        <v>775.65</v>
+        <v>4,178.80</v>
       </c>
       <c r="L15" t="str">
-        <v>497.05</v>
+        <v>7,465.40</v>
       </c>
       <c r="M15" t="str">
-        <v>5.40</v>
+        <v>4,023.90</v>
       </c>
       <c r="N15" t="str">
-        <v>96.73</v>
+        <v>965.05</v>
       </c>
       <c r="O15" t="str">
-        <v>78.35</v>
+        <v>4.93</v>
       </c>
       <c r="P15" t="str">
-        <v>53.42</v>
+        <v>88.10</v>
       </c>
       <c r="Q15" t="str">
-        <v>9.78</v>
+        <v>430.06</v>
       </c>
       <c r="R15" t="str">
+        <v>11.07</v>
+      </c>
+      <c r="S15" t="str">
         <v>10.00</v>
       </c>
-      <c r="S15" t="str">
-        <v>110,348</v>
-      </c>
       <c r="T15" t="str">
-        <v>0.39</v>
+        <v>61,307</v>
       </c>
       <c r="U15" t="str">
-        <v>7,104,026</v>
+        <v>0.17</v>
+      </c>
+      <c r="V15" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Dr Reddys</v>
+        <v>Marico Ltd.</v>
       </c>
       <c r="B16" t="str">
-        <v>4,074.00</v>
+        <v>Personal</v>
       </c>
       <c r="C16" t="str">
-        <v>4,042.15</v>
+        <v>505.00</v>
       </c>
       <c r="D16" t="str">
-        <v>401,639.00</v>
+        <v>504.35</v>
       </c>
       <c r="E16" t="str">
-        <v>16,085.44</v>
+        <v>1,143,012.00</v>
       </c>
       <c r="F16" t="str">
-        <v>0.430.41</v>
+        <v>5,624.76</v>
       </c>
       <c r="G16" t="str">
-        <v>4,082.95</v>
+        <v>0.530.52</v>
       </c>
       <c r="H16" t="str">
-        <v>3,996.75</v>
+        <v>505.00</v>
       </c>
       <c r="I16" t="str">
-        <v>4,446.35</v>
+        <v>486.50</v>
       </c>
       <c r="J16" t="str">
-        <v>3,637.95</v>
+        <v>554.75</v>
       </c>
       <c r="K16" t="str">
-        <v>5,614.60</v>
+        <v>453.95</v>
       </c>
       <c r="L16" t="str">
-        <v>3,654.00</v>
+        <v>607.70</v>
       </c>
       <c r="M16" t="str">
-        <v>158.80</v>
+        <v>394.00</v>
       </c>
       <c r="N16" t="str">
-        <v>25.22</v>
+        <v>9.24</v>
       </c>
       <c r="O16" t="str">
-        <v>35.78</v>
+        <v>53.26</v>
       </c>
       <c r="P16" t="str">
-        <v>1,060.05</v>
+        <v>59.61</v>
       </c>
       <c r="Q16" t="str">
-        <v>3.78</v>
+        <v>24.98</v>
       </c>
       <c r="R16" t="str">
-        <v>5.00</v>
+        <v>19.70</v>
       </c>
       <c r="S16" t="str">
-        <v>66,652</v>
+        <v>1.00</v>
       </c>
       <c r="T16" t="str">
-        <v>0.62</v>
+        <v>63,616</v>
       </c>
       <c r="U16" t="str">
-        <v>714,547</v>
+        <v>1.52</v>
+      </c>
+      <c r="V16" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>IRCTC -</v>
+        <v>MphasiS Ltd.</v>
       </c>
       <c r="B17" t="str">
-        <v>773.05</v>
+        <v>Computers</v>
       </c>
       <c r="C17" t="str">
-        <v>770.45</v>
+        <v>3,103.90</v>
       </c>
       <c r="D17" t="str">
-        <v>2,165,538.00</v>
+        <v>3,103.90</v>
       </c>
       <c r="E17" t="str">
-        <v>16,690.88</v>
+        <v>655,289.00</v>
       </c>
       <c r="F17" t="str">
-        <v>1.401.32</v>
+        <v>20,881.77</v>
       </c>
       <c r="G17" t="str">
-        <v>782.70</v>
+        <v>1.021.03</v>
       </c>
       <c r="H17" t="str">
-        <v>768.00</v>
+        <v>3,199.00</v>
       </c>
       <c r="I17" t="str">
-        <v>847.45</v>
+        <v>3,095.55</v>
       </c>
       <c r="J17" t="str">
-        <v>693.45</v>
+        <v>3,414.25</v>
       </c>
       <c r="K17" t="str">
-        <v>1,279.26</v>
+        <v>2,793.55</v>
       </c>
       <c r="L17" t="str">
-        <v>310.00</v>
+        <v>3,659.75</v>
       </c>
       <c r="M17" t="str">
-        <v>0.00</v>
+        <v>1,602.00</v>
       </c>
       <c r="N17" t="str">
-        <v>--</v>
+        <v>72.09</v>
       </c>
       <c r="O17" t="str">
-        <v>271.59</v>
+        <v>44.20</v>
       </c>
       <c r="P17" t="str">
-        <v>--</v>
+        <v>40.84</v>
       </c>
       <c r="Q17" t="str">
-        <v>0.00</v>
+        <v>347.12</v>
       </c>
       <c r="R17" t="str">
-        <v>2.00</v>
+        <v>9.19</v>
       </c>
       <c r="S17" t="str">
-        <v>61,660</v>
+        <v>10.00</v>
       </c>
       <c r="T17" t="str">
-        <v>0.13</v>
+        <v>59,927</v>
       </c>
       <c r="U17" t="str">
-        <v>4,732,397</v>
+        <v>2.04</v>
+      </c>
+      <c r="V17" t="str">
+        <v>587,862</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Tata Motors</v>
+        <v>DLF Ltd.</v>
       </c>
       <c r="B18" t="str">
-        <v>435.50</v>
+        <v>Construction</v>
       </c>
       <c r="C18" t="str">
-        <v>433.80</v>
+        <v>353.50</v>
       </c>
       <c r="D18" t="str">
-        <v>18,270,995.00</v>
+        <v>353.90</v>
       </c>
       <c r="E18" t="str">
-        <v>78,190.72</v>
+        <v>5,561,409.00</v>
       </c>
       <c r="F18" t="str">
-        <v>1.741.63</v>
+        <v>19,945.99</v>
       </c>
       <c r="G18" t="str">
-        <v>436.30</v>
+        <v>1.821.74</v>
       </c>
       <c r="H18" t="str">
-        <v>427.10</v>
+        <v>360.85</v>
       </c>
       <c r="I18" t="str">
-        <v>477.15</v>
+        <v>345.20</v>
       </c>
       <c r="J18" t="str">
-        <v>390.45</v>
+        <v>389.25</v>
       </c>
       <c r="K18" t="str">
-        <v>536.70</v>
+        <v>318.55</v>
       </c>
       <c r="L18" t="str">
-        <v>268.45</v>
+        <v>449.70</v>
       </c>
       <c r="M18" t="str">
-        <v>-54.25</v>
+        <v>231.85</v>
       </c>
       <c r="N18" t="str">
-        <v>--</v>
+        <v>6.37</v>
       </c>
       <c r="O18" t="str">
-        <v>50.11</v>
+        <v>56.30</v>
       </c>
       <c r="P18" t="str">
-        <v>170.80</v>
+        <v>39.08</v>
       </c>
       <c r="Q18" t="str">
-        <v>2.51</v>
+        <v>142.87</v>
       </c>
       <c r="R18" t="str">
+        <v>2.52</v>
+      </c>
+      <c r="S18" t="str">
         <v>2.00</v>
       </c>
-      <c r="S18" t="str">
-        <v>142,108</v>
-      </c>
       <c r="T18" t="str">
-        <v>0.00</v>
+        <v>88,777</v>
       </c>
       <c r="U18" t="str">
-        <v>37,440,645</v>
+        <v>0.56</v>
+      </c>
+      <c r="V18" t="str">
+        <v>9,791,044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Macrotech Developers</v>
+        <v>Dr Reddys</v>
       </c>
       <c r="B19" t="str">
-        <v>1,125.00</v>
+        <v>Pharmaceuticals</v>
       </c>
       <c r="C19" t="str">
-        <v>1,110.60</v>
+        <v>4,021.00</v>
       </c>
       <c r="D19" t="str">
-        <v>173,649.00</v>
+        <v>4,004.95</v>
       </c>
       <c r="E19" t="str">
-        <v>1,924.64</v>
+        <v>1,290,222.00</v>
       </c>
       <c r="F19" t="str">
-        <v>1.701.63</v>
+        <v>52,000.46</v>
       </c>
       <c r="G19" t="str">
-        <v>1,132.90</v>
+        <v>0.420.40</v>
       </c>
       <c r="H19" t="str">
-        <v>1,081.05</v>
+        <v>4,056.95</v>
       </c>
       <c r="I19" t="str">
-        <v>1,332.70</v>
+        <v>3,970.00</v>
       </c>
       <c r="J19" t="str">
-        <v>888.50</v>
+        <v>4,405.40</v>
       </c>
       <c r="K19" t="str">
-        <v>1,539.00</v>
+        <v>3,604.50</v>
       </c>
       <c r="L19" t="str">
-        <v>422.60</v>
+        <v>5,614.60</v>
       </c>
       <c r="M19" t="str">
-        <v>20.30</v>
+        <v>3,654.00</v>
       </c>
       <c r="N19" t="str">
-        <v>54.60</v>
+        <v>158.80</v>
       </c>
       <c r="O19" t="str">
-        <v>39.52</v>
+        <v>25.38</v>
       </c>
       <c r="P19" t="str">
-        <v>181.66</v>
+        <v>35.79</v>
       </c>
       <c r="Q19" t="str">
-        <v>6.11</v>
+        <v>1,060.05</v>
       </c>
       <c r="R19" t="str">
-        <v>10.00</v>
+        <v>3.81</v>
       </c>
       <c r="S19" t="str">
-        <v>53,368</v>
+        <v>5.00</v>
       </c>
       <c r="T19" t="str">
-        <v>0.00</v>
+        <v>67,075</v>
       </c>
       <c r="U19" t="str">
-        <v>429,431</v>
+        <v>0.62</v>
+      </c>
+      <c r="V19" t="str">
+        <v>723,177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>MphasiS Ltd.</v>
+        <v>Bandhan Bank</v>
       </c>
       <c r="B20" t="str">
-        <v>3,110.00</v>
+        <v>Banks</v>
       </c>
       <c r="C20" t="str">
-        <v>3,106.90</v>
+        <v>290.00</v>
       </c>
       <c r="D20" t="str">
-        <v>539,535.00</v>
+        <v>294.95</v>
       </c>
       <c r="E20" t="str">
-        <v>16,746.63</v>
+        <v>18,303,607.00</v>
       </c>
       <c r="F20" t="str">
-        <v>1.031.04</v>
+        <v>55,514.84</v>
       </c>
       <c r="G20" t="str">
-        <v>3,152.40</v>
+        <v>1.231.19</v>
       </c>
       <c r="H20" t="str">
-        <v>3,070.00</v>
+        <v>306.00</v>
       </c>
       <c r="I20" t="str">
-        <v>3,417.55</v>
+        <v>280.25</v>
       </c>
       <c r="J20" t="str">
-        <v>2,796.25</v>
+        <v>324.40</v>
       </c>
       <c r="K20" t="str">
-        <v>3,659.75</v>
+        <v>265.50</v>
       </c>
       <c r="L20" t="str">
-        <v>1,602.00</v>
+        <v>371.00</v>
       </c>
       <c r="M20" t="str">
-        <v>72.09</v>
+        <v>229.55</v>
       </c>
       <c r="N20" t="str">
-        <v>43.06</v>
+        <v>0.00</v>
       </c>
       <c r="O20" t="str">
-        <v>41.19</v>
+        <v>--</v>
       </c>
       <c r="P20" t="str">
-        <v>347.12</v>
+        <v>29.51</v>
       </c>
       <c r="Q20" t="str">
-        <v>8.95</v>
+        <v>--</v>
       </c>
       <c r="R20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="S20" t="str">
         <v>10.00</v>
       </c>
-      <c r="S20" t="str">
-        <v>58,371</v>
-      </c>
       <c r="T20" t="str">
-        <v>2.09</v>
+        <v>48,855</v>
       </c>
       <c r="U20" t="str">
-        <v>575,345</v>
+        <v>0.33</v>
+      </c>
+      <c r="V20" t="str">
+        <v>9,147,129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>L&amp;T Technology</v>
+        <v>Eicher Motors</v>
       </c>
       <c r="B21" t="str">
-        <v>4,790.00</v>
+        <v>Auto</v>
       </c>
       <c r="C21" t="str">
-        <v>4,732.85</v>
+        <v>2,378.75</v>
       </c>
       <c r="D21" t="str">
-        <v>203,017.00</v>
+        <v>2,378.75</v>
       </c>
       <c r="E21" t="str">
-        <v>9,720.66</v>
+        <v>661,123.00</v>
       </c>
       <c r="F21" t="str">
-        <v>0.990.97</v>
+        <v>15,737.37</v>
       </c>
       <c r="G21" t="str">
-        <v>4,818.00</v>
+        <v>1.030.99</v>
       </c>
       <c r="H21" t="str">
-        <v>4,736.00</v>
+        <v>2,404.80</v>
       </c>
       <c r="I21" t="str">
-        <v>5,206.10</v>
+        <v>2,329.00</v>
       </c>
       <c r="J21" t="str">
-        <v>4,259.60</v>
+        <v>2,616.60</v>
       </c>
       <c r="K21" t="str">
-        <v>5,955.50</v>
+        <v>2,140.90</v>
       </c>
       <c r="L21" t="str">
-        <v>2,475.00</v>
+        <v>2,994.00</v>
       </c>
       <c r="M21" t="str">
-        <v>84.29</v>
+        <v>2,159.55</v>
       </c>
       <c r="N21" t="str">
-        <v>56.81</v>
+        <v>58.24</v>
       </c>
       <c r="O21" t="str">
-        <v>51.79</v>
+        <v>40.87</v>
       </c>
       <c r="P21" t="str">
-        <v>327.26</v>
+        <v>48.85</v>
       </c>
       <c r="Q21" t="str">
-        <v>14.64</v>
+        <v>418.32</v>
       </c>
       <c r="R21" t="str">
-        <v>2.00</v>
+        <v>5.70</v>
       </c>
       <c r="S21" t="str">
-        <v>50,530</v>
+        <v>1.00</v>
       </c>
       <c r="T21" t="str">
-        <v>0.46</v>
+        <v>65,088</v>
       </c>
       <c r="U21" t="str">
-        <v>306,646</v>
+        <v>0.71</v>
+      </c>
+      <c r="V21" t="str">
+        <v>791,219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>NTPC Ltd.</v>
+        <v>HDFC Bank</v>
       </c>
       <c r="B22" t="str">
-        <v>132.90</v>
+        <v>Banks</v>
       </c>
       <c r="C22" t="str">
-        <v>132.90</v>
+        <v>1,481.30</v>
       </c>
       <c r="D22" t="str">
-        <v>9,172,207.00</v>
+        <v>1,486.50</v>
       </c>
       <c r="E22" t="str">
-        <v>12,189.86</v>
+        <v>5,230,907.00</v>
       </c>
       <c r="F22" t="str">
-        <v>0.850.81</v>
+        <v>78,157.60</v>
       </c>
       <c r="G22" t="str">
-        <v>133.40</v>
+        <v>1.091.11</v>
       </c>
       <c r="H22" t="str">
-        <v>131.70</v>
+        <v>1,498.00</v>
       </c>
       <c r="I22" t="str">
-        <v>146.15</v>
+        <v>1,457.20</v>
       </c>
       <c r="J22" t="str">
-        <v>119.65</v>
+        <v>1,635.15</v>
       </c>
       <c r="K22" t="str">
-        <v>152.10</v>
+        <v>1,337.85</v>
       </c>
       <c r="L22" t="str">
-        <v>97.05</v>
+        <v>1,725.00</v>
       </c>
       <c r="M22" t="str">
-        <v>16.55</v>
+        <v>1,292.00</v>
       </c>
       <c r="N22" t="str">
-        <v>8.03</v>
+        <v>65.01</v>
       </c>
       <c r="O22" t="str">
-        <v>26.61</v>
+        <v>22.98</v>
       </c>
       <c r="P22" t="str">
-        <v>133.31</v>
+        <v>29.51</v>
       </c>
       <c r="Q22" t="str">
+        <v>379.55</v>
+      </c>
+      <c r="R22" t="str">
+        <v>3.94</v>
+      </c>
+      <c r="S22" t="str">
         <v>1.00</v>
       </c>
-      <c r="R22" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="S22" t="str">
-        <v>128,869</v>
-      </c>
       <c r="T22" t="str">
-        <v>4.63</v>
+        <v>828,454</v>
       </c>
       <c r="U22" t="str">
-        <v>12,259,867</v>
+        <v>0.44</v>
+      </c>
+      <c r="V22" t="str">
+        <v>9,726,767</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>TATA MOTORS</v>
+        <v>Godrej Consumer</v>
       </c>
       <c r="B23" t="str">
-        <v>209.10</v>
+        <v>Personal</v>
       </c>
       <c r="C23" t="str">
-        <v>208.15</v>
+        <v>720.00</v>
       </c>
       <c r="D23" t="str">
-        <v>2,392,199.00</v>
+        <v>722.25</v>
       </c>
       <c r="E23" t="str">
-        <v>4,948.26</v>
+        <v>2,803,453.00</v>
       </c>
       <c r="F23" t="str">
-        <v>1.831.70</v>
+        <v>19,604.55</v>
       </c>
       <c r="G23" t="str">
-        <v>209.95</v>
+        <v>0.680.67</v>
       </c>
       <c r="H23" t="str">
-        <v>205.45</v>
+        <v>721.00</v>
       </c>
       <c r="I23" t="str">
-        <v>228.95</v>
+        <v>691.25</v>
       </c>
       <c r="J23" t="str">
-        <v>187.35</v>
+        <v>794.45</v>
       </c>
       <c r="K23" t="str">
-        <v>298.65</v>
+        <v>650.05</v>
       </c>
       <c r="L23" t="str">
-        <v>119.15</v>
+        <v>1,138.00</v>
       </c>
       <c r="M23" t="str">
-        <v>45.85</v>
+        <v>660.05</v>
       </c>
       <c r="N23" t="str">
-        <v>4.51</v>
+        <v>17.47</v>
       </c>
       <c r="O23" t="str">
-        <v>50.11</v>
+        <v>40.03</v>
       </c>
       <c r="P23" t="str">
-        <v>170.80</v>
+        <v>59.61</v>
       </c>
       <c r="Q23" t="str">
-        <v>1.22</v>
+        <v>92.30</v>
       </c>
       <c r="R23" t="str">
-        <v>2.00</v>
+        <v>7.58</v>
       </c>
       <c r="S23" t="str">
-        <v>59,725</v>
+        <v>1.00</v>
       </c>
       <c r="T23" t="str">
+        <v>71,509</v>
+      </c>
+      <c r="U23" t="str">
         <v>0.00</v>
       </c>
-      <c r="U23" t="str">
-        <v>3,766,742</v>
+      <c r="V23" t="str">
+        <v>1,749,198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Maruti Suzuki</v>
+        <v>Gland Pharma</v>
       </c>
       <c r="B24" t="str">
-        <v>7,844.00</v>
+        <v>Pharmaceuticals</v>
       </c>
       <c r="C24" t="str">
-        <v>7,693.00</v>
+        <v>3,271.00</v>
       </c>
       <c r="D24" t="str">
-        <v>1,354,525.00</v>
+        <v>3,282.65</v>
       </c>
       <c r="E24" t="str">
-        <v>104,373.60</v>
+        <v>194,024.00</v>
       </c>
       <c r="F24" t="str">
-        <v>0.920.90</v>
+        <v>6,208.48</v>
       </c>
       <c r="G24" t="str">
-        <v>7,940.00</v>
+        <v>0.310.30</v>
       </c>
       <c r="H24" t="str">
-        <v>7,650.00</v>
+        <v>3,296.00</v>
       </c>
       <c r="I24" t="str">
-        <v>8,462.30</v>
+        <v>3,170.00</v>
       </c>
       <c r="J24" t="str">
-        <v>6,923.70</v>
+        <v>3,939.15</v>
       </c>
       <c r="K24" t="str">
-        <v>9,050.00</v>
+        <v>2,626.15</v>
       </c>
       <c r="L24" t="str">
-        <v>6,400.00</v>
+        <v>4,350.00</v>
       </c>
       <c r="M24" t="str">
-        <v>107.42</v>
+        <v>2,365.00</v>
       </c>
       <c r="N24" t="str">
-        <v>71.73</v>
+        <v>72.19</v>
       </c>
       <c r="O24" t="str">
-        <v>73.60</v>
+        <v>44.33</v>
       </c>
       <c r="P24" t="str">
-        <v>1,737.97</v>
+        <v>35.79</v>
       </c>
       <c r="Q24" t="str">
-        <v>4.44</v>
+        <v>359.29</v>
       </c>
       <c r="R24" t="str">
-        <v>5.00</v>
+        <v>8.91</v>
       </c>
       <c r="S24" t="str">
-        <v>232,769</v>
+        <v>1.00</v>
       </c>
       <c r="T24" t="str">
-        <v>0.58</v>
+        <v>52,574</v>
       </c>
       <c r="U24" t="str">
-        <v>1,255,916</v>
+        <v>0.00</v>
+      </c>
+      <c r="V24" t="str">
+        <v>143,623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Dabur India</v>
+        <v>Coal India</v>
       </c>
       <c r="B25" t="str">
-        <v>554.50</v>
+        <v>Mining</v>
       </c>
       <c r="C25" t="str">
-        <v>560.25</v>
+        <v>183.65</v>
       </c>
       <c r="D25" t="str">
-        <v>1,119,604.00</v>
+        <v>182.30</v>
       </c>
       <c r="E25" t="str">
-        <v>6,152.78</v>
+        <v>12,372,751.00</v>
       </c>
       <c r="F25" t="str">
-        <v>0.430.42</v>
+        <v>22,685.44</v>
       </c>
       <c r="G25" t="str">
-        <v>560.95</v>
+        <v>0.870.76</v>
       </c>
       <c r="H25" t="str">
-        <v>547.10</v>
+        <v>185.80</v>
       </c>
       <c r="I25" t="str">
-        <v>616.25</v>
+        <v>180.50</v>
       </c>
       <c r="J25" t="str">
-        <v>504.25</v>
+        <v>200.50</v>
       </c>
       <c r="K25" t="str">
-        <v>658.95</v>
+        <v>164.10</v>
       </c>
       <c r="L25" t="str">
-        <v>502.00</v>
+        <v>203.80</v>
       </c>
       <c r="M25" t="str">
-        <v>10.31</v>
+        <v>123.40</v>
       </c>
       <c r="N25" t="str">
-        <v>53.30</v>
+        <v>24.75</v>
       </c>
       <c r="O25" t="str">
-        <v>60.79</v>
+        <v>7.41</v>
       </c>
       <c r="P25" t="str">
-        <v>43.56</v>
+        <v>13.04</v>
       </c>
       <c r="Q25" t="str">
-        <v>12.62</v>
+        <v>59.97</v>
       </c>
       <c r="R25" t="str">
-        <v>1.00</v>
+        <v>3.06</v>
       </c>
       <c r="S25" t="str">
-        <v>97,153</v>
+        <v>10.00</v>
       </c>
       <c r="T25" t="str">
-        <v>0.86</v>
+        <v>112,994</v>
       </c>
       <c r="U25" t="str">
-        <v>2,263,228</v>
+        <v>8.73</v>
+      </c>
+      <c r="V25" t="str">
+        <v>24,465,760</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Bank Of</v>
+        <v>L&amp;T Technology</v>
       </c>
       <c r="B26" t="str">
-        <v>107.90</v>
+        <v>Computers</v>
       </c>
       <c r="C26" t="str">
-        <v>107.95</v>
+        <v>4,802.40</v>
       </c>
       <c r="D26" t="str">
-        <v>24,879,006.00</v>
+        <v>4,788.10</v>
       </c>
       <c r="E26" t="str">
-        <v>26,496.14</v>
+        <v>235,956.00</v>
       </c>
       <c r="F26" t="str">
-        <v>1.421.38</v>
+        <v>11,511.23</v>
       </c>
       <c r="G26" t="str">
-        <v>108.35</v>
+        <v>0.980.96</v>
       </c>
       <c r="H26" t="str">
-        <v>105.75</v>
+        <v>4,891.65</v>
       </c>
       <c r="I26" t="str">
-        <v>118.70</v>
+        <v>4,720.05</v>
       </c>
       <c r="J26" t="str">
-        <v>97.20</v>
+        <v>5,266.90</v>
       </c>
       <c r="K26" t="str">
-        <v>118.80</v>
+        <v>4,309.30</v>
       </c>
       <c r="L26" t="str">
-        <v>61.75</v>
+        <v>5,955.50</v>
       </c>
       <c r="M26" t="str">
-        <v>9.96</v>
+        <v>2,476.05</v>
       </c>
       <c r="N26" t="str">
-        <v>10.69</v>
+        <v>84.29</v>
       </c>
       <c r="O26" t="str">
-        <v>20.58</v>
+        <v>57.88</v>
       </c>
       <c r="P26" t="str">
-        <v>160.16</v>
+        <v>52.40</v>
       </c>
       <c r="Q26" t="str">
-        <v>0.67</v>
+        <v>327.26</v>
       </c>
       <c r="R26" t="str">
+        <v>14.91</v>
+      </c>
+      <c r="S26" t="str">
         <v>2.00</v>
       </c>
-      <c r="S26" t="str">
-        <v>55,075</v>
-      </c>
       <c r="T26" t="str">
-        <v>0.00</v>
+        <v>51,484</v>
       </c>
       <c r="U26" t="str">
-        <v>49,916,126</v>
+        <v>0.45</v>
+      </c>
+      <c r="V26" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Eicher Motors</v>
+        <v>Housing Development</v>
       </c>
       <c r="B27" t="str">
-        <v>2,448.95</v>
+        <v>Finance</v>
       </c>
       <c r="C27" t="str">
-        <v>2,436.95</v>
+        <v>2,398.00</v>
       </c>
       <c r="D27" t="str">
-        <v>480,116.00</v>
+        <v>2,391.90</v>
       </c>
       <c r="E27" t="str">
-        <v>11,420.76</v>
+        <v>6,357,856.00</v>
       </c>
       <c r="F27" t="str">
-        <v>1.010.97</v>
+        <v>152,763.39</v>
       </c>
       <c r="G27" t="str">
-        <v>2,448.95</v>
+        <v>1.241.25</v>
       </c>
       <c r="H27" t="str">
-        <v>2,372.00</v>
+        <v>2,420.00</v>
       </c>
       <c r="I27" t="str">
-        <v>2,680.60</v>
+        <v>2,355.55</v>
       </c>
       <c r="J27" t="str">
-        <v>2,193.30</v>
+        <v>2,631.05</v>
       </c>
       <c r="K27" t="str">
-        <v>2,994.00</v>
+        <v>2,152.75</v>
       </c>
       <c r="L27" t="str">
-        <v>2,159.55</v>
+        <v>3,021.10</v>
       </c>
       <c r="M27" t="str">
-        <v>58.24</v>
+        <v>2,046.00</v>
       </c>
       <c r="N27" t="str">
-        <v>40.84</v>
+        <v>118.58</v>
       </c>
       <c r="O27" t="str">
-        <v>50.11</v>
+        <v>20.26</v>
       </c>
       <c r="P27" t="str">
-        <v>418.32</v>
+        <v>26.65</v>
       </c>
       <c r="Q27" t="str">
-        <v>5.69</v>
+        <v>905.31</v>
       </c>
       <c r="R27" t="str">
-        <v>1.00</v>
+        <v>2.66</v>
       </c>
       <c r="S27" t="str">
-        <v>65,043</v>
+        <v>2.00</v>
       </c>
       <c r="T27" t="str">
-        <v>0.71</v>
+        <v>435,369</v>
       </c>
       <c r="U27" t="str">
-        <v>795,835</v>
+        <v>0.96</v>
+      </c>
+      <c r="V27" t="str">
+        <v>5,014,859</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>INDUS TOWERS</v>
+        <v>Dabur India</v>
       </c>
       <c r="B28" t="str">
-        <v>215.50</v>
+        <v>Personal</v>
       </c>
       <c r="C28" t="str">
-        <v>214.70</v>
+        <v>549.00</v>
       </c>
       <c r="D28" t="str">
-        <v>6,255,048.00</v>
+        <v>549.55</v>
       </c>
       <c r="E28" t="str">
-        <v>13,132.47</v>
+        <v>2,369,464.00</v>
       </c>
       <c r="F28" t="str">
-        <v>1.331.27</v>
+        <v>12,652.94</v>
       </c>
       <c r="G28" t="str">
-        <v>222.50</v>
+        <v>0.430.42</v>
       </c>
       <c r="H28" t="str">
-        <v>209.10</v>
+        <v>549.00</v>
       </c>
       <c r="I28" t="str">
-        <v>236.15</v>
+        <v>531.30</v>
       </c>
       <c r="J28" t="str">
-        <v>193.25</v>
+        <v>604.50</v>
       </c>
       <c r="K28" t="str">
-        <v>332.80</v>
+        <v>494.60</v>
       </c>
       <c r="L28" t="str">
-        <v>194.10</v>
+        <v>658.95</v>
       </c>
       <c r="M28" t="str">
-        <v>21.92</v>
+        <v>502.00</v>
       </c>
       <c r="N28" t="str">
-        <v>9.58</v>
+        <v>10.31</v>
       </c>
       <c r="O28" t="str">
-        <v>19.26</v>
+        <v>51.79</v>
       </c>
       <c r="P28" t="str">
-        <v>58.91</v>
+        <v>59.61</v>
       </c>
       <c r="Q28" t="str">
-        <v>3.57</v>
+        <v>43.56</v>
       </c>
       <c r="R28" t="str">
-        <v>10.00</v>
+        <v>12.26</v>
       </c>
       <c r="S28" t="str">
-        <v>56,580</v>
+        <v>1.00</v>
       </c>
       <c r="T28" t="str">
-        <v>9.58</v>
+        <v>94,404</v>
       </c>
       <c r="U28" t="str">
-        <v>10,285,581</v>
+        <v>0.89</v>
+      </c>
+      <c r="V28" t="str">
+        <v>2,258,083</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Tech Mahindra</v>
+        <v>FSN E-Commerce</v>
       </c>
       <c r="B29" t="str">
-        <v>1,495.00</v>
+        <v>Miscellaneous</v>
       </c>
       <c r="C29" t="str">
-        <v>1,493.50</v>
+        <v>1,515.30</v>
       </c>
       <c r="D29" t="str">
-        <v>2,110,200.00</v>
+        <v>1,503.30</v>
       </c>
       <c r="E29" t="str">
-        <v>31,226.74</v>
+        <v>663,969.00</v>
       </c>
       <c r="F29" t="str">
-        <v>1.011.00</v>
+        <v>10,283.22</v>
       </c>
       <c r="G29" t="str">
-        <v>1,520.00</v>
+        <v>1.161.16</v>
       </c>
       <c r="H29" t="str">
-        <v>1,476.20</v>
+        <v>1,562.20</v>
       </c>
       <c r="I29" t="str">
-        <v>1,642.85</v>
+        <v>1,491.85</v>
       </c>
       <c r="J29" t="str">
-        <v>1,344.15</v>
+        <v>1,803.95</v>
       </c>
       <c r="K29" t="str">
-        <v>1,838.00</v>
+        <v>1,202.65</v>
       </c>
       <c r="L29" t="str">
-        <v>937.00</v>
+        <v>2,573.70</v>
       </c>
       <c r="M29" t="str">
-        <v>52.93</v>
+        <v>1,125.00</v>
       </c>
       <c r="N29" t="str">
-        <v>27.96</v>
+        <v>0.00</v>
       </c>
       <c r="O29" t="str">
-        <v>41.19</v>
+        <v>--</v>
       </c>
       <c r="P29" t="str">
-        <v>260.38</v>
+        <v>217.37</v>
       </c>
       <c r="Q29" t="str">
-        <v>5.69</v>
+        <v>10.85</v>
       </c>
       <c r="R29" t="str">
-        <v>5.00</v>
+        <v>142.75</v>
       </c>
       <c r="S29" t="str">
-        <v>143,745</v>
+        <v>1.00</v>
       </c>
       <c r="T29" t="str">
-        <v>3.04</v>
+        <v>73,414</v>
       </c>
       <c r="U29" t="str">
-        <v>2,485,500</v>
+        <v>0.00</v>
+      </c>
+      <c r="V29" t="str">
+        <v>1,127,328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Housing Development</v>
+        <v>Zomato Ltd.</v>
       </c>
       <c r="B30" t="str">
-        <v>2,459.00</v>
+        <v>Online</v>
       </c>
       <c r="C30" t="str">
-        <v>2,415.25</v>
+        <v>80.95</v>
       </c>
       <c r="D30" t="str">
-        <v>3,702,411.00</v>
+        <v>80.40</v>
       </c>
       <c r="E30" t="str">
-        <v>88,557.97</v>
+        <v>23,798,591.00</v>
       </c>
       <c r="F30" t="str">
-        <v>1.231.23</v>
+        <v>19,312.56</v>
       </c>
       <c r="G30" t="str">
-        <v>2,459.00</v>
+        <v>1.771.69</v>
       </c>
       <c r="H30" t="str">
-        <v>2,383.50</v>
+        <v>81.90</v>
       </c>
       <c r="I30" t="str">
-        <v>2,656.75</v>
+        <v>79.30</v>
       </c>
       <c r="J30" t="str">
-        <v>2,173.75</v>
+        <v>88.40</v>
       </c>
       <c r="K30" t="str">
-        <v>3,021.10</v>
+        <v>72.40</v>
       </c>
       <c r="L30" t="str">
-        <v>2,046.00</v>
+        <v>169.00</v>
       </c>
       <c r="M30" t="str">
-        <v>118.58</v>
+        <v>75.50</v>
       </c>
       <c r="N30" t="str">
-        <v>20.17</v>
+        <v>-1.24</v>
       </c>
       <c r="O30" t="str">
-        <v>27.00</v>
+        <v>--</v>
       </c>
       <c r="P30" t="str">
-        <v>905.31</v>
+        <v>217.37</v>
       </c>
       <c r="Q30" t="str">
-        <v>2.65</v>
+        <v>10.70</v>
       </c>
       <c r="R30" t="str">
-        <v>2.00</v>
+        <v>7.59</v>
       </c>
       <c r="S30" t="str">
-        <v>433,403</v>
+        <v>1.00</v>
       </c>
       <c r="T30" t="str">
-        <v>0.96</v>
+        <v>63,881</v>
       </c>
       <c r="U30" t="str">
-        <v>5,095,623</v>
+        <v>0.00</v>
+      </c>
+      <c r="V30" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Asian Paints</v>
+        <v>Wipro Ltd.</v>
       </c>
       <c r="B31" t="str">
-        <v>3,117.30</v>
+        <v>Computers</v>
       </c>
       <c r="C31" t="str">
-        <v>3,136.60</v>
+        <v>603.40</v>
       </c>
       <c r="D31" t="str">
-        <v>1,259,015.00</v>
+        <v>600.00</v>
       </c>
       <c r="E31" t="str">
-        <v>38,346.45</v>
+        <v>7,790,250.00</v>
       </c>
       <c r="F31" t="str">
-        <v>0.750.76</v>
+        <v>47,524.42</v>
       </c>
       <c r="G31" t="str">
-        <v>3,117.30</v>
+        <v>0.920.89</v>
       </c>
       <c r="H31" t="str">
-        <v>3,030.10</v>
+        <v>611.00</v>
       </c>
       <c r="I31" t="str">
-        <v>3,450.25</v>
+        <v>596.15</v>
       </c>
       <c r="J31" t="str">
-        <v>2,822.95</v>
+        <v>660.00</v>
       </c>
       <c r="K31" t="str">
-        <v>3,590.00</v>
+        <v>540.00</v>
       </c>
       <c r="L31" t="str">
-        <v>2,355.35</v>
+        <v>739.85</v>
       </c>
       <c r="M31" t="str">
-        <v>31.61</v>
+        <v>397.75</v>
       </c>
       <c r="N31" t="str">
-        <v>96.35</v>
+        <v>22.10</v>
       </c>
       <c r="O31" t="str">
-        <v>90.80</v>
+        <v>27.60</v>
       </c>
       <c r="P31" t="str">
-        <v>137.92</v>
+        <v>40.84</v>
       </c>
       <c r="Q31" t="str">
-        <v>22.09</v>
+        <v>99.86</v>
       </c>
       <c r="R31" t="str">
-        <v>1.00</v>
+        <v>6.11</v>
       </c>
       <c r="S31" t="str">
-        <v>292,148</v>
+        <v>2.00</v>
       </c>
       <c r="T31" t="str">
-        <v>0.59</v>
+        <v>334,423</v>
       </c>
       <c r="U31" t="str">
-        <v>2,260,887</v>
+        <v>0.16</v>
+      </c>
+      <c r="V31" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Cholamandalam Investment</v>
+        <v>Apollo Hospitals</v>
       </c>
       <c r="B32" t="str">
-        <v>717.90</v>
+        <v>Hospitals</v>
       </c>
       <c r="C32" t="str">
-        <v>719.85</v>
+        <v>4,798.00</v>
       </c>
       <c r="D32" t="str">
-        <v>1,702,087.00</v>
+        <v>4,767.40</v>
       </c>
       <c r="E32" t="str">
-        <v>11,878.01</v>
+        <v>1,255,679.00</v>
       </c>
       <c r="F32" t="str">
-        <v>1.361.33</v>
+        <v>58,735.64</v>
       </c>
       <c r="G32" t="str">
-        <v>719.85</v>
+        <v>0.850.81</v>
       </c>
       <c r="H32" t="str">
-        <v>696.25</v>
+        <v>4,828.00</v>
       </c>
       <c r="I32" t="str">
-        <v>791.80</v>
+        <v>4,471.85</v>
       </c>
       <c r="J32" t="str">
-        <v>647.90</v>
+        <v>5,244.10</v>
       </c>
       <c r="K32" t="str">
-        <v>723.95</v>
+        <v>4,290.70</v>
       </c>
       <c r="L32" t="str">
-        <v>469.25</v>
+        <v>5,935.40</v>
       </c>
       <c r="M32" t="str">
-        <v>20.85</v>
+        <v>2,787.50</v>
       </c>
       <c r="N32" t="str">
-        <v>33.47</v>
+        <v>78.82</v>
       </c>
       <c r="O32" t="str">
-        <v>51.62</v>
+        <v>59.35</v>
       </c>
       <c r="P32" t="str">
-        <v>116.93</v>
+        <v>108.32</v>
       </c>
       <c r="Q32" t="str">
-        <v>5.97</v>
+        <v>333.57</v>
       </c>
       <c r="R32" t="str">
-        <v>2.00</v>
+        <v>14.03</v>
       </c>
       <c r="S32" t="str">
-        <v>57,293</v>
+        <v>5.00</v>
       </c>
       <c r="T32" t="str">
-        <v>0.29</v>
+        <v>67,257</v>
       </c>
       <c r="U32" t="str">
-        <v>2,514,213</v>
+        <v>0.06</v>
+      </c>
+      <c r="V32" t="str">
+        <v>728,383</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>SBI Life</v>
+        <v>Mahindra and</v>
       </c>
       <c r="B33" t="str">
-        <v>1,139.00</v>
+        <v>Auto</v>
       </c>
       <c r="C33" t="str">
-        <v>1,128.55</v>
+        <v>783.00</v>
       </c>
       <c r="D33" t="str">
-        <v>849,763.00</v>
+        <v>783.50</v>
       </c>
       <c r="E33" t="str">
-        <v>9,311.70</v>
+        <v>5,436,875.00</v>
       </c>
       <c r="F33" t="str">
-        <v>0.740.72</v>
+        <v>42,712.09</v>
       </c>
       <c r="G33" t="str">
-        <v>1,139.00</v>
+        <v>1.061.04</v>
       </c>
       <c r="H33" t="str">
-        <v>1,094.00</v>
+        <v>789.05</v>
       </c>
       <c r="I33" t="str">
-        <v>1,241.40</v>
+        <v>769.00</v>
       </c>
       <c r="J33" t="str">
-        <v>1,015.70</v>
+        <v>861.85</v>
       </c>
       <c r="K33" t="str">
-        <v>1,293.25</v>
+        <v>705.15</v>
       </c>
       <c r="L33" t="str">
-        <v>861.00</v>
+        <v>979.00</v>
       </c>
       <c r="M33" t="str">
-        <v>0.00</v>
+        <v>671.15</v>
       </c>
       <c r="N33" t="str">
-        <v>--</v>
+        <v>43.52</v>
       </c>
       <c r="O33" t="str">
-        <v>78.35</v>
+        <v>18.05</v>
       </c>
       <c r="P33" t="str">
-        <v>--</v>
+        <v>73.37</v>
       </c>
       <c r="Q33" t="str">
-        <v>0.00</v>
+        <v>405.92</v>
       </c>
       <c r="R33" t="str">
-        <v>10.00</v>
+        <v>1.94</v>
       </c>
       <c r="S33" t="str">
-        <v>109,620</v>
+        <v>5.00</v>
       </c>
       <c r="T33" t="str">
-        <v>0.23</v>
+        <v>97,665</v>
       </c>
       <c r="U33" t="str">
-        <v>1,563,768</v>
+        <v>1.11</v>
+      </c>
+      <c r="V33" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Grasim Industries</v>
+        <v>SBI Cards</v>
       </c>
       <c r="B34" t="str">
-        <v>1,607.00</v>
+        <v>Finance</v>
       </c>
       <c r="C34" t="str">
-        <v>1,619.85</v>
+        <v>842.30</v>
       </c>
       <c r="D34" t="str">
-        <v>1,286,325.00</v>
+        <v>842.15</v>
       </c>
       <c r="E34" t="str">
-        <v>20,188.23</v>
+        <v>1,302,597.00</v>
       </c>
       <c r="F34" t="str">
-        <v>1.131.07</v>
+        <v>11,036.90</v>
       </c>
       <c r="G34" t="str">
-        <v>1,614.45</v>
+        <v>1.041.02</v>
       </c>
       <c r="H34" t="str">
-        <v>1,556.45</v>
+        <v>853.50</v>
       </c>
       <c r="I34" t="str">
-        <v>1,781.80</v>
+        <v>825.10</v>
       </c>
       <c r="J34" t="str">
-        <v>1,457.90</v>
+        <v>926.35</v>
       </c>
       <c r="K34" t="str">
-        <v>1,929.80</v>
+        <v>757.95</v>
       </c>
       <c r="L34" t="str">
-        <v>1,262.00</v>
+        <v>1,165.00</v>
       </c>
       <c r="M34" t="str">
-        <v>98.56</v>
+        <v>712.25</v>
       </c>
       <c r="N34" t="str">
-        <v>15.92</v>
+        <v>0.00</v>
       </c>
       <c r="O34" t="str">
-        <v>74.66</v>
+        <v>--</v>
       </c>
       <c r="P34" t="str">
-        <v>1,553.77</v>
+        <v>51.11</v>
       </c>
       <c r="Q34" t="str">
-        <v>1.02</v>
+        <v>--</v>
       </c>
       <c r="R34" t="str">
-        <v>2.00</v>
+        <v>0.00</v>
       </c>
       <c r="S34" t="str">
-        <v>103,316</v>
+        <v>10.00</v>
       </c>
       <c r="T34" t="str">
-        <v>0.57</v>
+        <v>79,913</v>
       </c>
       <c r="U34" t="str">
-        <v>1,203,643</v>
+        <v>0.00</v>
+      </c>
+      <c r="V34" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Interglobe Aviation</v>
+        <v>INDUS TOWERS</v>
       </c>
       <c r="B35" t="str">
-        <v>1,882.00</v>
+        <v>Telecommunications</v>
       </c>
       <c r="C35" t="str">
-        <v>1,897.05</v>
+        <v>210.20</v>
       </c>
       <c r="D35" t="str">
-        <v>715,151.00</v>
+        <v>209.95</v>
       </c>
       <c r="E35" t="str">
-        <v>12,973.20</v>
+        <v>2,166,509.00</v>
       </c>
       <c r="F35" t="str">
-        <v>1.281.25</v>
+        <v>4,589.75</v>
       </c>
       <c r="G35" t="str">
-        <v>1,895.00</v>
+        <v>1.331.28</v>
       </c>
       <c r="H35" t="str">
-        <v>1,809.55</v>
+        <v>213.05</v>
       </c>
       <c r="I35" t="str">
-        <v>2,086.75</v>
+        <v>208.75</v>
       </c>
       <c r="J35" t="str">
-        <v>1,707.35</v>
+        <v>230.90</v>
       </c>
       <c r="K35" t="str">
-        <v>2,380.00</v>
+        <v>189.00</v>
       </c>
       <c r="L35" t="str">
-        <v>1,503.00</v>
+        <v>332.80</v>
       </c>
       <c r="M35" t="str">
-        <v>-146.06</v>
+        <v>194.10</v>
       </c>
       <c r="N35" t="str">
-        <v>--</v>
+        <v>21.92</v>
       </c>
       <c r="O35" t="str">
-        <v>51.27</v>
+        <v>9.66</v>
       </c>
       <c r="P35" t="str">
-        <v>1.82</v>
+        <v>18.88</v>
       </c>
       <c r="Q35" t="str">
-        <v>996.74</v>
+        <v>58.91</v>
       </c>
       <c r="R35" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="S35" t="str">
         <v>10.00</v>
       </c>
-      <c r="S35" t="str">
-        <v>69,887</v>
-      </c>
       <c r="T35" t="str">
-        <v>0.00</v>
+        <v>57,092</v>
       </c>
       <c r="U35" t="str">
-        <v>1,786,267</v>
+        <v>9.50</v>
+      </c>
+      <c r="V35" t="str">
+        <v>10,499,983</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Siemens Ltd.</v>
+        <v>ITC Ltd.</v>
       </c>
       <c r="B36" t="str">
-        <v>2,400.00</v>
+        <v>Cigarettes</v>
       </c>
       <c r="C36" t="str">
-        <v>2,380.95</v>
+        <v>244.55</v>
       </c>
       <c r="D36" t="str">
-        <v>167,492.00</v>
+        <v>244.50</v>
       </c>
       <c r="E36" t="str">
-        <v>3,934.22</v>
+        <v>36,945,426.00</v>
       </c>
       <c r="F36" t="str">
-        <v>0.930.88</v>
+        <v>92,271.20</v>
       </c>
       <c r="G36" t="str">
-        <v>2,410.30</v>
+        <v>0.860.83</v>
       </c>
       <c r="H36" t="str">
-        <v>2,341.60</v>
+        <v>250.75</v>
       </c>
       <c r="I36" t="str">
-        <v>2,619.00</v>
+        <v>243.55</v>
       </c>
       <c r="J36" t="str">
-        <v>2,142.90</v>
+        <v>268.95</v>
       </c>
       <c r="K36" t="str">
-        <v>2,576.85</v>
+        <v>220.05</v>
       </c>
       <c r="L36" t="str">
-        <v>1,717.80</v>
+        <v>265.30</v>
       </c>
       <c r="M36" t="str">
-        <v>29.36</v>
+        <v>199.10</v>
       </c>
       <c r="N36" t="str">
-        <v>80.00</v>
+        <v>12.01</v>
       </c>
       <c r="O36" t="str">
-        <v>76.52</v>
+        <v>20.80</v>
       </c>
       <c r="P36" t="str">
-        <v>290.83</v>
+        <v>22.92</v>
       </c>
       <c r="Q36" t="str">
-        <v>8.08</v>
+        <v>47.87</v>
       </c>
       <c r="R36" t="str">
-        <v>2.00</v>
+        <v>5.22</v>
       </c>
       <c r="S36" t="str">
-        <v>83,649</v>
+        <v>1.00</v>
       </c>
       <c r="T36" t="str">
-        <v>0.34</v>
+        <v>307,773</v>
       </c>
       <c r="U36" t="str">
-        <v>277,621</v>
+        <v>4.30</v>
+      </c>
+      <c r="V36" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Reliance Industries</v>
+        <v>Vedanta Ltd.</v>
       </c>
       <c r="B37" t="str">
-        <v>2,444.00</v>
+        <v>Mining</v>
       </c>
       <c r="C37" t="str">
-        <v>2,481.70</v>
+        <v>404.70</v>
       </c>
       <c r="D37" t="str">
-        <v>5,537,752.00</v>
+        <v>400.05</v>
       </c>
       <c r="E37" t="str">
-        <v>136,638.49</v>
+        <v>22,136,086.00</v>
       </c>
       <c r="F37" t="str">
-        <v>1.111.10</v>
+        <v>89,440.86</v>
       </c>
       <c r="G37" t="str">
-        <v>2,484.00</v>
+        <v>1.151.05</v>
       </c>
       <c r="H37" t="str">
-        <v>2,439.00</v>
+        <v>416.00</v>
       </c>
       <c r="I37" t="str">
-        <v>2,729.85</v>
+        <v>402.00</v>
       </c>
       <c r="J37" t="str">
-        <v>2,233.55</v>
+        <v>440.05</v>
       </c>
       <c r="K37" t="str">
-        <v>2,751.35</v>
+        <v>360.05</v>
       </c>
       <c r="L37" t="str">
-        <v>1,876.70</v>
+        <v>416.00</v>
       </c>
       <c r="M37" t="str">
-        <v>85.35</v>
+        <v>209.75</v>
       </c>
       <c r="N37" t="str">
-        <v>28.91</v>
+        <v>52.28</v>
       </c>
       <c r="O37" t="str">
-        <v>24.53</v>
+        <v>7.73</v>
       </c>
       <c r="P37" t="str">
-        <v>1,240.43</v>
+        <v>13.04</v>
       </c>
       <c r="Q37" t="str">
-        <v>1.99</v>
+        <v>208.26</v>
       </c>
       <c r="R37" t="str">
-        <v>10.00</v>
+        <v>1.95</v>
       </c>
       <c r="S37" t="str">
-        <v>1,668,973</v>
+        <v>1.00</v>
       </c>
       <c r="T37" t="str">
-        <v>0.28</v>
+        <v>150,193</v>
       </c>
       <c r="U37" t="str">
-        <v>6,956,707</v>
+        <v>2.35</v>
+      </c>
+      <c r="V37" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Torrent Pharmaceuticals</v>
+        <v>Cholamandalam Investment</v>
       </c>
       <c r="B38" t="str">
-        <v>2,908.00</v>
+        <v>Finance</v>
       </c>
       <c r="C38" t="str">
-        <v>2,874.60</v>
+        <v>697.00</v>
       </c>
       <c r="D38" t="str">
-        <v>277,947.00</v>
+        <v>697.85</v>
       </c>
       <c r="E38" t="str">
-        <v>7,681.34</v>
+        <v>1,744,155.00</v>
       </c>
       <c r="F38" t="str">
-        <v>0.510.50</v>
+        <v>12,417.51</v>
       </c>
       <c r="G38" t="str">
-        <v>2,912.35</v>
+        <v>1.361.33</v>
       </c>
       <c r="H38" t="str">
-        <v>2,731.60</v>
+        <v>720.00</v>
       </c>
       <c r="I38" t="str">
-        <v>3,162.05</v>
+        <v>685.15</v>
       </c>
       <c r="J38" t="str">
-        <v>2,587.15</v>
+        <v>767.60</v>
       </c>
       <c r="K38" t="str">
-        <v>3,298.50</v>
+        <v>628.10</v>
       </c>
       <c r="L38" t="str">
-        <v>2,311.10</v>
+        <v>723.95</v>
       </c>
       <c r="M38" t="str">
-        <v>72.04</v>
+        <v>469.25</v>
       </c>
       <c r="N38" t="str">
-        <v>38.36</v>
+        <v>20.85</v>
       </c>
       <c r="O38" t="str">
-        <v>35.78</v>
+        <v>34.15</v>
       </c>
       <c r="P38" t="str">
-        <v>344.94</v>
+        <v>51.11</v>
       </c>
       <c r="Q38" t="str">
-        <v>8.02</v>
+        <v>116.93</v>
       </c>
       <c r="R38" t="str">
-        <v>5.00</v>
+        <v>6.09</v>
       </c>
       <c r="S38" t="str">
-        <v>46,766</v>
+        <v>2.00</v>
       </c>
       <c r="T38" t="str">
-        <v>1.27</v>
+        <v>58,451</v>
       </c>
       <c r="U38" t="str">
-        <v>168,480</v>
+        <v>0.28</v>
+      </c>
+      <c r="V38" t="str">
+        <v>2,530,067</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Cipla Ltd.</v>
+        <v>Muthoot Finance</v>
       </c>
       <c r="B39" t="str">
-        <v>1,067.80</v>
+        <v>Finance</v>
       </c>
       <c r="C39" t="str">
-        <v>1,048.50</v>
+        <v>1,350.00</v>
       </c>
       <c r="D39" t="str">
-        <v>2,039,889.00</v>
+        <v>1,354.55</v>
       </c>
       <c r="E39" t="str">
-        <v>21,424.95</v>
+        <v>476,254.00</v>
       </c>
       <c r="F39" t="str">
-        <v>0.030.01</v>
+        <v>6,519.92</v>
       </c>
       <c r="G39" t="str">
-        <v>1,071.00</v>
+        <v>0.880.84</v>
       </c>
       <c r="H39" t="str">
-        <v>1,049.10</v>
+        <v>1,375.00</v>
       </c>
       <c r="I39" t="str">
-        <v>1,153.35</v>
+        <v>1,340.10</v>
       </c>
       <c r="J39" t="str">
-        <v>943.65</v>
+        <v>1,490.00</v>
       </c>
       <c r="K39" t="str">
-        <v>1,083.00</v>
+        <v>1,219.10</v>
       </c>
       <c r="L39" t="str">
-        <v>738.10</v>
+        <v>1,721.95</v>
       </c>
       <c r="M39" t="str">
-        <v>31.83</v>
+        <v>1,121.00</v>
       </c>
       <c r="N39" t="str">
-        <v>33.00</v>
+        <v>100.65</v>
       </c>
       <c r="O39" t="str">
-        <v>35.78</v>
+        <v>13.60</v>
       </c>
       <c r="P39" t="str">
-        <v>229.84</v>
+        <v>51.11</v>
       </c>
       <c r="Q39" t="str">
-        <v>4.57</v>
+        <v>392.41</v>
       </c>
       <c r="R39" t="str">
-        <v>2.00</v>
+        <v>3.49</v>
       </c>
       <c r="S39" t="str">
-        <v>84,740</v>
+        <v>10.00</v>
       </c>
       <c r="T39" t="str">
-        <v>0.48</v>
+        <v>54,944</v>
       </c>
       <c r="U39" t="str">
-        <v>3,708,003</v>
+        <v>1.46</v>
+      </c>
+      <c r="V39" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Piramal Enterprises</v>
+        <v>HCL Technologies</v>
       </c>
       <c r="B40" t="str">
-        <v>2,300.00</v>
+        <v>Computers</v>
       </c>
       <c r="C40" t="str">
-        <v>2,286.05</v>
+        <v>1,170.00</v>
       </c>
       <c r="D40" t="str">
-        <v>676,228.00</v>
+        <v>1,168.05</v>
       </c>
       <c r="E40" t="str">
-        <v>15,110.99</v>
+        <v>4,516,870.00</v>
       </c>
       <c r="F40" t="str">
-        <v>1.441.39</v>
+        <v>53,136.46</v>
       </c>
       <c r="G40" t="str">
-        <v>2,327.70</v>
+        <v>0.780.78</v>
       </c>
       <c r="H40" t="str">
-        <v>2,225.40</v>
+        <v>1,181.75</v>
       </c>
       <c r="I40" t="str">
-        <v>2,514.65</v>
+        <v>1,162.30</v>
       </c>
       <c r="J40" t="str">
-        <v>2,057.45</v>
+        <v>1,284.85</v>
       </c>
       <c r="K40" t="str">
-        <v>3,014.95</v>
+        <v>1,051.25</v>
       </c>
       <c r="L40" t="str">
-        <v>1,607.10</v>
+        <v>1,377.75</v>
       </c>
       <c r="M40" t="str">
-        <v>52.06</v>
+        <v>891.00</v>
       </c>
       <c r="N40" t="str">
-        <v>42.92</v>
+        <v>40.57</v>
       </c>
       <c r="O40" t="str">
-        <v>35.78</v>
+        <v>29.00</v>
       </c>
       <c r="P40" t="str">
-        <v>1,416.79</v>
+        <v>40.84</v>
       </c>
       <c r="Q40" t="str">
-        <v>1.58</v>
+        <v>221.40</v>
       </c>
       <c r="R40" t="str">
+        <v>5.32</v>
+      </c>
+      <c r="S40" t="str">
         <v>2.00</v>
       </c>
-      <c r="S40" t="str">
-        <v>53,332</v>
-      </c>
       <c r="T40" t="str">
-        <v>1.48</v>
+        <v>319,236</v>
       </c>
       <c r="U40" t="str">
-        <v>939,474</v>
+        <v>0.85</v>
+      </c>
+      <c r="V40" t="str">
+        <v>3,739,605</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Godrej Consumer</v>
+        <v>Berger Paints</v>
       </c>
       <c r="B41" t="str">
-        <v>751.20</v>
+        <v>Paints</v>
       </c>
       <c r="C41" t="str">
-        <v>746.50</v>
+        <v>689.65</v>
       </c>
       <c r="D41" t="str">
-        <v>1,519,162.00</v>
+        <v>693.55</v>
       </c>
       <c r="E41" t="str">
-        <v>10,972.15</v>
+        <v>478,565.00</v>
       </c>
       <c r="F41" t="str">
-        <v>0.670.66</v>
+        <v>3,338.71</v>
       </c>
       <c r="G41" t="str">
-        <v>753.65</v>
+        <v>0.790.78</v>
       </c>
       <c r="H41" t="str">
-        <v>720.00</v>
+        <v>699.95</v>
       </c>
       <c r="I41" t="str">
-        <v>821.15</v>
+        <v>678.05</v>
       </c>
       <c r="J41" t="str">
-        <v>671.85</v>
+        <v>762.90</v>
       </c>
       <c r="K41" t="str">
-        <v>1,138.00</v>
+        <v>624.20</v>
       </c>
       <c r="L41" t="str">
-        <v>646.15</v>
+        <v>872.95</v>
       </c>
       <c r="M41" t="str">
-        <v>17.47</v>
+        <v>620.45</v>
       </c>
       <c r="N41" t="str">
-        <v>41.34</v>
+        <v>8.45</v>
       </c>
       <c r="O41" t="str">
-        <v>60.79</v>
+        <v>82.56</v>
       </c>
       <c r="P41" t="str">
-        <v>92.30</v>
+        <v>88.32</v>
       </c>
       <c r="Q41" t="str">
-        <v>7.83</v>
+        <v>34.84</v>
       </c>
       <c r="R41" t="str">
+        <v>20.03</v>
+      </c>
+      <c r="S41" t="str">
         <v>1.00</v>
       </c>
-      <c r="S41" t="str">
-        <v>73,856</v>
-      </c>
       <c r="T41" t="str">
-        <v>0.00</v>
+        <v>67,764</v>
       </c>
       <c r="U41" t="str">
-        <v>1,703,172</v>
+        <v>0.40</v>
+      </c>
+      <c r="V41" t="str">
+        <v>1,003,105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Berger Paints</v>
+        <v>Axis Bank</v>
       </c>
       <c r="B42" t="str">
-        <v>710.00</v>
+        <v>Banks</v>
       </c>
       <c r="C42" t="str">
-        <v>717.95</v>
+        <v>729.00</v>
       </c>
       <c r="D42" t="str">
-        <v>868,950.00</v>
+        <v>725.90</v>
       </c>
       <c r="E42" t="str">
-        <v>6,026.60</v>
+        <v>11,117,081.00</v>
       </c>
       <c r="F42" t="str">
-        <v>0.790.78</v>
+        <v>81,310.33</v>
       </c>
       <c r="G42" t="str">
-        <v>712.90</v>
+        <v>1.181.18</v>
       </c>
       <c r="H42" t="str">
-        <v>691.65</v>
+        <v>736.00</v>
       </c>
       <c r="I42" t="str">
-        <v>789.70</v>
+        <v>706.35</v>
       </c>
       <c r="J42" t="str">
-        <v>646.20</v>
+        <v>798.45</v>
       </c>
       <c r="K42" t="str">
-        <v>872.95</v>
+        <v>653.35</v>
       </c>
       <c r="L42" t="str">
-        <v>620.45</v>
+        <v>866.90</v>
       </c>
       <c r="M42" t="str">
-        <v>8.45</v>
+        <v>626.65</v>
       </c>
       <c r="N42" t="str">
-        <v>82.08</v>
+        <v>41.19</v>
       </c>
       <c r="O42" t="str">
-        <v>90.80</v>
+        <v>17.76</v>
       </c>
       <c r="P42" t="str">
-        <v>34.84</v>
+        <v>29.51</v>
       </c>
       <c r="Q42" t="str">
-        <v>19.91</v>
+        <v>338.05</v>
       </c>
       <c r="R42" t="str">
-        <v>1.00</v>
+        <v>2.17</v>
       </c>
       <c r="S42" t="str">
-        <v>67,366</v>
+        <v>2.00</v>
       </c>
       <c r="T42" t="str">
-        <v>0.40</v>
+        <v>224,511</v>
       </c>
       <c r="U42" t="str">
-        <v>975,416</v>
+        <v>0.00</v>
+      </c>
+      <c r="V42" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Tata Consultancy</v>
+        <v>Divis Laboratories</v>
       </c>
       <c r="B43" t="str">
-        <v>3,696.00</v>
+        <v>Pharmaceuticals</v>
       </c>
       <c r="C43" t="str">
-        <v>3,672.75</v>
+        <v>4,456.25</v>
       </c>
       <c r="D43" t="str">
-        <v>2,413,831.00</v>
+        <v>4,456.25</v>
       </c>
       <c r="E43" t="str">
-        <v>87,542.41</v>
+        <v>292,831.00</v>
       </c>
       <c r="F43" t="str">
-        <v>0.670.67</v>
+        <v>13,026.73</v>
       </c>
       <c r="G43" t="str">
-        <v>3,713.95</v>
+        <v>0.650.59</v>
       </c>
       <c r="H43" t="str">
-        <v>3,615.00</v>
+        <v>4,493.75</v>
       </c>
       <c r="I43" t="str">
-        <v>4,040.00</v>
+        <v>4,410.00</v>
       </c>
       <c r="J43" t="str">
-        <v>3,305.50</v>
+        <v>4,901.85</v>
       </c>
       <c r="K43" t="str">
-        <v>4,043.00</v>
+        <v>4,010.65</v>
       </c>
       <c r="L43" t="str">
-        <v>2,987.05</v>
+        <v>5,425.10</v>
       </c>
       <c r="M43" t="str">
-        <v>101.77</v>
+        <v>3,350.55</v>
       </c>
       <c r="N43" t="str">
-        <v>35.64</v>
+        <v>96.73</v>
       </c>
       <c r="O43" t="str">
-        <v>41.19</v>
+        <v>45.99</v>
       </c>
       <c r="P43" t="str">
-        <v>235.49</v>
+        <v>35.79</v>
       </c>
       <c r="Q43" t="str">
-        <v>15.41</v>
+        <v>350.12</v>
       </c>
       <c r="R43" t="str">
-        <v>1.00</v>
+        <v>12.71</v>
       </c>
       <c r="S43" t="str">
-        <v>1,341,535</v>
+        <v>2.00</v>
       </c>
       <c r="T43" t="str">
-        <v>1.05</v>
+        <v>118,095</v>
       </c>
       <c r="U43" t="str">
-        <v>3,243,637</v>
+        <v>0.45</v>
+      </c>
+      <c r="V43" t="str">
+        <v>445,716</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>HDFC Bank</v>
+        <v>Interglobe Aviation</v>
       </c>
       <c r="B44" t="str">
-        <v>1,487.00</v>
+        <v>Transport</v>
       </c>
       <c r="C44" t="str">
-        <v>1,480.05</v>
+        <v>1,810.00</v>
       </c>
       <c r="D44" t="str">
-        <v>6,128,938.00</v>
+        <v>1,814.05</v>
       </c>
       <c r="E44" t="str">
-        <v>91,106.66</v>
+        <v>990,082.00</v>
       </c>
       <c r="F44" t="str">
-        <v>1.091.10</v>
+        <v>18,180.38</v>
       </c>
       <c r="G44" t="str">
-        <v>1,493.65</v>
+        <v>1.331.30</v>
       </c>
       <c r="H44" t="str">
-        <v>1,472.80</v>
+        <v>1,851.50</v>
       </c>
       <c r="I44" t="str">
-        <v>1,628.05</v>
+        <v>1,762.25</v>
       </c>
       <c r="J44" t="str">
-        <v>1,332.05</v>
+        <v>1,995.45</v>
       </c>
       <c r="K44" t="str">
-        <v>1,725.00</v>
+        <v>1,632.65</v>
       </c>
       <c r="L44" t="str">
-        <v>1,292.00</v>
+        <v>2,380.00</v>
       </c>
       <c r="M44" t="str">
-        <v>65.01</v>
+        <v>1,503.00</v>
       </c>
       <c r="N44" t="str">
-        <v>22.87</v>
+        <v>-146.06</v>
       </c>
       <c r="O44" t="str">
-        <v>29.77</v>
+        <v>--</v>
       </c>
       <c r="P44" t="str">
-        <v>379.55</v>
+        <v>51.83</v>
       </c>
       <c r="Q44" t="str">
-        <v>3.92</v>
+        <v>1.82</v>
       </c>
       <c r="R44" t="str">
-        <v>1.00</v>
+        <v>1,008.93</v>
       </c>
       <c r="S44" t="str">
-        <v>824,213</v>
+        <v>10.00</v>
       </c>
       <c r="T44" t="str">
-        <v>0.44</v>
+        <v>70,742</v>
       </c>
       <c r="U44" t="str">
-        <v>9,604,100</v>
+        <v>0.00</v>
+      </c>
+      <c r="V44" t="str">
+        <v>1,749,924</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>ITC Ltd.</v>
+        <v>Titan Company</v>
       </c>
       <c r="B45" t="str">
-        <v>245.90</v>
+        <v>Miscellaneous</v>
       </c>
       <c r="C45" t="str">
-        <v>244.90</v>
+        <v>2,716.25</v>
       </c>
       <c r="D45" t="str">
-        <v>27,975,134.00</v>
+        <v>2,707.25</v>
       </c>
       <c r="E45" t="str">
-        <v>68,399.20</v>
+        <v>1,279,904.00</v>
       </c>
       <c r="F45" t="str">
-        <v>0.850.82</v>
+        <v>34,720.60</v>
       </c>
       <c r="G45" t="str">
-        <v>247.75</v>
+        <v>1.101.07</v>
       </c>
       <c r="H45" t="str">
-        <v>243.80</v>
+        <v>2,718.80</v>
       </c>
       <c r="I45" t="str">
-        <v>269.35</v>
+        <v>2,646.45</v>
       </c>
       <c r="J45" t="str">
-        <v>220.45</v>
+        <v>2,977.95</v>
       </c>
       <c r="K45" t="str">
-        <v>265.30</v>
+        <v>2,436.55</v>
       </c>
       <c r="L45" t="str">
-        <v>199.10</v>
+        <v>2,768.00</v>
       </c>
       <c r="M45" t="str">
-        <v>12.01</v>
+        <v>1,400.05</v>
       </c>
       <c r="N45" t="str">
-        <v>20.36</v>
+        <v>25.08</v>
       </c>
       <c r="O45" t="str">
-        <v>22.96</v>
+        <v>108.16</v>
       </c>
       <c r="P45" t="str">
-        <v>47.87</v>
+        <v>184.18</v>
       </c>
       <c r="Q45" t="str">
-        <v>5.11</v>
+        <v>84.45</v>
       </c>
       <c r="R45" t="str">
+        <v>32.13</v>
+      </c>
+      <c r="S45" t="str">
         <v>1.00</v>
       </c>
-      <c r="S45" t="str">
-        <v>301,295</v>
-      </c>
       <c r="T45" t="str">
-        <v>4.40</v>
+        <v>240,834</v>
       </c>
       <c r="U45" t="str">
-        <v>30,032,425</v>
+        <v>0.15</v>
+      </c>
+      <c r="V45" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Vedanta Ltd.</v>
+        <v>Tata Consultancy</v>
       </c>
       <c r="B46" t="str">
-        <v>383.00</v>
+        <v>Computers</v>
       </c>
       <c r="C46" t="str">
-        <v>378.45</v>
+        <v>3,640.00</v>
       </c>
       <c r="D46" t="str">
-        <v>26,819,133.00</v>
+        <v>3,626.70</v>
       </c>
       <c r="E46" t="str">
-        <v>107,289.94</v>
+        <v>2,907,611.00</v>
       </c>
       <c r="F46" t="str">
-        <v>1.181.07</v>
+        <v>107,609.23</v>
       </c>
       <c r="G46" t="str">
-        <v>407.45</v>
+        <v>0.670.66</v>
       </c>
       <c r="H46" t="str">
-        <v>380.55</v>
+        <v>3,711.00</v>
       </c>
       <c r="I46" t="str">
-        <v>416.25</v>
+        <v>3,625.00</v>
       </c>
       <c r="J46" t="str">
-        <v>340.65</v>
+        <v>3,989.35</v>
       </c>
       <c r="K46" t="str">
-        <v>407.45</v>
+        <v>3,264.05</v>
       </c>
       <c r="L46" t="str">
-        <v>209.75</v>
+        <v>4,043.00</v>
       </c>
       <c r="M46" t="str">
-        <v>52.28</v>
+        <v>3,004.00</v>
       </c>
       <c r="N46" t="str">
-        <v>7.65</v>
+        <v>101.77</v>
       </c>
       <c r="O46" t="str">
-        <v>12.57</v>
+        <v>36.37</v>
       </c>
       <c r="P46" t="str">
-        <v>208.26</v>
+        <v>40.84</v>
       </c>
       <c r="Q46" t="str">
-        <v>1.93</v>
+        <v>235.49</v>
       </c>
       <c r="R46" t="str">
+        <v>15.72</v>
+      </c>
+      <c r="S46" t="str">
         <v>1.00</v>
       </c>
-      <c r="S46" t="str">
-        <v>148,707</v>
-      </c>
       <c r="T46" t="str">
-        <v>2.37</v>
+        <v>1,369,000</v>
       </c>
       <c r="U46" t="str">
-        <v>13,625,146</v>
+        <v>1.03</v>
+      </c>
+      <c r="V46" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Pidilite Industries</v>
+        <v>Bajaj Finserv</v>
       </c>
       <c r="B47" t="str">
-        <v>2,445.00</v>
+        <v>Finance</v>
       </c>
       <c r="C47" t="str">
-        <v>2,510.40</v>
+        <v>16,250.00</v>
       </c>
       <c r="D47" t="str">
-        <v>684,624.00</v>
+        <v>16,180.80</v>
       </c>
       <c r="E47" t="str">
-        <v>17,014.62</v>
+        <v>265,279.00</v>
       </c>
       <c r="F47" t="str">
-        <v>0.760.76</v>
+        <v>43,756.71</v>
       </c>
       <c r="G47" t="str">
-        <v>2,543.85</v>
+        <v>1.331.31</v>
       </c>
       <c r="H47" t="str">
-        <v>2,445.00</v>
+        <v>16,590.00</v>
       </c>
       <c r="I47" t="str">
-        <v>2,761.40</v>
+        <v>15,951.00</v>
       </c>
       <c r="J47" t="str">
-        <v>2,259.40</v>
+        <v>17,798.85</v>
       </c>
       <c r="K47" t="str">
-        <v>2,764.70</v>
+        <v>14,562.75</v>
       </c>
       <c r="L47" t="str">
-        <v>1,681.00</v>
+        <v>19,325.00</v>
       </c>
       <c r="M47" t="str">
-        <v>24.78</v>
+        <v>8,960.05</v>
       </c>
       <c r="N47" t="str">
-        <v>100.29</v>
+        <v>263.28</v>
       </c>
       <c r="O47" t="str">
-        <v>81.74</v>
+        <v>62.65</v>
       </c>
       <c r="P47" t="str">
-        <v>114.26</v>
+        <v>51.11</v>
       </c>
       <c r="Q47" t="str">
-        <v>21.76</v>
+        <v>3,663.12</v>
       </c>
       <c r="R47" t="str">
-        <v>1.00</v>
+        <v>4.51</v>
       </c>
       <c r="S47" t="str">
-        <v>126,322</v>
+        <v>5.00</v>
       </c>
       <c r="T47" t="str">
-        <v>0.34</v>
+        <v>262,491</v>
       </c>
       <c r="U47" t="str">
-        <v>512,552</v>
+        <v>0.02</v>
+      </c>
+      <c r="V47" t="str">
+        <v>324,813</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Zomato Ltd.</v>
+        <v>Bharat Electronics</v>
       </c>
       <c r="B48" t="str">
-        <v>82.00</v>
+        <v>Electricals</v>
       </c>
       <c r="C48" t="str">
-        <v>80.85</v>
+        <v>209.30</v>
       </c>
       <c r="D48" t="str">
-        <v>28,669,864.00</v>
+        <v>208.90</v>
       </c>
       <c r="E48" t="str">
-        <v>23,050.57</v>
+        <v>6,544,026.00</v>
       </c>
       <c r="F48" t="str">
-        <v>1.781.70</v>
+        <v>13,729.37</v>
       </c>
       <c r="G48" t="str">
-        <v>83.30</v>
+        <v>0.880.81</v>
       </c>
       <c r="H48" t="str">
-        <v>79.25</v>
+        <v>210.65</v>
       </c>
       <c r="I48" t="str">
-        <v>88.90</v>
+        <v>205.00</v>
       </c>
       <c r="J48" t="str">
-        <v>72.80</v>
+        <v>229.75</v>
       </c>
       <c r="K48" t="str">
-        <v>169.00</v>
+        <v>188.05</v>
       </c>
       <c r="L48" t="str">
-        <v>75.50</v>
+        <v>228.00</v>
       </c>
       <c r="M48" t="str">
-        <v>-1.24</v>
+        <v>115.85</v>
       </c>
       <c r="N48" t="str">
-        <v>--</v>
+        <v>10.72</v>
       </c>
       <c r="O48" t="str">
-        <v>223.69</v>
+        <v>19.57</v>
       </c>
       <c r="P48" t="str">
-        <v>10.70</v>
+        <v>29.31</v>
       </c>
       <c r="Q48" t="str">
-        <v>7.52</v>
+        <v>45.45</v>
       </c>
       <c r="R48" t="str">
+        <v>4.62</v>
+      </c>
+      <c r="S48" t="str">
         <v>1.00</v>
       </c>
-      <c r="S48" t="str">
-        <v>63,290</v>
-      </c>
       <c r="T48" t="str">
-        <v>0.00</v>
+        <v>51,120</v>
       </c>
       <c r="U48" t="str">
-        <v>21,001,645</v>
+        <v>1.91</v>
+      </c>
+      <c r="V48" t="str">
+        <v>9,445,961</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Divis Laboratories</v>
+        <v>UltraTech Cement</v>
       </c>
       <c r="B49" t="str">
-        <v>4,525.00</v>
+        <v>Cement</v>
       </c>
       <c r="C49" t="str">
-        <v>4,504.35</v>
+        <v>6,160.00</v>
       </c>
       <c r="D49" t="str">
-        <v>356,749.00</v>
+        <v>6,191.25</v>
       </c>
       <c r="E49" t="str">
-        <v>15,897.63</v>
+        <v>1,073,804.00</v>
       </c>
       <c r="F49" t="str">
-        <v>0.660.61</v>
+        <v>66,700.41</v>
       </c>
       <c r="G49" t="str">
-        <v>4,542.45</v>
+        <v>0.970.96</v>
       </c>
       <c r="H49" t="str">
-        <v>4,427.50</v>
+        <v>6,225.85</v>
       </c>
       <c r="I49" t="str">
-        <v>4,954.75</v>
+        <v>6,059.10</v>
       </c>
       <c r="J49" t="str">
-        <v>4,053.95</v>
+        <v>6,810.35</v>
       </c>
       <c r="K49" t="str">
-        <v>5,425.10</v>
+        <v>5,572.15</v>
       </c>
       <c r="L49" t="str">
-        <v>3,153.30</v>
+        <v>8,269.00</v>
       </c>
       <c r="M49" t="str">
-        <v>96.73</v>
+        <v>5,629.20</v>
       </c>
       <c r="N49" t="str">
-        <v>46.07</v>
+        <v>225.03</v>
       </c>
       <c r="O49" t="str">
-        <v>35.78</v>
+        <v>27.60</v>
       </c>
       <c r="P49" t="str">
-        <v>350.12</v>
+        <v>30.96</v>
       </c>
       <c r="Q49" t="str">
-        <v>12.73</v>
+        <v>1,530.50</v>
       </c>
       <c r="R49" t="str">
-        <v>2.00</v>
+        <v>4.06</v>
       </c>
       <c r="S49" t="str">
-        <v>118,299</v>
+        <v>10.00</v>
       </c>
       <c r="T49" t="str">
-        <v>0.45</v>
+        <v>179,308</v>
       </c>
       <c r="U49" t="str">
-        <v>457,958</v>
+        <v>0.60</v>
+      </c>
+      <c r="V49" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Larsen &amp;</v>
+        <v>Bajaj Auto</v>
       </c>
       <c r="B50" t="str">
-        <v>6,189.90</v>
+        <v>Auto</v>
       </c>
       <c r="C50" t="str">
-        <v>6,113.85</v>
+        <v>3,580.00</v>
       </c>
       <c r="D50" t="str">
-        <v>355,524.00</v>
+        <v>3,589.05</v>
       </c>
       <c r="E50" t="str">
-        <v>21,304.42</v>
+        <v>213,667.00</v>
       </c>
       <c r="F50" t="str">
-        <v>0.880.88</v>
+        <v>7,812.63</v>
       </c>
       <c r="G50" t="str">
-        <v>6,189.90</v>
+        <v>0.770.76</v>
       </c>
       <c r="H50" t="str">
-        <v>5,977.50</v>
+        <v>3,662.00</v>
       </c>
       <c r="I50" t="str">
-        <v>6,725.20</v>
+        <v>3,564.50</v>
       </c>
       <c r="J50" t="str">
-        <v>5,502.50</v>
+        <v>3,947.95</v>
       </c>
       <c r="K50" t="str">
-        <v>7,588.80</v>
+        <v>3,230.15</v>
       </c>
       <c r="L50" t="str">
-        <v>3,525.00</v>
+        <v>4,347.00</v>
       </c>
       <c r="M50" t="str">
-        <v>125.81</v>
+        <v>3,027.05</v>
       </c>
       <c r="N50" t="str">
-        <v>47.63</v>
+        <v>213.95</v>
       </c>
       <c r="O50" t="str">
-        <v>41.19</v>
+        <v>17.09</v>
       </c>
       <c r="P50" t="str">
-        <v>412.38</v>
+        <v>22.91</v>
       </c>
       <c r="Q50" t="str">
-        <v>14.54</v>
+        <v>942.52</v>
       </c>
       <c r="R50" t="str">
-        <v>1.00</v>
+        <v>3.88</v>
       </c>
       <c r="S50" t="str">
-        <v>105,029</v>
+        <v>10.00</v>
       </c>
       <c r="T50" t="str">
-        <v>0.67</v>
+        <v>105,806</v>
       </c>
       <c r="U50" t="str">
-        <v>336,419</v>
+        <v>3.83</v>
+      </c>
+      <c r="V50" t="str">
+        <v>407,114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>IndusInd Bank</v>
+        <v>Indian Oil</v>
       </c>
       <c r="B51" t="str">
-        <v>938.00</v>
+        <v>Refineries</v>
       </c>
       <c r="C51" t="str">
-        <v>932.45</v>
+        <v>119.00</v>
       </c>
       <c r="D51" t="str">
-        <v>2,363,059.00</v>
+        <v>118.00</v>
       </c>
       <c r="E51" t="str">
-        <v>21,584.18</v>
+        <v>20,619,526.00</v>
       </c>
       <c r="F51" t="str">
-        <v>1.431.44</v>
+        <v>24,877.46</v>
       </c>
       <c r="G51" t="str">
-        <v>938.00</v>
+        <v>0.870.80</v>
       </c>
       <c r="H51" t="str">
-        <v>911.00</v>
+        <v>121.85</v>
       </c>
       <c r="I51" t="str">
-        <v>1,025.65</v>
+        <v>118.50</v>
       </c>
       <c r="J51" t="str">
-        <v>839.25</v>
+        <v>129.80</v>
       </c>
       <c r="K51" t="str">
-        <v>1,242.00</v>
+        <v>106.20</v>
       </c>
       <c r="L51" t="str">
-        <v>811.00</v>
+        <v>141.50</v>
       </c>
       <c r="M51" t="str">
-        <v>55.90</v>
+        <v>86.75</v>
       </c>
       <c r="N51" t="str">
-        <v>16.34</v>
+        <v>29.19</v>
       </c>
       <c r="O51" t="str">
-        <v>29.77</v>
+        <v>4.13</v>
       </c>
       <c r="P51" t="str">
-        <v>557.45</v>
+        <v>24.41</v>
       </c>
       <c r="Q51" t="str">
-        <v>1.64</v>
+        <v>120.08</v>
       </c>
       <c r="R51" t="str">
+        <v>1.01</v>
+      </c>
+      <c r="S51" t="str">
         <v>10.00</v>
       </c>
-      <c r="S51" t="str">
-        <v>70,757</v>
-      </c>
       <c r="T51" t="str">
-        <v>0.55</v>
+        <v>113,582</v>
       </c>
       <c r="U51" t="str">
-        <v>4,514,720</v>
+        <v>9.95</v>
+      </c>
+      <c r="V51" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Muthoot Finance</v>
+        <v>Jindal Steel</v>
       </c>
       <c r="B52" t="str">
-        <v>1,348.00</v>
+        <v>Steel</v>
       </c>
       <c r="C52" t="str">
-        <v>1,337.05</v>
+        <v>489.45</v>
       </c>
       <c r="D52" t="str">
-        <v>756,656.00</v>
+        <v>487.60</v>
       </c>
       <c r="E52" t="str">
-        <v>10,249.28</v>
+        <v>5,845,218.00</v>
       </c>
       <c r="F52" t="str">
-        <v>0.890.85</v>
+        <v>28,822.77</v>
       </c>
       <c r="G52" t="str">
-        <v>1,361.65</v>
+        <v>1.511.35</v>
       </c>
       <c r="H52" t="str">
-        <v>1,332.00</v>
+        <v>497.75</v>
       </c>
       <c r="I52" t="str">
-        <v>1,470.75</v>
+        <v>483.00</v>
       </c>
       <c r="J52" t="str">
-        <v>1,203.35</v>
+        <v>536.35</v>
       </c>
       <c r="K52" t="str">
-        <v>1,721.95</v>
+        <v>438.85</v>
       </c>
       <c r="L52" t="str">
-        <v>1,121.00</v>
+        <v>501.70</v>
       </c>
       <c r="M52" t="str">
-        <v>100.65</v>
+        <v>297.25</v>
       </c>
       <c r="N52" t="str">
-        <v>13.46</v>
+        <v>63.33</v>
       </c>
       <c r="O52" t="str">
-        <v>51.62</v>
+        <v>7.79</v>
       </c>
       <c r="P52" t="str">
-        <v>392.41</v>
+        <v>7.88</v>
       </c>
       <c r="Q52" t="str">
-        <v>3.46</v>
+        <v>303.28</v>
       </c>
       <c r="R52" t="str">
-        <v>10.00</v>
+        <v>1.63</v>
       </c>
       <c r="S52" t="str">
-        <v>54,364</v>
+        <v>1.00</v>
       </c>
       <c r="T52" t="str">
-        <v>1.48</v>
+        <v>50,301</v>
       </c>
       <c r="U52" t="str">
-        <v>1,043,917</v>
+        <v>0.00</v>
+      </c>
+      <c r="V52" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Gland Pharma</v>
+        <v>JSW Steel</v>
       </c>
       <c r="B53" t="str">
-        <v>3,332.20</v>
+        <v>Steel</v>
       </c>
       <c r="C53" t="str">
-        <v>3,300.15</v>
+        <v>678.85</v>
       </c>
       <c r="D53" t="str">
-        <v>72,209.00</v>
+        <v>681.30</v>
       </c>
       <c r="E53" t="str">
-        <v>2,370.37</v>
+        <v>4,811,589.00</v>
       </c>
       <c r="F53" t="str">
-        <v>0.340.33</v>
+        <v>33,512.72</v>
       </c>
       <c r="G53" t="str">
-        <v>3,332.95</v>
+        <v>1.341.22</v>
       </c>
       <c r="H53" t="str">
-        <v>3,256.00</v>
+        <v>699.90</v>
       </c>
       <c r="I53" t="str">
-        <v>3,960.15</v>
+        <v>677.45</v>
       </c>
       <c r="J53" t="str">
-        <v>2,640.15</v>
+        <v>749.40</v>
       </c>
       <c r="K53" t="str">
-        <v>4,350.00</v>
+        <v>613.20</v>
       </c>
       <c r="L53" t="str">
-        <v>2,365.00</v>
+        <v>776.50</v>
       </c>
       <c r="M53" t="str">
-        <v>72.19</v>
+        <v>428.50</v>
       </c>
       <c r="N53" t="str">
-        <v>45.47</v>
+        <v>89.48</v>
       </c>
       <c r="O53" t="str">
-        <v>35.78</v>
+        <v>7.78</v>
       </c>
       <c r="P53" t="str">
-        <v>359.29</v>
+        <v>14.29</v>
       </c>
       <c r="Q53" t="str">
-        <v>9.14</v>
+        <v>190.65</v>
       </c>
       <c r="R53" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="S53" t="str">
         <v>1.00</v>
       </c>
-      <c r="S53" t="str">
-        <v>53,935</v>
-      </c>
       <c r="T53" t="str">
-        <v>0.00</v>
+        <v>168,359</v>
       </c>
       <c r="U53" t="str">
-        <v>143,248</v>
+        <v>0.93</v>
+      </c>
+      <c r="V53" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Mahindra and</v>
+        <v>Ambuja Cements</v>
       </c>
       <c r="B54" t="str">
-        <v>789.60</v>
+        <v>Cement</v>
       </c>
       <c r="C54" t="str">
-        <v>794.40</v>
+        <v>300.45</v>
       </c>
       <c r="D54" t="str">
-        <v>3,008,019.00</v>
+        <v>300.35</v>
       </c>
       <c r="E54" t="str">
-        <v>23,567.83</v>
+        <v>3,537,814.00</v>
       </c>
       <c r="F54" t="str">
-        <v>1.041.02</v>
+        <v>10,645.28</v>
       </c>
       <c r="G54" t="str">
-        <v>791.10</v>
+        <v>0.960.91</v>
       </c>
       <c r="H54" t="str">
-        <v>780.10</v>
+        <v>302.90</v>
       </c>
       <c r="I54" t="str">
-        <v>873.80</v>
+        <v>296.05</v>
       </c>
       <c r="J54" t="str">
-        <v>715.00</v>
+        <v>330.35</v>
       </c>
       <c r="K54" t="str">
-        <v>979.00</v>
+        <v>270.35</v>
       </c>
       <c r="L54" t="str">
-        <v>671.15</v>
+        <v>442.50</v>
       </c>
       <c r="M54" t="str">
-        <v>43.52</v>
+        <v>274.00</v>
       </c>
       <c r="N54" t="str">
-        <v>18.00</v>
+        <v>14.00</v>
       </c>
       <c r="O54" t="str">
-        <v>73.60</v>
+        <v>21.49</v>
       </c>
       <c r="P54" t="str">
-        <v>405.92</v>
+        <v>30.96</v>
       </c>
       <c r="Q54" t="str">
-        <v>1.94</v>
+        <v>163.67</v>
       </c>
       <c r="R54" t="str">
-        <v>5.00</v>
+        <v>1.84</v>
       </c>
       <c r="S54" t="str">
-        <v>97,404</v>
+        <v>2.00</v>
       </c>
       <c r="T54" t="str">
-        <v>1.12</v>
+        <v>59,748</v>
       </c>
       <c r="U54" t="str">
-        <v>3,793,269</v>
+        <v>2.09</v>
+      </c>
+      <c r="V54" t="str">
+        <v>6,871,241</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Ambuja Cements</v>
+        <v>Adani Total</v>
       </c>
       <c r="B55" t="str">
-        <v>306.00</v>
+        <v>Gas</v>
       </c>
       <c r="C55" t="str">
-        <v>306.20</v>
+        <v>1,845.45</v>
       </c>
       <c r="D55" t="str">
-        <v>4,583,683.00</v>
+        <v>1,814.15</v>
       </c>
       <c r="E55" t="str">
-        <v>13,767.09</v>
+        <v>334,089.00</v>
       </c>
       <c r="F55" t="str">
-        <v>0.950.89</v>
+        <v>6,294.07</v>
       </c>
       <c r="G55" t="str">
-        <v>309.20</v>
+        <v>0.860.82</v>
       </c>
       <c r="H55" t="str">
-        <v>300.00</v>
+        <v>1,904.85</v>
       </c>
       <c r="I55" t="str">
-        <v>336.80</v>
+        <v>1,805.00</v>
       </c>
       <c r="J55" t="str">
-        <v>275.60</v>
+        <v>1,904.85</v>
       </c>
       <c r="K55" t="str">
-        <v>442.50</v>
+        <v>1,723.45</v>
       </c>
       <c r="L55" t="str">
-        <v>274.00</v>
+        <v>1,987.10</v>
       </c>
       <c r="M55" t="str">
-        <v>14.00</v>
+        <v>745.45</v>
       </c>
       <c r="N55" t="str">
-        <v>21.45</v>
+        <v>5.20</v>
       </c>
       <c r="O55" t="str">
-        <v>31.72</v>
+        <v>362.30</v>
       </c>
       <c r="P55" t="str">
-        <v>163.67</v>
+        <v>24.41</v>
       </c>
       <c r="Q55" t="str">
-        <v>1.84</v>
+        <v>17.58</v>
       </c>
       <c r="R55" t="str">
-        <v>2.00</v>
+        <v>107.17</v>
       </c>
       <c r="S55" t="str">
-        <v>59,639</v>
+        <v>1.00</v>
       </c>
       <c r="T55" t="str">
-        <v>2.10</v>
+        <v>207,199</v>
       </c>
       <c r="U55" t="str">
-        <v>6,714,051</v>
+        <v>0.01</v>
+      </c>
+      <c r="V55" t="str">
+        <v>209,962</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>ICICI Bank</v>
+        <v>Bharat Petroleum</v>
       </c>
       <c r="B56" t="str">
-        <v>721.00</v>
+        <v>Refineries</v>
       </c>
       <c r="C56" t="str">
-        <v>720.10</v>
+        <v>358.85</v>
       </c>
       <c r="D56" t="str">
-        <v>12,866,839.00</v>
+        <v>357.20</v>
       </c>
       <c r="E56" t="str">
-        <v>91,451.06</v>
+        <v>7,467,189.00</v>
       </c>
       <c r="F56" t="str">
-        <v>1.241.26</v>
+        <v>27,509.12</v>
       </c>
       <c r="G56" t="str">
-        <v>722.90</v>
+        <v>0.860.80</v>
       </c>
       <c r="H56" t="str">
-        <v>705.50</v>
+        <v>369.70</v>
       </c>
       <c r="I56" t="str">
-        <v>792.10</v>
+        <v>356.70</v>
       </c>
       <c r="J56" t="str">
-        <v>648.10</v>
+        <v>392.90</v>
       </c>
       <c r="K56" t="str">
-        <v>867.00</v>
+        <v>321.50</v>
       </c>
       <c r="L56" t="str">
-        <v>531.15</v>
+        <v>503.00</v>
       </c>
       <c r="M56" t="str">
-        <v>33.42</v>
+        <v>331.10</v>
       </c>
       <c r="N56" t="str">
-        <v>21.27</v>
+        <v>88.42</v>
       </c>
       <c r="O56" t="str">
-        <v>29.77</v>
+        <v>4.17</v>
       </c>
       <c r="P56" t="str">
-        <v>236.14</v>
+        <v>24.41</v>
       </c>
       <c r="Q56" t="str">
-        <v>3.01</v>
+        <v>243.29</v>
       </c>
       <c r="R56" t="str">
-        <v>2.00</v>
+        <v>1.52</v>
       </c>
       <c r="S56" t="str">
-        <v>493,783</v>
+        <v>10.00</v>
       </c>
       <c r="T56" t="str">
-        <v>0.28</v>
+        <v>79,915</v>
       </c>
       <c r="U56" t="str">
-        <v>21,204,537</v>
+        <v>21.44</v>
+      </c>
+      <c r="V56" t="str">
+        <v>6,835,340</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Adani Transmission</v>
+        <v>Mindtree Ltd.</v>
       </c>
       <c r="B57" t="str">
-        <v>2,379.90</v>
+        <v>Computers</v>
       </c>
       <c r="C57" t="str">
-        <v>2,389.80</v>
+        <v>3,956.00</v>
       </c>
       <c r="D57" t="str">
-        <v>239,831.00</v>
+        <v>3,975.95</v>
       </c>
       <c r="E57" t="str">
-        <v>5,489.85</v>
+        <v>422,680.00</v>
       </c>
       <c r="F57" t="str">
-        <v>0.830.73</v>
+        <v>17,052.60</v>
       </c>
       <c r="G57" t="str">
-        <v>2,379.90</v>
+        <v>1.291.26</v>
       </c>
       <c r="H57" t="str">
-        <v>2,275.00</v>
+        <v>4,045.00</v>
       </c>
       <c r="I57" t="str">
-        <v>2,509.25</v>
+        <v>3,956.00</v>
       </c>
       <c r="J57" t="str">
-        <v>2,270.35</v>
+        <v>4,373.50</v>
       </c>
       <c r="K57" t="str">
-        <v>2,464.30</v>
+        <v>3,578.40</v>
       </c>
       <c r="L57" t="str">
-        <v>714.00</v>
+        <v>5,060.00</v>
       </c>
       <c r="M57" t="str">
-        <v>11.03</v>
+        <v>1,945.60</v>
       </c>
       <c r="N57" t="str">
-        <v>207.53</v>
+        <v>90.82</v>
       </c>
       <c r="O57" t="str">
-        <v>12.68</v>
+        <v>44.42</v>
       </c>
       <c r="P57" t="str">
-        <v>65.40</v>
+        <v>40.84</v>
       </c>
       <c r="Q57" t="str">
-        <v>35.01</v>
+        <v>262.03</v>
       </c>
       <c r="R57" t="str">
+        <v>15.40</v>
+      </c>
+      <c r="S57" t="str">
         <v>10.00</v>
       </c>
-      <c r="S57" t="str">
-        <v>251,752</v>
-      </c>
       <c r="T57" t="str">
-        <v>0.00</v>
+        <v>66,501</v>
       </c>
       <c r="U57" t="str">
-        <v>356,485</v>
+        <v>0.62</v>
+      </c>
+      <c r="V57" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Marico Ltd.</v>
+        <v>Tata Motors</v>
       </c>
       <c r="B58" t="str">
-        <v>523.00</v>
+        <v>Auto</v>
       </c>
       <c r="C58" t="str">
-        <v>524.10</v>
+        <v>428.10</v>
       </c>
       <c r="D58" t="str">
-        <v>1,655,968.00</v>
+        <v>427.95</v>
       </c>
       <c r="E58" t="str">
-        <v>8,351.87</v>
+        <v>30,441,493.00</v>
       </c>
       <c r="F58" t="str">
-        <v>0.530.52</v>
+        <v>134,049.11</v>
       </c>
       <c r="G58" t="str">
-        <v>523.85</v>
+        <v>1.761.64</v>
       </c>
       <c r="H58" t="str">
-        <v>503.10</v>
+        <v>441.45</v>
       </c>
       <c r="I58" t="str">
-        <v>576.50</v>
+        <v>421.20</v>
       </c>
       <c r="J58" t="str">
-        <v>471.70</v>
+        <v>470.70</v>
       </c>
       <c r="K58" t="str">
-        <v>607.70</v>
+        <v>385.20</v>
       </c>
       <c r="L58" t="str">
-        <v>379.10</v>
+        <v>536.70</v>
       </c>
       <c r="M58" t="str">
-        <v>9.24</v>
+        <v>268.45</v>
       </c>
       <c r="N58" t="str">
-        <v>54.58</v>
+        <v>-354.26</v>
       </c>
       <c r="O58" t="str">
-        <v>60.79</v>
+        <v>--</v>
       </c>
       <c r="P58" t="str">
-        <v>24.98</v>
+        <v>48.85</v>
       </c>
       <c r="Q58" t="str">
-        <v>20.20</v>
+        <v>1,073.40</v>
       </c>
       <c r="R58" t="str">
-        <v>1.00</v>
+        <v>0.42</v>
       </c>
       <c r="S58" t="str">
-        <v>65,200</v>
+        <v>2.00</v>
       </c>
       <c r="T58" t="str">
-        <v>1.49</v>
+        <v>22,392</v>
       </c>
       <c r="U58" t="str">
-        <v>1,754,701</v>
+        <v>0.00</v>
+      </c>
+      <c r="V58" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>ICICI Lombard</v>
+        <v>JSW Energy</v>
       </c>
       <c r="B59" t="str">
-        <v>1,277.95</v>
+        <v>Power</v>
       </c>
       <c r="C59" t="str">
-        <v>1,269.40</v>
+        <v>304.70</v>
       </c>
       <c r="D59" t="str">
-        <v>587,899.00</v>
+        <v>304.70</v>
       </c>
       <c r="E59" t="str">
-        <v>7,293.18</v>
+        <v>166,238.00</v>
       </c>
       <c r="F59" t="str">
-        <v>0.690.66</v>
+        <v>500.63</v>
       </c>
       <c r="G59" t="str">
-        <v>1,277.95</v>
+        <v>0.840.78</v>
       </c>
       <c r="H59" t="str">
-        <v>1,238.00</v>
+        <v>306.00</v>
       </c>
       <c r="I59" t="str">
-        <v>1,396.30</v>
+        <v>300.00</v>
       </c>
       <c r="J59" t="str">
-        <v>1,142.50</v>
+        <v>319.90</v>
       </c>
       <c r="K59" t="str">
-        <v>1,675.00</v>
+        <v>289.50</v>
       </c>
       <c r="L59" t="str">
-        <v>1,192.00</v>
+        <v>408.00</v>
       </c>
       <c r="M59" t="str">
-        <v>0.00</v>
+        <v>81.10</v>
       </c>
       <c r="N59" t="str">
-        <v>--</v>
+        <v>5.91</v>
       </c>
       <c r="O59" t="str">
-        <v>26.76</v>
+        <v>50.96</v>
       </c>
       <c r="P59" t="str">
-        <v>--</v>
+        <v>26.41</v>
       </c>
       <c r="Q59" t="str">
-        <v>0.00</v>
+        <v>88.20</v>
       </c>
       <c r="R59" t="str">
+        <v>3.42</v>
+      </c>
+      <c r="S59" t="str">
         <v>10.00</v>
       </c>
-      <c r="S59" t="str">
-        <v>60,897</v>
-      </c>
       <c r="T59" t="str">
-        <v>0.65</v>
+        <v>49,510</v>
       </c>
       <c r="U59" t="str">
-        <v>869,192</v>
+        <v>0.66</v>
+      </c>
+      <c r="V59" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Nestle India</v>
+        <v>Oil and</v>
       </c>
       <c r="B60" t="str">
-        <v>18,350.00</v>
+        <v>Oil</v>
       </c>
       <c r="C60" t="str">
-        <v>18,284.20</v>
+        <v>176.20</v>
       </c>
       <c r="D60" t="str">
-        <v>40,335.00</v>
+        <v>172.55</v>
       </c>
       <c r="E60" t="str">
-        <v>7,210.47</v>
+        <v>39,742,745.00</v>
       </c>
       <c r="F60" t="str">
-        <v>0.390.38</v>
+        <v>69,728.65</v>
       </c>
       <c r="G60" t="str">
-        <v>18,370.00</v>
+        <v>0.640.55</v>
       </c>
       <c r="H60" t="str">
-        <v>17,813.50</v>
+        <v>181.25</v>
       </c>
       <c r="I60" t="str">
-        <v>20,112.60</v>
+        <v>173.80</v>
       </c>
       <c r="J60" t="str">
-        <v>16,455.80</v>
+        <v>189.80</v>
       </c>
       <c r="K60" t="str">
-        <v>20,609.15</v>
+        <v>155.30</v>
       </c>
       <c r="L60" t="str">
-        <v>16,070.00</v>
+        <v>194.95</v>
       </c>
       <c r="M60" t="str">
-        <v>0.00</v>
+        <v>97.45</v>
       </c>
       <c r="N60" t="str">
-        <v>--</v>
+        <v>34.58</v>
       </c>
       <c r="O60" t="str">
-        <v>65.48</v>
+        <v>5.07</v>
       </c>
       <c r="P60" t="str">
-        <v>--</v>
+        <v>17.33</v>
       </c>
       <c r="Q60" t="str">
-        <v>0.00</v>
+        <v>160.80</v>
       </c>
       <c r="R60" t="str">
-        <v>10.00</v>
+        <v>1.10</v>
       </c>
       <c r="S60" t="str">
-        <v>172,357</v>
+        <v>5.00</v>
       </c>
       <c r="T60" t="str">
-        <v>0.76</v>
+        <v>220,721</v>
       </c>
       <c r="U60" t="str">
-        <v>77,556</v>
+        <v>2.05</v>
+      </c>
+      <c r="V60" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Hero Motocorp</v>
+        <v>UPL Ltd.</v>
       </c>
       <c r="B61" t="str">
-        <v>2,434.75</v>
+        <v>Chemicals</v>
       </c>
       <c r="C61" t="str">
-        <v>2,419.90</v>
+        <v>775.00</v>
       </c>
       <c r="D61" t="str">
-        <v>516,893.00</v>
+        <v>775.90</v>
       </c>
       <c r="E61" t="str">
-        <v>12,361.75</v>
+        <v>2,788,207.00</v>
       </c>
       <c r="F61" t="str">
-        <v>0.970.95</v>
+        <v>21,774.50</v>
       </c>
       <c r="G61" t="str">
-        <v>2,447.95</v>
+        <v>0.960.88</v>
       </c>
       <c r="H61" t="str">
-        <v>2,380.00</v>
+        <v>787.00</v>
       </c>
       <c r="I61" t="str">
-        <v>2,661.85</v>
+        <v>771.05</v>
       </c>
       <c r="J61" t="str">
-        <v>2,177.95</v>
+        <v>853.45</v>
       </c>
       <c r="K61" t="str">
-        <v>3,278.90</v>
+        <v>698.35</v>
       </c>
       <c r="L61" t="str">
-        <v>2,146.85</v>
+        <v>864.70</v>
       </c>
       <c r="M61" t="str">
-        <v>129.45</v>
+        <v>581.00</v>
       </c>
       <c r="N61" t="str">
-        <v>18.47</v>
+        <v>43.32</v>
       </c>
       <c r="O61" t="str">
-        <v>23.21</v>
+        <v>18.03</v>
       </c>
       <c r="P61" t="str">
-        <v>777.76</v>
+        <v>59.29</v>
       </c>
       <c r="Q61" t="str">
-        <v>3.08</v>
+        <v>282.62</v>
       </c>
       <c r="R61" t="str">
+        <v>2.77</v>
+      </c>
+      <c r="S61" t="str">
         <v>2.00</v>
       </c>
-      <c r="S61" t="str">
-        <v>47,786</v>
-      </c>
       <c r="T61" t="str">
-        <v>4.39</v>
+        <v>59,668</v>
       </c>
       <c r="U61" t="str">
-        <v>836,573</v>
+        <v>1.28</v>
+      </c>
+      <c r="V61" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mindtree Ltd.</v>
+        <v>Power Grid</v>
       </c>
       <c r="B62" t="str">
-        <v>4,036.90</v>
+        <v>Power</v>
       </c>
       <c r="C62" t="str">
-        <v>3,986.85</v>
+        <v>205.00</v>
       </c>
       <c r="D62" t="str">
-        <v>593,894.00</v>
+        <v>204.90</v>
       </c>
       <c r="E62" t="str">
-        <v>23,612.93</v>
+        <v>9,963,973.00</v>
       </c>
       <c r="F62" t="str">
-        <v>1.291.26</v>
+        <v>20,794.81</v>
       </c>
       <c r="G62" t="str">
-        <v>4,044.95</v>
+        <v>0.540.52</v>
       </c>
       <c r="H62" t="str">
-        <v>3,940.65</v>
+        <v>209.50</v>
       </c>
       <c r="I62" t="str">
-        <v>4,385.50</v>
+        <v>204.05</v>
       </c>
       <c r="J62" t="str">
-        <v>3,588.20</v>
+        <v>225.35</v>
       </c>
       <c r="K62" t="str">
-        <v>5,060.00</v>
+        <v>184.45</v>
       </c>
       <c r="L62" t="str">
-        <v>1,938.80</v>
+        <v>223.40</v>
       </c>
       <c r="M62" t="str">
-        <v>90.82</v>
+        <v>148.88</v>
       </c>
       <c r="N62" t="str">
-        <v>43.78</v>
+        <v>23.22</v>
       </c>
       <c r="O62" t="str">
-        <v>41.19</v>
+        <v>8.99</v>
       </c>
       <c r="P62" t="str">
-        <v>262.03</v>
+        <v>12.33</v>
       </c>
       <c r="Q62" t="str">
-        <v>15.18</v>
+        <v>100.26</v>
       </c>
       <c r="R62" t="str">
+        <v>2.09</v>
+      </c>
+      <c r="S62" t="str">
         <v>10.00</v>
       </c>
-      <c r="S62" t="str">
-        <v>65,537</v>
-      </c>
       <c r="T62" t="str">
-        <v>0.63</v>
+        <v>145,578</v>
       </c>
       <c r="U62" t="str">
-        <v>661,772</v>
+        <v>5.75</v>
+      </c>
+      <c r="V62" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Bajaj Finserv</v>
+        <v>Bank Of</v>
       </c>
       <c r="B63" t="str">
-        <v>16,399.95</v>
+        <v>Banks</v>
       </c>
       <c r="C63" t="str">
-        <v>16,370.80</v>
+        <v>106.20</v>
       </c>
       <c r="D63" t="str">
-        <v>201,635.00</v>
+        <v>106.50</v>
       </c>
       <c r="E63" t="str">
-        <v>32,626.16</v>
+        <v>32,477,182.00</v>
       </c>
       <c r="F63" t="str">
-        <v>1.331.30</v>
+        <v>34,685.63</v>
       </c>
       <c r="G63" t="str">
-        <v>16,443.95</v>
+        <v>1.401.36</v>
       </c>
       <c r="H63" t="str">
-        <v>16,150.00</v>
+        <v>107.45</v>
       </c>
       <c r="I63" t="str">
-        <v>18,007.85</v>
+        <v>103.50</v>
       </c>
       <c r="J63" t="str">
-        <v>14,733.75</v>
+        <v>117.15</v>
       </c>
       <c r="K63" t="str">
-        <v>19,325.00</v>
+        <v>95.85</v>
       </c>
       <c r="L63" t="str">
-        <v>8,960.05</v>
+        <v>118.80</v>
       </c>
       <c r="M63" t="str">
-        <v>263.28</v>
+        <v>61.75</v>
       </c>
       <c r="N63" t="str">
-        <v>61.46</v>
+        <v>9.96</v>
       </c>
       <c r="O63" t="str">
-        <v>51.62</v>
+        <v>10.72</v>
       </c>
       <c r="P63" t="str">
-        <v>3,663.12</v>
+        <v>20.33</v>
       </c>
       <c r="Q63" t="str">
-        <v>4.42</v>
+        <v>160.16</v>
       </c>
       <c r="R63" t="str">
-        <v>5.00</v>
+        <v>0.67</v>
       </c>
       <c r="S63" t="str">
-        <v>257,497</v>
+        <v>2.00</v>
       </c>
       <c r="T63" t="str">
-        <v>0.02</v>
+        <v>55,230</v>
       </c>
       <c r="U63" t="str">
-        <v>325,453</v>
+        <v>0.00</v>
+      </c>
+      <c r="V63" t="str">
+        <v>49,664,518</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>DLF Ltd.</v>
+        <v>Britannia Industries</v>
       </c>
       <c r="B64" t="str">
-        <v>364.95</v>
+        <v>Food</v>
       </c>
       <c r="C64" t="str">
-        <v>363.05</v>
+        <v>3,230.00</v>
       </c>
       <c r="D64" t="str">
-        <v>4,873,329.00</v>
+        <v>3,237.55</v>
       </c>
       <c r="E64" t="str">
-        <v>17,246.71</v>
+        <v>583,821.00</v>
       </c>
       <c r="F64" t="str">
-        <v>1.801.72</v>
+        <v>18,439.40</v>
       </c>
       <c r="G64" t="str">
-        <v>366.00</v>
+        <v>0.470.48</v>
       </c>
       <c r="H64" t="str">
-        <v>352.80</v>
+        <v>3,250.00</v>
       </c>
       <c r="I64" t="str">
-        <v>399.35</v>
+        <v>3,132.25</v>
       </c>
       <c r="J64" t="str">
-        <v>326.75</v>
+        <v>3,561.30</v>
       </c>
       <c r="K64" t="str">
-        <v>449.70</v>
+        <v>2,913.80</v>
       </c>
       <c r="L64" t="str">
-        <v>231.85</v>
+        <v>4,153.00</v>
       </c>
       <c r="M64" t="str">
-        <v>6.37</v>
+        <v>3,050.00</v>
       </c>
       <c r="N64" t="str">
-        <v>55.56</v>
+        <v>62.66</v>
       </c>
       <c r="O64" t="str">
-        <v>39.52</v>
+        <v>50.41</v>
       </c>
       <c r="P64" t="str">
-        <v>142.87</v>
+        <v>64.31</v>
       </c>
       <c r="Q64" t="str">
-        <v>2.48</v>
+        <v>147.63</v>
       </c>
       <c r="R64" t="str">
-        <v>2.00</v>
+        <v>21.40</v>
       </c>
       <c r="S64" t="str">
-        <v>87,601</v>
+        <v>1.00</v>
       </c>
       <c r="T64" t="str">
-        <v>0.57</v>
+        <v>76,076</v>
       </c>
       <c r="U64" t="str">
-        <v>9,782,325</v>
+        <v>4.99</v>
+      </c>
+      <c r="V64" t="str">
+        <v>395,212</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>GAIL India</v>
+        <v>IRCTC -</v>
       </c>
       <c r="B65" t="str">
-        <v>147.25</v>
+        <v>Miscellaneous</v>
       </c>
       <c r="C65" t="str">
-        <v>151.30</v>
+        <v>774.00</v>
       </c>
       <c r="D65" t="str">
-        <v>19,059,074.00</v>
+        <v>770.75</v>
       </c>
       <c r="E65" t="str">
-        <v>27,502.24</v>
+        <v>2,670,547.00</v>
       </c>
       <c r="F65" t="str">
-        <v>0.760.67</v>
+        <v>20,451.05</v>
       </c>
       <c r="G65" t="str">
-        <v>147.70</v>
+        <v>1.371.29</v>
       </c>
       <c r="H65" t="str">
-        <v>144.00</v>
+        <v>774.00</v>
       </c>
       <c r="I65" t="str">
-        <v>160.90</v>
+        <v>752.10</v>
       </c>
       <c r="J65" t="str">
-        <v>131.70</v>
+        <v>847.80</v>
       </c>
       <c r="K65" t="str">
-        <v>171.30</v>
+        <v>693.70</v>
       </c>
       <c r="L65" t="str">
-        <v>125.20</v>
+        <v>1,279.26</v>
       </c>
       <c r="M65" t="str">
-        <v>25.42</v>
+        <v>310.00</v>
       </c>
       <c r="N65" t="str">
-        <v>5.68</v>
+        <v>0.00</v>
       </c>
       <c r="O65" t="str">
-        <v>17.23</v>
+        <v>--</v>
       </c>
       <c r="P65" t="str">
-        <v>119.99</v>
+        <v>273.71</v>
       </c>
       <c r="Q65" t="str">
-        <v>1.21</v>
+        <v>--</v>
       </c>
       <c r="R65" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="S65" t="str">
-        <v>64,075</v>
+        <v>2.00</v>
       </c>
       <c r="T65" t="str">
-        <v>3.47</v>
+        <v>61,264</v>
       </c>
       <c r="U65" t="str">
-        <v>17,463,889</v>
+        <v>0.13</v>
+      </c>
+      <c r="V65" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Apollo Hospitals</v>
+        <v>TATA Consumer</v>
       </c>
       <c r="B66" t="str">
-        <v>4,875.00</v>
+        <v>Plantations</v>
       </c>
       <c r="C66" t="str">
-        <v>4,839.90</v>
+        <v>750.00</v>
       </c>
       <c r="D66" t="str">
-        <v>509,842.00</v>
+        <v>747.80</v>
       </c>
       <c r="E66" t="str">
-        <v>24,306.21</v>
+        <v>3,047,970.00</v>
       </c>
       <c r="F66" t="str">
-        <v>0.840.81</v>
+        <v>22,948.17</v>
       </c>
       <c r="G66" t="str">
-        <v>4,914.90</v>
+        <v>0.880.84</v>
       </c>
       <c r="H66" t="str">
-        <v>4,755.05</v>
+        <v>758.00</v>
       </c>
       <c r="I66" t="str">
-        <v>5,323.85</v>
+        <v>731.40</v>
       </c>
       <c r="J66" t="str">
-        <v>4,355.95</v>
+        <v>822.55</v>
       </c>
       <c r="K66" t="str">
-        <v>5,935.40</v>
+        <v>673.05</v>
       </c>
       <c r="L66" t="str">
-        <v>2,787.50</v>
+        <v>889.00</v>
       </c>
       <c r="M66" t="str">
-        <v>78.82</v>
+        <v>596.25</v>
       </c>
       <c r="N66" t="str">
-        <v>60.48</v>
+        <v>8.38</v>
       </c>
       <c r="O66" t="str">
-        <v>109.40</v>
+        <v>89.84</v>
       </c>
       <c r="P66" t="str">
-        <v>333.57</v>
+        <v>72.86</v>
       </c>
       <c r="Q66" t="str">
-        <v>14.30</v>
+        <v>169.34</v>
       </c>
       <c r="R66" t="str">
-        <v>5.00</v>
+        <v>4.45</v>
       </c>
       <c r="S66" t="str">
-        <v>68,548</v>
+        <v>1.00</v>
       </c>
       <c r="T66" t="str">
-        <v>0.06</v>
+        <v>69,384</v>
       </c>
       <c r="U66" t="str">
-        <v>728,913</v>
+        <v>0.54</v>
+      </c>
+      <c r="V66" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Adani Enterprises</v>
+        <v>Siemens Ltd.</v>
       </c>
       <c r="B67" t="str">
-        <v>1,836.05</v>
+        <v>Infrastructure</v>
       </c>
       <c r="C67" t="str">
-        <v>1,819.65</v>
+        <v>2,353.85</v>
       </c>
       <c r="D67" t="str">
-        <v>1,081,052.00</v>
+        <v>2,348.90</v>
       </c>
       <c r="E67" t="str">
-        <v>19,490.83</v>
+        <v>291,087.00</v>
       </c>
       <c r="F67" t="str">
-        <v>1.601.50</v>
+        <v>6,750.74</v>
       </c>
       <c r="G67" t="str">
-        <v>1,841.90</v>
+        <v>0.920.87</v>
       </c>
       <c r="H67" t="str">
-        <v>1,796.15</v>
+        <v>2,360.00</v>
       </c>
       <c r="I67" t="str">
-        <v>2,001.60</v>
+        <v>2,262.20</v>
       </c>
       <c r="J67" t="str">
-        <v>1,637.70</v>
+        <v>2,583.75</v>
       </c>
       <c r="K67" t="str">
-        <v>1,908.50</v>
+        <v>2,114.05</v>
       </c>
       <c r="L67" t="str">
-        <v>840.20</v>
+        <v>2,576.85</v>
       </c>
       <c r="M67" t="str">
-        <v>6.42</v>
+        <v>1,717.80</v>
       </c>
       <c r="N67" t="str">
-        <v>280.83</v>
+        <v>29.36</v>
       </c>
       <c r="O67" t="str">
-        <v>244.07</v>
+        <v>78.99</v>
       </c>
       <c r="P67" t="str">
-        <v>171.94</v>
+        <v>75.90</v>
       </c>
       <c r="Q67" t="str">
-        <v>10.49</v>
+        <v>290.83</v>
       </c>
       <c r="R67" t="str">
-        <v>1.00</v>
+        <v>7.98</v>
       </c>
       <c r="S67" t="str">
-        <v>198,290</v>
+        <v>2.00</v>
       </c>
       <c r="T67" t="str">
-        <v>0.06</v>
+        <v>82,590</v>
       </c>
       <c r="U67" t="str">
-        <v>1,517,851</v>
+        <v>0.35</v>
+      </c>
+      <c r="V67" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Indian Oil</v>
+        <v>Kotak Mahindra</v>
       </c>
       <c r="B68" t="str">
-        <v>121.80</v>
+        <v>Banks</v>
       </c>
       <c r="C68" t="str">
-        <v>121.35</v>
+        <v>1,777.10</v>
       </c>
       <c r="D68" t="str">
-        <v>12,111,014.00</v>
+        <v>1,777.10</v>
       </c>
       <c r="E68" t="str">
-        <v>14,291.00</v>
+        <v>3,397,456.00</v>
       </c>
       <c r="F68" t="str">
-        <v>0.870.79</v>
+        <v>61,420.91</v>
       </c>
       <c r="G68" t="str">
-        <v>121.80</v>
+        <v>1.141.13</v>
       </c>
       <c r="H68" t="str">
-        <v>117.80</v>
+        <v>1,813.60</v>
       </c>
       <c r="I68" t="str">
-        <v>133.45</v>
+        <v>1,755.35</v>
       </c>
       <c r="J68" t="str">
-        <v>109.25</v>
+        <v>1,954.80</v>
       </c>
       <c r="K68" t="str">
-        <v>141.50</v>
+        <v>1,599.40</v>
       </c>
       <c r="L68" t="str">
-        <v>86.75</v>
+        <v>2,253.00</v>
       </c>
       <c r="M68" t="str">
-        <v>29.19</v>
+        <v>1,626.00</v>
       </c>
       <c r="N68" t="str">
-        <v>4.04</v>
+        <v>54.36</v>
       </c>
       <c r="O68" t="str">
-        <v>24.53</v>
+        <v>33.26</v>
       </c>
       <c r="P68" t="str">
-        <v>120.08</v>
+        <v>29.51</v>
       </c>
       <c r="Q68" t="str">
-        <v>0.99</v>
+        <v>425.01</v>
       </c>
       <c r="R68" t="str">
-        <v>10.00</v>
+        <v>4.26</v>
       </c>
       <c r="S68" t="str">
-        <v>111,087</v>
+        <v>5.00</v>
       </c>
       <c r="T68" t="str">
-        <v>10.17</v>
+        <v>358,745</v>
       </c>
       <c r="U68" t="str">
-        <v>14,196,313</v>
+        <v>0.05</v>
+      </c>
+      <c r="V68" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Hindustan Zinc</v>
+        <v>Macrotech Developers</v>
       </c>
       <c r="B69" t="str">
-        <v>312.00</v>
+        <v>Construction</v>
       </c>
       <c r="C69" t="str">
-        <v>310.05</v>
+        <v>1,117.70</v>
       </c>
       <c r="D69" t="str">
-        <v>1,053,117.00</v>
+        <v>1,108.35</v>
       </c>
       <c r="E69" t="str">
-        <v>3,279.41</v>
+        <v>408,479.00</v>
       </c>
       <c r="F69" t="str">
-        <v>0.670.60</v>
+        <v>4,347.85</v>
       </c>
       <c r="G69" t="str">
-        <v>314.70</v>
+        <v>1.691.62</v>
       </c>
       <c r="H69" t="str">
-        <v>310.65</v>
+        <v>1,123.90</v>
       </c>
       <c r="I69" t="str">
-        <v>372.05</v>
+        <v>1,054.35</v>
       </c>
       <c r="J69" t="str">
-        <v>248.05</v>
+        <v>1,330.00</v>
       </c>
       <c r="K69" t="str">
-        <v>408.60</v>
+        <v>886.70</v>
       </c>
       <c r="L69" t="str">
-        <v>257.00</v>
+        <v>1,539.00</v>
       </c>
       <c r="M69" t="str">
+        <v>422.60</v>
+      </c>
+      <c r="N69" t="str">
+        <v>20.30</v>
+      </c>
+      <c r="O69" t="str">
+        <v>52.43</v>
+      </c>
+      <c r="P69" t="str">
+        <v>39.08</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>181.66</v>
+      </c>
+      <c r="R69" t="str">
+        <v>5.86</v>
+      </c>
+      <c r="S69" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="T69" t="str">
+        <v>51,252</v>
+      </c>
+      <c r="U69" t="str">
         <v>0.00</v>
       </c>
-      <c r="N69" t="str">
-        <v>--</v>
-      </c>
-      <c r="O69" t="str">
-        <v>16.41</v>
-      </c>
-      <c r="P69" t="str">
-        <v>20.89</v>
-      </c>
-      <c r="Q69" t="str">
-        <v>14.91</v>
-      </c>
-      <c r="R69" t="str">
-        <v>2.00</v>
-      </c>
-      <c r="S69" t="str">
-        <v>131,576</v>
-      </c>
-      <c r="T69" t="str">
-        <v>6.84</v>
-      </c>
-      <c r="U69" t="str">
-        <v>2,219,975</v>
+      <c r="V69" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Sun Pharmaceutical</v>
+        <v>Bharti Airtel</v>
       </c>
       <c r="B70" t="str">
-        <v>912.50</v>
+        <v>Telecommunications</v>
       </c>
       <c r="C70" t="str">
-        <v>911.60</v>
+        <v>708.50</v>
       </c>
       <c r="D70" t="str">
-        <v>3,878,744.00</v>
+        <v>708.20</v>
       </c>
       <c r="E70" t="str">
-        <v>35,443.96</v>
+        <v>3,000,133.00</v>
       </c>
       <c r="F70" t="str">
-        <v>0.660.62</v>
+        <v>21,578.46</v>
       </c>
       <c r="G70" t="str">
-        <v>931.00</v>
+        <v>0.850.83</v>
       </c>
       <c r="H70" t="str">
-        <v>911.30</v>
+        <v>721.00</v>
       </c>
       <c r="I70" t="str">
-        <v>1,002.75</v>
+        <v>705.85</v>
       </c>
       <c r="J70" t="str">
-        <v>820.45</v>
+        <v>779.00</v>
       </c>
       <c r="K70" t="str">
-        <v>931.00</v>
+        <v>637.40</v>
       </c>
       <c r="L70" t="str">
-        <v>562.10</v>
+        <v>781.80</v>
       </c>
       <c r="M70" t="str">
-        <v>26.69</v>
+        <v>490.34</v>
       </c>
       <c r="N70" t="str">
-        <v>34.24</v>
+        <v>5.38</v>
       </c>
       <c r="O70" t="str">
-        <v>35.78</v>
+        <v>133.69</v>
       </c>
       <c r="P70" t="str">
-        <v>206.22</v>
+        <v>34.92</v>
       </c>
       <c r="Q70" t="str">
-        <v>4.44</v>
+        <v>191.88</v>
       </c>
       <c r="R70" t="str">
-        <v>1.00</v>
+        <v>3.75</v>
       </c>
       <c r="S70" t="str">
-        <v>219,251</v>
+        <v>5.00</v>
       </c>
       <c r="T70" t="str">
-        <v>0.82</v>
+        <v>402,068</v>
       </c>
       <c r="U70" t="str">
-        <v>3,689,914</v>
+        <v>0.00</v>
+      </c>
+      <c r="V70" t="str">
+        <v>7,153,827</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Adani Green</v>
+        <v>Bajaj Finance</v>
       </c>
       <c r="B71" t="str">
-        <v>1,939.80</v>
+        <v>Finance</v>
       </c>
       <c r="C71" t="str">
-        <v>1,901.20</v>
+        <v>6,870.00</v>
       </c>
       <c r="D71" t="str">
-        <v>546,502.00</v>
+        <v>6,870.40</v>
       </c>
       <c r="E71" t="str">
-        <v>10,252.65</v>
+        <v>1,273,796.00</v>
       </c>
       <c r="F71" t="str">
-        <v>0.930.90</v>
+        <v>88,984.84</v>
       </c>
       <c r="G71" t="str">
-        <v>1,948.00</v>
+        <v>1.471.47</v>
       </c>
       <c r="H71" t="str">
-        <v>1,863.50</v>
+        <v>7,010.00</v>
       </c>
       <c r="I71" t="str">
-        <v>2,091.30</v>
+        <v>6,767.00</v>
       </c>
       <c r="J71" t="str">
-        <v>1,711.10</v>
+        <v>7,557.40</v>
       </c>
       <c r="K71" t="str">
-        <v>2,125.00</v>
+        <v>6,183.40</v>
       </c>
       <c r="L71" t="str">
-        <v>874.80</v>
+        <v>8,050.00</v>
       </c>
       <c r="M71" t="str">
-        <v>3.02</v>
+        <v>4,362.00</v>
       </c>
       <c r="N71" t="str">
-        <v>621.21</v>
+        <v>98.66</v>
       </c>
       <c r="O71" t="str">
-        <v>26.61</v>
+        <v>70.81</v>
       </c>
       <c r="P71" t="str">
-        <v>5.03</v>
+        <v>51.11</v>
       </c>
       <c r="Q71" t="str">
-        <v>372.98</v>
+        <v>606.63</v>
       </c>
       <c r="R71" t="str">
-        <v>10.00</v>
+        <v>11.52</v>
       </c>
       <c r="S71" t="str">
-        <v>293,417</v>
+        <v>2.00</v>
       </c>
       <c r="T71" t="str">
-        <v>0.00</v>
+        <v>422,941</v>
       </c>
       <c r="U71" t="str">
-        <v>841,748</v>
+        <v>0.14</v>
+      </c>
+      <c r="V71" t="str">
+        <v>1,593,706</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>JSW Energy</v>
+        <v>Adani Transmission</v>
       </c>
       <c r="B72" t="str">
-        <v>304.80</v>
+        <v>Power</v>
       </c>
       <c r="C72" t="str">
-        <v>298.70</v>
+        <v>2,324.00</v>
       </c>
       <c r="D72" t="str">
-        <v>143,218.00</v>
+        <v>2,289.05</v>
       </c>
       <c r="E72" t="str">
-        <v>436.39</v>
+        <v>295,672.00</v>
       </c>
       <c r="F72" t="str">
-        <v>0.840.77</v>
+        <v>6,912.96</v>
       </c>
       <c r="G72" t="str">
-        <v>307.00</v>
+        <v>0.870.78</v>
       </c>
       <c r="H72" t="str">
-        <v>298.00</v>
+        <v>2,384.75</v>
       </c>
       <c r="I72" t="str">
-        <v>313.60</v>
+        <v>2,275.00</v>
       </c>
       <c r="J72" t="str">
-        <v>283.80</v>
+        <v>2,403.50</v>
       </c>
       <c r="K72" t="str">
-        <v>408.00</v>
+        <v>2,174.60</v>
       </c>
       <c r="L72" t="str">
-        <v>80.20</v>
+        <v>2,464.30</v>
       </c>
       <c r="M72" t="str">
-        <v>5.91</v>
+        <v>758.15</v>
       </c>
       <c r="N72" t="str">
-        <v>51.56</v>
+        <v>11.03</v>
       </c>
       <c r="O72" t="str">
-        <v>26.61</v>
+        <v>211.97</v>
       </c>
       <c r="P72" t="str">
-        <v>88.20</v>
+        <v>12.33</v>
       </c>
       <c r="Q72" t="str">
-        <v>3.46</v>
+        <v>65.40</v>
       </c>
       <c r="R72" t="str">
+        <v>35.75</v>
+      </c>
+      <c r="S72" t="str">
         <v>10.00</v>
       </c>
-      <c r="S72" t="str">
-        <v>50,094</v>
-      </c>
       <c r="T72" t="str">
-        <v>0.66</v>
+        <v>257,141</v>
       </c>
       <c r="U72" t="str">
-        <v>678,978</v>
+        <v>0.00</v>
+      </c>
+      <c r="V72" t="str">
+        <v>356,867</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Oil and</v>
+        <v>Infosys Ltd.</v>
       </c>
       <c r="B73" t="str">
-        <v>171.70</v>
+        <v>Computers</v>
       </c>
       <c r="C73" t="str">
-        <v>170.30</v>
+        <v>1,850.00</v>
       </c>
       <c r="D73" t="str">
-        <v>20,614,652.00</v>
+        <v>1,853.05</v>
       </c>
       <c r="E73" t="str">
-        <v>35,570.58</v>
+        <v>5,709,382.00</v>
       </c>
       <c r="F73" t="str">
-        <v>0.640.55</v>
+        <v>107,758.88</v>
       </c>
       <c r="G73" t="str">
-        <v>175.00</v>
+        <v>0.740.75</v>
       </c>
       <c r="H73" t="str">
-        <v>170.30</v>
+        <v>1,890.00</v>
       </c>
       <c r="I73" t="str">
-        <v>187.30</v>
+        <v>1,839.00</v>
       </c>
       <c r="J73" t="str">
-        <v>153.30</v>
+        <v>2,038.35</v>
       </c>
       <c r="K73" t="str">
-        <v>194.95</v>
+        <v>1,667.75</v>
       </c>
       <c r="L73" t="str">
-        <v>97.45</v>
+        <v>1,953.90</v>
       </c>
       <c r="M73" t="str">
-        <v>34.58</v>
+        <v>1,311.30</v>
       </c>
       <c r="N73" t="str">
-        <v>4.99</v>
+        <v>51.11</v>
       </c>
       <c r="O73" t="str">
-        <v>17.23</v>
+        <v>36.93</v>
       </c>
       <c r="P73" t="str">
-        <v>160.80</v>
+        <v>40.84</v>
       </c>
       <c r="Q73" t="str">
-        <v>1.08</v>
+        <v>181.59</v>
       </c>
       <c r="R73" t="str">
+        <v>10.40</v>
+      </c>
+      <c r="S73" t="str">
         <v>5.00</v>
       </c>
-      <c r="S73" t="str">
-        <v>217,073</v>
-      </c>
       <c r="T73" t="str">
-        <v>2.09</v>
+        <v>793,980</v>
       </c>
       <c r="U73" t="str">
-        <v>39,352,686</v>
+        <v>1.43</v>
+      </c>
+      <c r="V73" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Bandhan Bank</v>
+        <v>Motherson Sumi</v>
       </c>
       <c r="B74" t="str">
-        <v>303.20</v>
+        <v>Auto</v>
       </c>
       <c r="C74" t="str">
-        <v>301.50</v>
+        <v>133.50</v>
       </c>
       <c r="D74" t="str">
-        <v>7,126,956.00</v>
+        <v>133.30</v>
       </c>
       <c r="E74" t="str">
-        <v>21,020.96</v>
+        <v>8,101,170.00</v>
       </c>
       <c r="F74" t="str">
-        <v>1.231.18</v>
+        <v>11,050.00</v>
       </c>
       <c r="G74" t="str">
-        <v>303.75</v>
+        <v>1.271.20</v>
       </c>
       <c r="H74" t="str">
-        <v>292.50</v>
+        <v>136.70</v>
       </c>
       <c r="I74" t="str">
-        <v>331.65</v>
+        <v>131.05</v>
       </c>
       <c r="J74" t="str">
-        <v>271.35</v>
+        <v>146.60</v>
       </c>
       <c r="K74" t="str">
-        <v>371.00</v>
+        <v>120.00</v>
       </c>
       <c r="L74" t="str">
-        <v>229.55</v>
+        <v>272.85</v>
       </c>
       <c r="M74" t="str">
-        <v>0.00</v>
+        <v>119.55</v>
       </c>
       <c r="N74" t="str">
-        <v>--</v>
+        <v>4.64</v>
       </c>
       <c r="O74" t="str">
-        <v>29.77</v>
+        <v>29.40</v>
       </c>
       <c r="P74" t="str">
-        <v>--</v>
+        <v>132.25</v>
       </c>
       <c r="Q74" t="str">
-        <v>0.00</v>
+        <v>44.04</v>
       </c>
       <c r="R74" t="str">
-        <v>10.00</v>
+        <v>3.10</v>
       </c>
       <c r="S74" t="str">
-        <v>47,510</v>
+        <v>1.00</v>
       </c>
       <c r="T74" t="str">
-        <v>0.34</v>
+        <v>61,620</v>
       </c>
       <c r="U74" t="str">
-        <v>9,017,566</v>
+        <v>1.10</v>
+      </c>
+      <c r="V74" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Infosys Ltd.</v>
+        <v>Larsen &amp;</v>
       </c>
       <c r="B75" t="str">
-        <v>1,861.00</v>
+        <v>Computers</v>
       </c>
       <c r="C75" t="str">
-        <v>1,854.60</v>
+        <v>6,000.00</v>
       </c>
       <c r="D75" t="str">
-        <v>8,362,085.00</v>
+        <v>5,992.40</v>
       </c>
       <c r="E75" t="str">
-        <v>154,953.62</v>
+        <v>249,080.00</v>
       </c>
       <c r="F75" t="str">
-        <v>0.760.76</v>
+        <v>15,237.59</v>
       </c>
       <c r="G75" t="str">
-        <v>1,886.90</v>
+        <v>0.880.88</v>
       </c>
       <c r="H75" t="str">
-        <v>1,841.10</v>
+        <v>6,150.00</v>
       </c>
       <c r="I75" t="str">
-        <v>2,040.05</v>
+        <v>5,960.05</v>
       </c>
       <c r="J75" t="str">
-        <v>1,669.15</v>
+        <v>6,591.60</v>
       </c>
       <c r="K75" t="str">
-        <v>1,953.90</v>
+        <v>5,393.20</v>
       </c>
       <c r="L75" t="str">
-        <v>1,311.30</v>
+        <v>7,588.80</v>
       </c>
       <c r="M75" t="str">
-        <v>51.11</v>
+        <v>3,525.00</v>
       </c>
       <c r="N75" t="str">
-        <v>36.26</v>
+        <v>125.81</v>
       </c>
       <c r="O75" t="str">
-        <v>41.19</v>
+        <v>48.63</v>
       </c>
       <c r="P75" t="str">
-        <v>181.59</v>
+        <v>40.84</v>
       </c>
       <c r="Q75" t="str">
-        <v>10.21</v>
+        <v>412.38</v>
       </c>
       <c r="R75" t="str">
-        <v>5.00</v>
+        <v>14.84</v>
       </c>
       <c r="S75" t="str">
-        <v>779,530</v>
+        <v>1.00</v>
       </c>
       <c r="T75" t="str">
-        <v>1.46</v>
+        <v>107,222</v>
       </c>
       <c r="U75" t="str">
-        <v>8,661,838</v>
+        <v>0.65</v>
+      </c>
+      <c r="V75" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Adani Ports</v>
+        <v>Larsen &amp;</v>
       </c>
       <c r="B76" t="str">
-        <v>741.00</v>
+        <v>Infrastructure</v>
       </c>
       <c r="C76" t="str">
-        <v>740.10</v>
+        <v>1,756.30</v>
       </c>
       <c r="D76" t="str">
-        <v>6,662,688.00</v>
+        <v>1,756.30</v>
       </c>
       <c r="E76" t="str">
-        <v>48,980.75</v>
+        <v>3,986,030.00</v>
       </c>
       <c r="F76" t="str">
-        <v>1.441.34</v>
+        <v>70,714.17</v>
       </c>
       <c r="G76" t="str">
-        <v>750.45</v>
+        <v>1.041.02</v>
       </c>
       <c r="H76" t="str">
-        <v>725.40</v>
+        <v>1,777.00</v>
       </c>
       <c r="I76" t="str">
-        <v>814.10</v>
+        <v>1,721.15</v>
       </c>
       <c r="J76" t="str">
-        <v>666.10</v>
+        <v>1,931.90</v>
       </c>
       <c r="K76" t="str">
-        <v>901.00</v>
+        <v>1,580.70</v>
       </c>
       <c r="L76" t="str">
-        <v>638.10</v>
+        <v>2,078.55</v>
       </c>
       <c r="M76" t="str">
-        <v>23.76</v>
+        <v>1,306.00</v>
       </c>
       <c r="N76" t="str">
-        <v>30.94</v>
+        <v>59.37</v>
       </c>
       <c r="O76" t="str">
-        <v>88.00</v>
+        <v>29.88</v>
       </c>
       <c r="P76" t="str">
-        <v>153.47</v>
+        <v>21.77</v>
       </c>
       <c r="Q76" t="str">
-        <v>4.80</v>
+        <v>623.05</v>
       </c>
       <c r="R76" t="str">
+        <v>2.85</v>
+      </c>
+      <c r="S76" t="str">
         <v>2.00</v>
       </c>
-      <c r="S76" t="str">
-        <v>155,291</v>
-      </c>
       <c r="T76" t="str">
-        <v>0.68</v>
+        <v>249,248</v>
       </c>
       <c r="U76" t="str">
-        <v>4,676,356</v>
+        <v>2.03</v>
+      </c>
+      <c r="V76" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Info Edge</v>
+        <v>TATA MOTORS</v>
       </c>
       <c r="B77" t="str">
-        <v>4,619.00</v>
+        <v>Automobile</v>
       </c>
       <c r="C77" t="str">
-        <v>4,578.65</v>
+        <v>206.95</v>
       </c>
       <c r="D77" t="str">
-        <v>622,999.00</v>
+        <v>206.85</v>
       </c>
       <c r="E77" t="str">
-        <v>28,926.47</v>
+        <v>3,878,136.00</v>
       </c>
       <c r="F77" t="str">
-        <v>0.960.93</v>
+        <v>8,239.10</v>
       </c>
       <c r="G77" t="str">
-        <v>4,760.00</v>
+        <v>1.811.69</v>
       </c>
       <c r="H77" t="str">
-        <v>4,590.00</v>
+        <v>214.00</v>
       </c>
       <c r="I77" t="str">
-        <v>5,036.50</v>
+        <v>203.25</v>
       </c>
       <c r="J77" t="str">
-        <v>4,120.80</v>
+        <v>227.50</v>
       </c>
       <c r="K77" t="str">
-        <v>7,465.40</v>
+        <v>186.20</v>
       </c>
       <c r="L77" t="str">
-        <v>4,023.90</v>
+        <v>298.65</v>
       </c>
       <c r="M77" t="str">
-        <v>965.05</v>
+        <v>123.50</v>
       </c>
       <c r="N77" t="str">
-        <v>4.81</v>
+        <v>45.85</v>
       </c>
       <c r="O77" t="str">
-        <v>88.00</v>
+        <v>4.63</v>
       </c>
       <c r="P77" t="str">
-        <v>430.06</v>
+        <v>48.85</v>
       </c>
       <c r="Q77" t="str">
-        <v>10.80</v>
+        <v>1,073.40</v>
       </c>
       <c r="R77" t="str">
-        <v>10.00</v>
+        <v>0.20</v>
       </c>
       <c r="S77" t="str">
-        <v>59,796</v>
+        <v>2.00</v>
       </c>
       <c r="T77" t="str">
-        <v>0.17</v>
+        <v>61,342</v>
       </c>
       <c r="U77" t="str">
-        <v>444,203</v>
+        <v>0.00</v>
+      </c>
+      <c r="V77" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Adani Total</v>
+        <v>Sun Pharmaceutical</v>
       </c>
       <c r="B78" t="str">
-        <v>1,810.20</v>
+        <v>Pharmaceuticals</v>
       </c>
       <c r="C78" t="str">
-        <v>1,766.80</v>
+        <v>913.80</v>
       </c>
       <c r="D78" t="str">
-        <v>157,858.00</v>
+        <v>913.80</v>
       </c>
       <c r="E78" t="str">
-        <v>2,863.78</v>
+        <v>2,174,495.00</v>
       </c>
       <c r="F78" t="str">
-        <v>0.860.80</v>
+        <v>19,877.06</v>
       </c>
       <c r="G78" t="str">
-        <v>1,836.90</v>
+        <v>0.660.61</v>
       </c>
       <c r="H78" t="str">
-        <v>1,790.65</v>
+        <v>922.00</v>
       </c>
       <c r="I78" t="str">
-        <v>1,855.10</v>
+        <v>902.50</v>
       </c>
       <c r="J78" t="str">
-        <v>1,678.50</v>
+        <v>1,005.15</v>
       </c>
       <c r="K78" t="str">
-        <v>1,987.10</v>
+        <v>822.45</v>
       </c>
       <c r="L78" t="str">
-        <v>671.00</v>
+        <v>931.00</v>
       </c>
       <c r="M78" t="str">
-        <v>5.20</v>
+        <v>571.50</v>
       </c>
       <c r="N78" t="str">
-        <v>348.87</v>
+        <v>26.69</v>
       </c>
       <c r="O78" t="str">
-        <v>24.53</v>
+        <v>34.25</v>
       </c>
       <c r="P78" t="str">
-        <v>17.58</v>
+        <v>35.79</v>
       </c>
       <c r="Q78" t="str">
-        <v>103.20</v>
+        <v>206.22</v>
       </c>
       <c r="R78" t="str">
+        <v>4.44</v>
+      </c>
+      <c r="S78" t="str">
         <v>1.00</v>
       </c>
-      <c r="S78" t="str">
-        <v>199,522</v>
-      </c>
       <c r="T78" t="str">
-        <v>0.01</v>
+        <v>219,323</v>
       </c>
       <c r="U78" t="str">
-        <v>209,368</v>
+        <v>0.82</v>
+      </c>
+      <c r="V78" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Tata Power</v>
+        <v>NTPC Ltd.</v>
       </c>
       <c r="B79" t="str">
-        <v>232.95</v>
+        <v>Power</v>
       </c>
       <c r="C79" t="str">
-        <v>231.75</v>
+        <v>133.30</v>
       </c>
       <c r="D79" t="str">
-        <v>12,356,508.00</v>
+        <v>132.90</v>
       </c>
       <c r="E79" t="str">
-        <v>28,166.66</v>
+        <v>10,343,712.00</v>
       </c>
       <c r="F79" t="str">
-        <v>1.471.36</v>
+        <v>13,741.62</v>
       </c>
       <c r="G79" t="str">
-        <v>233.40</v>
+        <v>0.820.78</v>
       </c>
       <c r="H79" t="str">
-        <v>227.35</v>
+        <v>134.15</v>
       </c>
       <c r="I79" t="str">
-        <v>254.90</v>
+        <v>131.75</v>
       </c>
       <c r="J79" t="str">
-        <v>208.60</v>
+        <v>146.15</v>
       </c>
       <c r="K79" t="str">
-        <v>267.85</v>
+        <v>119.65</v>
       </c>
       <c r="L79" t="str">
-        <v>89.90</v>
+        <v>152.10</v>
       </c>
       <c r="M79" t="str">
-        <v>5.11</v>
+        <v>97.05</v>
       </c>
       <c r="N79" t="str">
-        <v>44.61</v>
+        <v>16.55</v>
       </c>
       <c r="O79" t="str">
-        <v>26.61</v>
+        <v>8.03</v>
       </c>
       <c r="P79" t="str">
-        <v>74.33</v>
+        <v>26.41</v>
       </c>
       <c r="Q79" t="str">
-        <v>3.07</v>
+        <v>133.31</v>
       </c>
       <c r="R79" t="str">
         <v>1.00</v>
       </c>
       <c r="S79" t="str">
-        <v>72,838</v>
+        <v>10.00</v>
       </c>
       <c r="T79" t="str">
-        <v>0.68</v>
+        <v>128,820</v>
       </c>
       <c r="U79" t="str">
-        <v>26,569,595</v>
+        <v>4.63</v>
+      </c>
+      <c r="V79" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Bharti Airtel</v>
+        <v>Hero Motocorp</v>
       </c>
       <c r="B80" t="str">
-        <v>722.00</v>
+        <v>Auto</v>
       </c>
       <c r="C80" t="str">
-        <v>722.90</v>
+        <v>2,405.00</v>
       </c>
       <c r="D80" t="str">
-        <v>6,317,305.00</v>
+        <v>2,391.55</v>
       </c>
       <c r="E80" t="str">
-        <v>44,739.15</v>
+        <v>470,208.00</v>
       </c>
       <c r="F80" t="str">
-        <v>0.830.82</v>
+        <v>11,396.20</v>
       </c>
       <c r="G80" t="str">
-        <v>724.35</v>
+        <v>0.970.95</v>
       </c>
       <c r="H80" t="str">
-        <v>706.80</v>
+        <v>2,435.00</v>
       </c>
       <c r="I80" t="str">
-        <v>795.15</v>
+        <v>2,345.05</v>
       </c>
       <c r="J80" t="str">
-        <v>650.65</v>
+        <v>2,630.70</v>
       </c>
       <c r="K80" t="str">
-        <v>781.80</v>
+        <v>2,152.40</v>
       </c>
       <c r="L80" t="str">
-        <v>490.34</v>
+        <v>3,143.95</v>
       </c>
       <c r="M80" t="str">
-        <v>5.38</v>
+        <v>2,146.85</v>
       </c>
       <c r="N80" t="str">
-        <v>131.64</v>
+        <v>129.45</v>
       </c>
       <c r="O80" t="str">
-        <v>35.13</v>
+        <v>18.72</v>
       </c>
       <c r="P80" t="str">
-        <v>191.88</v>
+        <v>22.91</v>
       </c>
       <c r="Q80" t="str">
-        <v>3.70</v>
+        <v>777.76</v>
       </c>
       <c r="R80" t="str">
-        <v>5.00</v>
+        <v>3.12</v>
       </c>
       <c r="S80" t="str">
-        <v>395,891</v>
+        <v>2.00</v>
       </c>
       <c r="T80" t="str">
-        <v>0.00</v>
+        <v>48,427</v>
       </c>
       <c r="U80" t="str">
-        <v>7,093,347</v>
+        <v>4.33</v>
+      </c>
+      <c r="V80" t="str">
+        <v>804,074</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>UPL Ltd.</v>
+        <v>Hindustan Unilever</v>
       </c>
       <c r="B81" t="str">
-        <v>770.00</v>
+        <v>Personal</v>
       </c>
       <c r="C81" t="str">
-        <v>761.60</v>
+        <v>2,053.75</v>
       </c>
       <c r="D81" t="str">
-        <v>3,221,656.00</v>
+        <v>2,051.20</v>
       </c>
       <c r="E81" t="str">
-        <v>24,996.83</v>
+        <v>5,356,303.00</v>
       </c>
       <c r="F81" t="str">
-        <v>0.980.90</v>
+        <v>106,777.90</v>
       </c>
       <c r="G81" t="str">
-        <v>777.75</v>
+        <v>0.610.61</v>
       </c>
       <c r="H81" t="str">
-        <v>760.00</v>
+        <v>2,053.75</v>
       </c>
       <c r="I81" t="str">
-        <v>837.75</v>
+        <v>1,969.00</v>
       </c>
       <c r="J81" t="str">
-        <v>685.45</v>
+        <v>2,256.30</v>
       </c>
       <c r="K81" t="str">
-        <v>864.70</v>
+        <v>1,846.10</v>
       </c>
       <c r="L81" t="str">
-        <v>581.00</v>
+        <v>2,859.30</v>
       </c>
       <c r="M81" t="str">
-        <v>43.32</v>
+        <v>1,901.55</v>
       </c>
       <c r="N81" t="str">
-        <v>17.91</v>
+        <v>37.29</v>
       </c>
       <c r="O81" t="str">
-        <v>58.74</v>
+        <v>53.46</v>
       </c>
       <c r="P81" t="str">
-        <v>282.62</v>
+        <v>59.61</v>
       </c>
       <c r="Q81" t="str">
-        <v>2.75</v>
+        <v>202.99</v>
       </c>
       <c r="R81" t="str">
-        <v>2.00</v>
+        <v>9.83</v>
       </c>
       <c r="S81" t="str">
-        <v>59,282</v>
+        <v>1.00</v>
       </c>
       <c r="T81" t="str">
-        <v>1.29</v>
+        <v>468,391</v>
       </c>
       <c r="U81" t="str">
-        <v>4,243,921</v>
+        <v>1.56</v>
+      </c>
+      <c r="V81" t="str">
+        <v>2,506,936</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Titan Company</v>
+        <v>Tata Steel</v>
       </c>
       <c r="B82" t="str">
-        <v>2,740.00</v>
+        <v>Iron</v>
       </c>
       <c r="C82" t="str">
-        <v>2,703.00</v>
+        <v>1,320.00</v>
       </c>
       <c r="D82" t="str">
-        <v>1,889,261.00</v>
+        <v>1,302.95</v>
       </c>
       <c r="E82" t="str">
-        <v>51,147.02</v>
+        <v>8,179,588.00</v>
       </c>
       <c r="F82" t="str">
-        <v>1.091.07</v>
+        <v>106,498.24</v>
       </c>
       <c r="G82" t="str">
-        <v>2,768.00</v>
+        <v>1.421.30</v>
       </c>
       <c r="H82" t="str">
-        <v>2,700.00</v>
+        <v>1,330.00</v>
       </c>
       <c r="I82" t="str">
-        <v>2,973.30</v>
+        <v>1,288.05</v>
       </c>
       <c r="J82" t="str">
-        <v>2,432.70</v>
+        <v>1,433.20</v>
       </c>
       <c r="K82" t="str">
-        <v>2,768.00</v>
+        <v>1,172.70</v>
       </c>
       <c r="L82" t="str">
-        <v>1,400.05</v>
+        <v>1,534.50</v>
       </c>
       <c r="M82" t="str">
-        <v>25.08</v>
+        <v>688.35</v>
       </c>
       <c r="N82" t="str">
-        <v>107.94</v>
+        <v>303.20</v>
       </c>
       <c r="O82" t="str">
-        <v>184.46</v>
+        <v>4.29</v>
       </c>
       <c r="P82" t="str">
-        <v>84.45</v>
+        <v>14.29</v>
       </c>
       <c r="Q82" t="str">
-        <v>32.06</v>
+        <v>628.26</v>
       </c>
       <c r="R82" t="str">
-        <v>1.00</v>
+        <v>2.08</v>
       </c>
       <c r="S82" t="str">
-        <v>240,346</v>
+        <v>10.00</v>
       </c>
       <c r="T82" t="str">
-        <v>0.15</v>
+        <v>159,063</v>
       </c>
       <c r="U82" t="str">
-        <v>1,618,050</v>
+        <v>1.92</v>
+      </c>
+      <c r="V82" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Tata Steel</v>
+        <v>GAIL India</v>
       </c>
       <c r="B83" t="str">
-        <v>1,308.00</v>
+        <v>Oil</v>
       </c>
       <c r="C83" t="str">
-        <v>1,303.45</v>
+        <v>145.00</v>
       </c>
       <c r="D83" t="str">
-        <v>8,422,763.00</v>
+        <v>144.30</v>
       </c>
       <c r="E83" t="str">
-        <v>109,744.39</v>
+        <v>12,817,516.00</v>
       </c>
       <c r="F83" t="str">
-        <v>1.431.30</v>
+        <v>18,386.73</v>
       </c>
       <c r="G83" t="str">
-        <v>1,334.00</v>
+        <v>0.760.67</v>
       </c>
       <c r="H83" t="str">
-        <v>1,294.50</v>
+        <v>146.15</v>
       </c>
       <c r="I83" t="str">
-        <v>1,433.75</v>
+        <v>142.70</v>
       </c>
       <c r="J83" t="str">
-        <v>1,173.15</v>
+        <v>158.70</v>
       </c>
       <c r="K83" t="str">
-        <v>1,534.50</v>
+        <v>129.90</v>
       </c>
       <c r="L83" t="str">
-        <v>681.25</v>
+        <v>171.30</v>
       </c>
       <c r="M83" t="str">
-        <v>303.20</v>
+        <v>125.20</v>
       </c>
       <c r="N83" t="str">
-        <v>4.30</v>
+        <v>25.42</v>
       </c>
       <c r="O83" t="str">
-        <v>14.32</v>
+        <v>5.64</v>
       </c>
       <c r="P83" t="str">
-        <v>628.26</v>
+        <v>17.33</v>
       </c>
       <c r="Q83" t="str">
-        <v>2.08</v>
+        <v>119.99</v>
       </c>
       <c r="R83" t="str">
+        <v>1.20</v>
+      </c>
+      <c r="S83" t="str">
         <v>10.00</v>
       </c>
-      <c r="S83" t="str">
-        <v>159,179</v>
-      </c>
       <c r="T83" t="str">
-        <v>1.92</v>
+        <v>63,697</v>
       </c>
       <c r="U83" t="str">
-        <v>10,584,511</v>
+        <v>3.49</v>
+      </c>
+      <c r="V83" t="str">
+        <v>18,098,490</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Bajaj Finance</v>
+        <v>Bajaj Holdings</v>
       </c>
       <c r="B84" t="str">
-        <v>7,000.00</v>
+        <v>Finance</v>
       </c>
       <c r="C84" t="str">
-        <v>6,994.40</v>
+        <v>5,033.70</v>
       </c>
       <c r="D84" t="str">
-        <v>962,019.00</v>
+        <v>5,008.40</v>
       </c>
       <c r="E84" t="str">
-        <v>66,094.55</v>
+        <v>37,330.00</v>
       </c>
       <c r="F84" t="str">
-        <v>1.461.46</v>
+        <v>1,871.20</v>
       </c>
       <c r="G84" t="str">
-        <v>7,018.75</v>
+        <v>0.640.62</v>
       </c>
       <c r="H84" t="str">
-        <v>6,850.00</v>
+        <v>5,036.65</v>
       </c>
       <c r="I84" t="str">
-        <v>7,693.80</v>
+        <v>4,986.05</v>
       </c>
       <c r="J84" t="str">
-        <v>6,295.00</v>
+        <v>6,010.05</v>
       </c>
       <c r="K84" t="str">
-        <v>8,050.00</v>
+        <v>4,006.75</v>
       </c>
       <c r="L84" t="str">
-        <v>4,362.00</v>
+        <v>5,660.40</v>
       </c>
       <c r="M84" t="str">
-        <v>98.66</v>
+        <v>3,141.00</v>
       </c>
       <c r="N84" t="str">
-        <v>69.64</v>
+        <v>350.36</v>
       </c>
       <c r="O84" t="str">
-        <v>51.62</v>
+        <v>14.31</v>
       </c>
       <c r="P84" t="str">
-        <v>606.63</v>
+        <v>51.11</v>
       </c>
       <c r="Q84" t="str">
-        <v>11.33</v>
+        <v>3,964.08</v>
       </c>
       <c r="R84" t="str">
-        <v>2.00</v>
+        <v>1.27</v>
       </c>
       <c r="S84" t="str">
-        <v>414,693</v>
+        <v>10.00</v>
       </c>
       <c r="T84" t="str">
-        <v>0.15</v>
+        <v>55,787</v>
       </c>
       <c r="U84" t="str">
-        <v>1,590,786</v>
+        <v>0.80</v>
+      </c>
+      <c r="V84" t="str">
+        <v>42,538</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Larsen &amp;</v>
+        <v>Piramal Enterprises</v>
       </c>
       <c r="B85" t="str">
-        <v>1,805.00</v>
+        <v>Pharmaceuticals</v>
       </c>
       <c r="C85" t="str">
-        <v>1,787.90</v>
+        <v>2,239.05</v>
       </c>
       <c r="D85" t="str">
-        <v>2,301,462.00</v>
+        <v>2,234.60</v>
       </c>
       <c r="E85" t="str">
-        <v>40,420.58</v>
+        <v>633,536.00</v>
       </c>
       <c r="F85" t="str">
-        <v>1.021.00</v>
+        <v>13,951.41</v>
       </c>
       <c r="G85" t="str">
-        <v>1,805.00</v>
+        <v>1.451.40</v>
       </c>
       <c r="H85" t="str">
-        <v>1,745.00</v>
+        <v>2,244.65</v>
       </c>
       <c r="I85" t="str">
-        <v>1,966.65</v>
+        <v>2,164.30</v>
       </c>
       <c r="J85" t="str">
-        <v>1,609.15</v>
+        <v>2,458.05</v>
       </c>
       <c r="K85" t="str">
-        <v>2,078.55</v>
+        <v>2,011.15</v>
       </c>
       <c r="L85" t="str">
-        <v>1,306.00</v>
+        <v>3,014.95</v>
       </c>
       <c r="M85" t="str">
-        <v>59.37</v>
+        <v>1,607.10</v>
       </c>
       <c r="N85" t="str">
-        <v>29.58</v>
+        <v>52.06</v>
       </c>
       <c r="O85" t="str">
-        <v>22.15</v>
+        <v>42.30</v>
       </c>
       <c r="P85" t="str">
-        <v>623.05</v>
+        <v>35.79</v>
       </c>
       <c r="Q85" t="str">
-        <v>2.82</v>
+        <v>1,416.79</v>
       </c>
       <c r="R85" t="str">
+        <v>1.56</v>
+      </c>
+      <c r="S85" t="str">
         <v>2.00</v>
       </c>
-      <c r="S85" t="str">
-        <v>246,754</v>
-      </c>
       <c r="T85" t="str">
-        <v>2.05</v>
+        <v>52,557</v>
       </c>
       <c r="U85" t="str">
-        <v>2,698,974</v>
+        <v>1.50</v>
+      </c>
+      <c r="V85" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Hindustan Unilever</v>
+        <v>Nestle India</v>
       </c>
       <c r="B86" t="str">
-        <v>2,106.50</v>
+        <v>Food</v>
       </c>
       <c r="C86" t="str">
-        <v>2,102.05</v>
+        <v>17,727.00</v>
       </c>
       <c r="D86" t="str">
-        <v>1,674,982.00</v>
+        <v>17,876.45</v>
       </c>
       <c r="E86" t="str">
-        <v>34,357.23</v>
+        <v>140,224.00</v>
       </c>
       <c r="F86" t="str">
-        <v>0.620.62</v>
+        <v>24,439.99</v>
       </c>
       <c r="G86" t="str">
-        <v>2,110.90</v>
+        <v>0.390.38</v>
       </c>
       <c r="H86" t="str">
-        <v>2,046.00</v>
+        <v>17,869.95</v>
       </c>
       <c r="I86" t="str">
-        <v>2,312.25</v>
+        <v>17,253.65</v>
       </c>
       <c r="J86" t="str">
-        <v>1,891.85</v>
+        <v>19,664.05</v>
       </c>
       <c r="K86" t="str">
-        <v>2,859.30</v>
+        <v>16,088.85</v>
       </c>
       <c r="L86" t="str">
-        <v>1,901.55</v>
+        <v>20,609.15</v>
       </c>
       <c r="M86" t="str">
-        <v>37.29</v>
+        <v>16,116.00</v>
       </c>
       <c r="N86" t="str">
-        <v>55.01</v>
+        <v>0.00</v>
       </c>
       <c r="O86" t="str">
-        <v>60.79</v>
+        <v>--</v>
       </c>
       <c r="P86" t="str">
-        <v>202.99</v>
+        <v>64.31</v>
       </c>
       <c r="Q86" t="str">
-        <v>10.11</v>
+        <v>--</v>
       </c>
       <c r="R86" t="str">
-        <v>1.00</v>
+        <v>0.00</v>
       </c>
       <c r="S86" t="str">
-        <v>481,948</v>
+        <v>10.00</v>
       </c>
       <c r="T86" t="str">
-        <v>1.51</v>
+        <v>168,045</v>
       </c>
       <c r="U86" t="str">
-        <v>2,466,655</v>
+        <v>0.78</v>
+      </c>
+      <c r="V86" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Bharat Electronics</v>
+        <v>Adani Ports</v>
       </c>
       <c r="B87" t="str">
-        <v>210.00</v>
+        <v>Infrastructure</v>
       </c>
       <c r="C87" t="str">
-        <v>209.40</v>
+        <v>735.00</v>
       </c>
       <c r="D87" t="str">
-        <v>12,804,611.00</v>
+        <v>735.15</v>
       </c>
       <c r="E87" t="str">
-        <v>26,748.83</v>
+        <v>5,010,054.00</v>
       </c>
       <c r="F87" t="str">
-        <v>0.880.81</v>
+        <v>37,031.81</v>
       </c>
       <c r="G87" t="str">
-        <v>214.40</v>
+        <v>1.441.35</v>
       </c>
       <c r="H87" t="str">
-        <v>206.90</v>
+        <v>743.90</v>
       </c>
       <c r="I87" t="str">
-        <v>230.30</v>
+        <v>723.05</v>
       </c>
       <c r="J87" t="str">
-        <v>188.50</v>
+        <v>808.65</v>
       </c>
       <c r="K87" t="str">
-        <v>228.00</v>
+        <v>661.65</v>
       </c>
       <c r="L87" t="str">
-        <v>115.85</v>
+        <v>901.00</v>
       </c>
       <c r="M87" t="str">
-        <v>10.72</v>
+        <v>638.10</v>
       </c>
       <c r="N87" t="str">
-        <v>19.49</v>
+        <v>23.76</v>
       </c>
       <c r="O87" t="str">
-        <v>29.39</v>
+        <v>31.11</v>
       </c>
       <c r="P87" t="str">
-        <v>45.45</v>
+        <v>88.10</v>
       </c>
       <c r="Q87" t="str">
-        <v>4.60</v>
+        <v>153.47</v>
       </c>
       <c r="R87" t="str">
-        <v>1.00</v>
+        <v>4.82</v>
       </c>
       <c r="S87" t="str">
-        <v>50,900</v>
+        <v>2.00</v>
       </c>
       <c r="T87" t="str">
-        <v>1.91</v>
+        <v>156,136</v>
       </c>
       <c r="U87" t="str">
-        <v>9,125,171</v>
+        <v>0.68</v>
+      </c>
+      <c r="V87" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Wipro Ltd.</v>
+        <v>Adani Enterprises</v>
       </c>
       <c r="B88" t="str">
-        <v>605.10</v>
+        <v>Trading</v>
       </c>
       <c r="C88" t="str">
-        <v>601.20</v>
+        <v>1,802.95</v>
       </c>
       <c r="D88" t="str">
-        <v>7,796,476.00</v>
+        <v>1,802.95</v>
       </c>
       <c r="E88" t="str">
-        <v>46,778.86</v>
+        <v>964,066.00</v>
       </c>
       <c r="F88" t="str">
-        <v>0.930.90</v>
+        <v>17,657.35</v>
       </c>
       <c r="G88" t="str">
-        <v>616.00</v>
+        <v>1.611.52</v>
       </c>
       <c r="H88" t="str">
-        <v>598.00</v>
+        <v>1,837.00</v>
       </c>
       <c r="I88" t="str">
-        <v>661.30</v>
+        <v>1,790.00</v>
       </c>
       <c r="J88" t="str">
-        <v>541.10</v>
+        <v>1,983.20</v>
       </c>
       <c r="K88" t="str">
-        <v>739.85</v>
+        <v>1,622.70</v>
       </c>
       <c r="L88" t="str">
-        <v>397.75</v>
+        <v>1,908.50</v>
       </c>
       <c r="M88" t="str">
-        <v>22.10</v>
+        <v>883.45</v>
       </c>
       <c r="N88" t="str">
-        <v>27.15</v>
+        <v>6.42</v>
       </c>
       <c r="O88" t="str">
-        <v>41.19</v>
+        <v>285.29</v>
       </c>
       <c r="P88" t="str">
-        <v>99.86</v>
+        <v>242.29</v>
       </c>
       <c r="Q88" t="str">
-        <v>6.01</v>
+        <v>171.94</v>
       </c>
       <c r="R88" t="str">
-        <v>2.00</v>
+        <v>10.66</v>
       </c>
       <c r="S88" t="str">
-        <v>328,914</v>
+        <v>1.00</v>
       </c>
       <c r="T88" t="str">
-        <v>0.17</v>
+        <v>201,436</v>
       </c>
       <c r="U88" t="str">
-        <v>9,028,513</v>
+        <v>0.05</v>
+      </c>
+      <c r="V88" t="str">
+        <v>1,518,129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>FSN E-Commerce</v>
+        <v>Hindalco Industries</v>
       </c>
       <c r="B89" t="str">
-        <v>1,575.00</v>
+        <v>Iron</v>
       </c>
       <c r="C89" t="str">
-        <v>1,550.35</v>
+        <v>599.80</v>
       </c>
       <c r="D89" t="str">
-        <v>355,514.00</v>
+        <v>589.95</v>
       </c>
       <c r="E89" t="str">
-        <v>5,344.44</v>
+        <v>7,490,300.00</v>
       </c>
       <c r="F89" t="str">
-        <v>1.151.15</v>
+        <v>44,451.19</v>
       </c>
       <c r="G89" t="str">
-        <v>1,575.00</v>
+        <v>1.241.11</v>
       </c>
       <c r="H89" t="str">
-        <v>1,500.00</v>
+        <v>602.85</v>
       </c>
       <c r="I89" t="str">
-        <v>1,860.40</v>
+        <v>587.20</v>
       </c>
       <c r="J89" t="str">
-        <v>1,240.30</v>
+        <v>648.90</v>
       </c>
       <c r="K89" t="str">
-        <v>2,573.70</v>
+        <v>531.00</v>
       </c>
       <c r="L89" t="str">
-        <v>1,125.00</v>
+        <v>623.00</v>
       </c>
       <c r="M89" t="str">
-        <v>0.00</v>
+        <v>305.40</v>
       </c>
       <c r="N89" t="str">
-        <v>--</v>
+        <v>52.54</v>
       </c>
       <c r="O89" t="str">
-        <v>223.69</v>
+        <v>11.30</v>
       </c>
       <c r="P89" t="str">
-        <v>10.85</v>
+        <v>67.07</v>
       </c>
       <c r="Q89" t="str">
-        <v>138.56</v>
+        <v>296.13</v>
       </c>
       <c r="R89" t="str">
+        <v>2.01</v>
+      </c>
+      <c r="S89" t="str">
         <v>1.00</v>
       </c>
-      <c r="S89" t="str">
-        <v>71,260</v>
-      </c>
       <c r="T89" t="str">
-        <v>0.00</v>
+        <v>133,358</v>
       </c>
       <c r="U89" t="str">
-        <v>1,334,942</v>
+        <v>0.51</v>
+      </c>
+      <c r="V89" t="str">
+        <v>15,961,713</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>UltraTech Cement</v>
+        <v>Cipla Ltd.</v>
       </c>
       <c r="B90" t="str">
-        <v>6,370.00</v>
+        <v>Pharmaceuticals</v>
       </c>
       <c r="C90" t="str">
-        <v>6,373.60</v>
+        <v>1,045.00</v>
       </c>
       <c r="D90" t="str">
-        <v>531,422.00</v>
+        <v>1,050.30</v>
       </c>
       <c r="E90" t="str">
-        <v>32,901.66</v>
+        <v>2,269,544.00</v>
       </c>
       <c r="F90" t="str">
-        <v>0.970.95</v>
+        <v>23,435.31</v>
       </c>
       <c r="G90" t="str">
-        <v>6,370.00</v>
+        <v>0.020.00</v>
       </c>
       <c r="H90" t="str">
-        <v>6,176.05</v>
+        <v>1,049.25</v>
       </c>
       <c r="I90" t="str">
-        <v>7,010.95</v>
+        <v>1,024.00</v>
       </c>
       <c r="J90" t="str">
-        <v>5,736.25</v>
+        <v>1,155.30</v>
       </c>
       <c r="K90" t="str">
-        <v>8,269.00</v>
+        <v>945.30</v>
       </c>
       <c r="L90" t="str">
-        <v>5,629.20</v>
+        <v>1,083.00</v>
       </c>
       <c r="M90" t="str">
-        <v>225.03</v>
+        <v>758.70</v>
       </c>
       <c r="N90" t="str">
-        <v>27.51</v>
+        <v>31.83</v>
       </c>
       <c r="O90" t="str">
-        <v>31.72</v>
+        <v>32.44</v>
       </c>
       <c r="P90" t="str">
-        <v>1,530.50</v>
+        <v>35.79</v>
       </c>
       <c r="Q90" t="str">
-        <v>4.05</v>
+        <v>229.84</v>
       </c>
       <c r="R90" t="str">
-        <v>10.00</v>
+        <v>4.50</v>
       </c>
       <c r="S90" t="str">
-        <v>178,721</v>
+        <v>2.00</v>
       </c>
       <c r="T90" t="str">
-        <v>0.60</v>
+        <v>83,312</v>
       </c>
       <c r="U90" t="str">
-        <v>798,989</v>
+        <v>0.48</v>
+      </c>
+      <c r="V90" t="str">
+        <v>3,667,847</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>SBI Cards</v>
+        <v>Grasim Industries</v>
       </c>
       <c r="B91" t="str">
-        <v>854.40</v>
+        <v>Diversified</v>
       </c>
       <c r="C91" t="str">
-        <v>854.45</v>
+        <v>1,569.45</v>
       </c>
       <c r="D91" t="str">
-        <v>752,292.00</v>
+        <v>1,569.45</v>
       </c>
       <c r="E91" t="str">
-        <v>6,335.43</v>
+        <v>1,013,736.00</v>
       </c>
       <c r="F91" t="str">
-        <v>1.020.99</v>
+        <v>16,042.37</v>
       </c>
       <c r="G91" t="str">
-        <v>854.40</v>
+        <v>1.151.09</v>
       </c>
       <c r="H91" t="str">
-        <v>840.05</v>
+        <v>1,590.95</v>
       </c>
       <c r="I91" t="str">
-        <v>939.85</v>
+        <v>1,525.10</v>
       </c>
       <c r="J91" t="str">
-        <v>769.05</v>
+        <v>1,726.35</v>
       </c>
       <c r="K91" t="str">
-        <v>1,165.00</v>
+        <v>1,412.55</v>
       </c>
       <c r="L91" t="str">
-        <v>712.25</v>
+        <v>1,929.80</v>
       </c>
       <c r="M91" t="str">
-        <v>0.00</v>
+        <v>1,262.00</v>
       </c>
       <c r="N91" t="str">
-        <v>--</v>
+        <v>98.56</v>
       </c>
       <c r="O91" t="str">
-        <v>51.62</v>
+        <v>16.06</v>
       </c>
       <c r="P91" t="str">
-        <v>--</v>
+        <v>72.77</v>
       </c>
       <c r="Q91" t="str">
-        <v>0.00</v>
+        <v>1,553.77</v>
       </c>
       <c r="R91" t="str">
-        <v>10.00</v>
+        <v>1.02</v>
       </c>
       <c r="S91" t="str">
-        <v>79,427</v>
+        <v>2.00</v>
       </c>
       <c r="T91" t="str">
-        <v>0.00</v>
+        <v>104,175</v>
       </c>
       <c r="U91" t="str">
-        <v>1,350,100</v>
+        <v>0.57</v>
+      </c>
+      <c r="V91" t="str">
+        <v>1,214,590</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Havells India</v>
+        <v>Adani Green</v>
       </c>
       <c r="B92" t="str">
-        <v>1,148.60</v>
+        <v>Power</v>
       </c>
       <c r="C92" t="str">
-        <v>1,147.10</v>
+        <v>1,860.00</v>
       </c>
       <c r="D92" t="str">
-        <v>1,000,399.00</v>
+        <v>1,876.05</v>
       </c>
       <c r="E92" t="str">
-        <v>11,376.04</v>
+        <v>337,757.00</v>
       </c>
       <c r="F92" t="str">
-        <v>1.031.00</v>
+        <v>6,341.22</v>
       </c>
       <c r="G92" t="str">
-        <v>1,164.25</v>
+        <v>0.910.89</v>
       </c>
       <c r="H92" t="str">
-        <v>1,131.05</v>
+        <v>1,905.00</v>
       </c>
       <c r="I92" t="str">
-        <v>1,261.80</v>
+        <v>1,855.00</v>
       </c>
       <c r="J92" t="str">
-        <v>1,032.40</v>
+        <v>2,063.65</v>
       </c>
       <c r="K92" t="str">
-        <v>1,504.45</v>
+        <v>1,688.45</v>
       </c>
       <c r="L92" t="str">
-        <v>958.00</v>
+        <v>2,125.00</v>
       </c>
       <c r="M92" t="str">
-        <v>18.33</v>
+        <v>874.80</v>
       </c>
       <c r="N92" t="str">
-        <v>62.04</v>
+        <v>3.02</v>
       </c>
       <c r="O92" t="str">
-        <v>56.20</v>
+        <v>621.67</v>
       </c>
       <c r="P92" t="str">
-        <v>82.64</v>
+        <v>26.41</v>
       </c>
       <c r="Q92" t="str">
-        <v>13.77</v>
+        <v>5.03</v>
       </c>
       <c r="R92" t="str">
-        <v>1.00</v>
+        <v>373.26</v>
       </c>
       <c r="S92" t="str">
-        <v>71,220</v>
+        <v>10.00</v>
       </c>
       <c r="T92" t="str">
-        <v>0.57</v>
+        <v>293,636</v>
       </c>
       <c r="U92" t="str">
-        <v>1,261,162</v>
+        <v>0.00</v>
+      </c>
+      <c r="V92" t="str">
+        <v>785,781</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Hindalco Industries</v>
+        <v>United Spirits</v>
       </c>
       <c r="B93" t="str">
-        <v>584.00</v>
+        <v>Breweries</v>
       </c>
       <c r="C93" t="str">
-        <v>576.80</v>
+        <v>904.50</v>
       </c>
       <c r="D93" t="str">
-        <v>14,159,371.00</v>
+        <v>904.95</v>
       </c>
       <c r="E93" t="str">
-        <v>83,533.21</v>
+        <v>1,029,613.00</v>
       </c>
       <c r="F93" t="str">
-        <v>1.241.11</v>
+        <v>9,432.80</v>
       </c>
       <c r="G93" t="str">
-        <v>600.95</v>
+        <v>0.990.96</v>
       </c>
       <c r="H93" t="str">
-        <v>582.55</v>
+        <v>918.20</v>
       </c>
       <c r="I93" t="str">
-        <v>634.45</v>
+        <v>886.20</v>
       </c>
       <c r="J93" t="str">
-        <v>519.15</v>
+        <v>995.40</v>
       </c>
       <c r="K93" t="str">
-        <v>623.00</v>
+        <v>814.50</v>
       </c>
       <c r="L93" t="str">
-        <v>305.40</v>
+        <v>1,019.95</v>
       </c>
       <c r="M93" t="str">
-        <v>52.54</v>
+        <v>507.50</v>
       </c>
       <c r="N93" t="str">
-        <v>11.23</v>
+        <v>11.77</v>
       </c>
       <c r="O93" t="str">
-        <v>65.33</v>
+        <v>77.84</v>
       </c>
       <c r="P93" t="str">
-        <v>296.13</v>
+        <v>123.03</v>
       </c>
       <c r="Q93" t="str">
+        <v>55.86</v>
+      </c>
+      <c r="R93" t="str">
+        <v>16.41</v>
+      </c>
+      <c r="S93" t="str">
         <v>2.00</v>
       </c>
-      <c r="R93" t="str">
-        <v>1.00</v>
-      </c>
-      <c r="S93" t="str">
-        <v>132,572</v>
-      </c>
       <c r="T93" t="str">
-        <v>0.51</v>
+        <v>66,571</v>
       </c>
       <c r="U93" t="str">
-        <v>15,520,768</v>
+        <v>0.00</v>
+      </c>
+      <c r="V93" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>JSW Steel</v>
+        <v>Torrent Pharmaceuticals</v>
       </c>
       <c r="B94" t="str">
-        <v>689.70</v>
+        <v>Pharmaceuticals</v>
       </c>
       <c r="C94" t="str">
-        <v>685.10</v>
+        <v>2,763.60</v>
       </c>
       <c r="D94" t="str">
-        <v>4,609,771.00</v>
+        <v>2,763.60</v>
       </c>
       <c r="E94" t="str">
-        <v>31,406.37</v>
+        <v>192,811.00</v>
       </c>
       <c r="F94" t="str">
-        <v>1.341.23</v>
+        <v>5,325.83</v>
       </c>
       <c r="G94" t="str">
-        <v>699.00</v>
+        <v>0.510.50</v>
       </c>
       <c r="H94" t="str">
-        <v>679.00</v>
+        <v>2,774.70</v>
       </c>
       <c r="I94" t="str">
-        <v>753.60</v>
+        <v>2,705.70</v>
       </c>
       <c r="J94" t="str">
-        <v>616.60</v>
+        <v>3,039.95</v>
       </c>
       <c r="K94" t="str">
-        <v>776.50</v>
+        <v>2,487.25</v>
       </c>
       <c r="L94" t="str">
-        <v>410.00</v>
+        <v>3,298.50</v>
       </c>
       <c r="M94" t="str">
-        <v>89.48</v>
+        <v>2,392.80</v>
       </c>
       <c r="N94" t="str">
-        <v>7.61</v>
+        <v>72.04</v>
       </c>
       <c r="O94" t="str">
-        <v>14.32</v>
+        <v>38.34</v>
       </c>
       <c r="P94" t="str">
-        <v>190.65</v>
+        <v>35.79</v>
       </c>
       <c r="Q94" t="str">
-        <v>3.58</v>
+        <v>344.94</v>
       </c>
       <c r="R94" t="str">
-        <v>1.00</v>
+        <v>8.01</v>
       </c>
       <c r="S94" t="str">
-        <v>164,685</v>
+        <v>5.00</v>
       </c>
       <c r="T94" t="str">
-        <v>0.95</v>
+        <v>46,743</v>
       </c>
       <c r="U94" t="str">
-        <v>4,975,143</v>
+        <v>1.27</v>
+      </c>
+      <c r="V94" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>State Bank</v>
+        <v>Tata Power</v>
       </c>
       <c r="B95" t="str">
-        <v>502.00</v>
+        <v>Power</v>
       </c>
       <c r="C95" t="str">
-        <v>501.90</v>
+        <v>229.10</v>
       </c>
       <c r="D95" t="str">
-        <v>19,064,060.00</v>
+        <v>227.95</v>
       </c>
       <c r="E95" t="str">
-        <v>93,528.28</v>
+        <v>14,893,566.00</v>
       </c>
       <c r="F95" t="str">
-        <v>1.291.27</v>
+        <v>34,463.71</v>
       </c>
       <c r="G95" t="str">
-        <v>502.00</v>
+        <v>1.461.34</v>
       </c>
       <c r="H95" t="str">
-        <v>489.00</v>
+        <v>231.90</v>
       </c>
       <c r="I95" t="str">
-        <v>552.05</v>
+        <v>226.30</v>
       </c>
       <c r="J95" t="str">
-        <v>451.75</v>
+        <v>250.70</v>
       </c>
       <c r="K95" t="str">
-        <v>549.00</v>
+        <v>205.20</v>
       </c>
       <c r="L95" t="str">
-        <v>321.30</v>
+        <v>267.85</v>
       </c>
       <c r="M95" t="str">
-        <v>36.68</v>
+        <v>89.90</v>
       </c>
       <c r="N95" t="str">
-        <v>13.38</v>
+        <v>5.11</v>
       </c>
       <c r="O95" t="str">
-        <v>20.58</v>
+        <v>45.28</v>
       </c>
       <c r="P95" t="str">
-        <v>293.13</v>
+        <v>26.41</v>
       </c>
       <c r="Q95" t="str">
-        <v>1.68</v>
+        <v>74.33</v>
       </c>
       <c r="R95" t="str">
+        <v>3.12</v>
+      </c>
+      <c r="S95" t="str">
         <v>1.00</v>
       </c>
-      <c r="S95" t="str">
-        <v>437,841</v>
-      </c>
       <c r="T95" t="str">
-        <v>0.82</v>
+        <v>73,940</v>
       </c>
       <c r="U95" t="str">
-        <v>24,199,014</v>
+        <v>0.67</v>
+      </c>
+      <c r="V95" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Power Grid</v>
+        <v>SBI Life</v>
       </c>
       <c r="B96" t="str">
-        <v>216.00</v>
+        <v>Diversified</v>
       </c>
       <c r="C96" t="str">
-        <v>211.55</v>
+        <v>1,092.50</v>
       </c>
       <c r="D96" t="str">
-        <v>13,348,062.00</v>
+        <v>1,095.80</v>
       </c>
       <c r="E96" t="str">
-        <v>27,350.18</v>
+        <v>998,586.00</v>
       </c>
       <c r="F96" t="str">
-        <v>0.540.52</v>
+        <v>10,960.98</v>
       </c>
       <c r="G96" t="str">
-        <v>216.00</v>
+        <v>0.750.73</v>
       </c>
       <c r="H96" t="str">
-        <v>204.50</v>
+        <v>1,101.85</v>
       </c>
       <c r="I96" t="str">
-        <v>232.70</v>
+        <v>1,070.00</v>
       </c>
       <c r="J96" t="str">
-        <v>190.40</v>
+        <v>1,205.35</v>
       </c>
       <c r="K96" t="str">
-        <v>223.40</v>
+        <v>986.25</v>
       </c>
       <c r="L96" t="str">
-        <v>148.88</v>
+        <v>1,293.25</v>
       </c>
       <c r="M96" t="str">
-        <v>23.22</v>
+        <v>861.00</v>
       </c>
       <c r="N96" t="str">
-        <v>8.82</v>
+        <v>0.00</v>
       </c>
       <c r="O96" t="str">
-        <v>12.68</v>
+        <v>--</v>
       </c>
       <c r="P96" t="str">
-        <v>100.26</v>
+        <v>76.41</v>
       </c>
       <c r="Q96" t="str">
-        <v>2.05</v>
+        <v>--</v>
       </c>
       <c r="R96" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="S96" t="str">
         <v>10.00</v>
       </c>
-      <c r="S96" t="str">
-        <v>142,927</v>
-      </c>
       <c r="T96" t="str">
-        <v>5.86</v>
+        <v>109,805</v>
       </c>
       <c r="U96" t="str">
-        <v>12,630,265</v>
+        <v>0.23</v>
+      </c>
+      <c r="V96" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Motherson Sumi</v>
+        <v>ICICI Prudential</v>
       </c>
       <c r="B97" t="str">
-        <v>138.50</v>
+        <v>Finance</v>
       </c>
       <c r="C97" t="str">
-        <v>136.95</v>
+        <v>478.00</v>
       </c>
       <c r="D97" t="str">
-        <v>8,430,301.00</v>
+        <v>477.45</v>
       </c>
       <c r="E97" t="str">
-        <v>11,237.59</v>
+        <v>1,100,486.00</v>
       </c>
       <c r="F97" t="str">
-        <v>1.251.18</v>
+        <v>5,301.59</v>
       </c>
       <c r="G97" t="str">
-        <v>138.50</v>
+        <v>0.880.84</v>
       </c>
       <c r="H97" t="str">
-        <v>133.00</v>
+        <v>485.80</v>
       </c>
       <c r="I97" t="str">
-        <v>150.60</v>
+        <v>471.00</v>
       </c>
       <c r="J97" t="str">
-        <v>123.30</v>
+        <v>525.15</v>
       </c>
       <c r="K97" t="str">
-        <v>272.85</v>
+        <v>429.75</v>
       </c>
       <c r="L97" t="str">
-        <v>119.55</v>
+        <v>724.30</v>
       </c>
       <c r="M97" t="str">
-        <v>4.64</v>
+        <v>425.65</v>
       </c>
       <c r="N97" t="str">
-        <v>28.73</v>
+        <v>4.42</v>
       </c>
       <c r="O97" t="str">
-        <v>136.13</v>
+        <v>108.99</v>
       </c>
       <c r="P97" t="str">
-        <v>44.04</v>
+        <v>76.41</v>
       </c>
       <c r="Q97" t="str">
-        <v>3.03</v>
+        <v>84.21</v>
       </c>
       <c r="R97" t="str">
-        <v>1.00</v>
+        <v>5.73</v>
       </c>
       <c r="S97" t="str">
-        <v>60,220</v>
+        <v>10.00</v>
       </c>
       <c r="T97" t="str">
-        <v>1.13</v>
+        <v>69,242</v>
       </c>
       <c r="U97" t="str">
-        <v>15,099,394</v>
+        <v>0.42</v>
+      </c>
+      <c r="V97" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Axis Bank</v>
+        <v>Procter and</v>
       </c>
       <c r="B98" t="str">
-        <v>745.00</v>
+        <v>Personal</v>
       </c>
       <c r="C98" t="str">
-        <v>739.25</v>
+        <v>15,460.00</v>
       </c>
       <c r="D98" t="str">
-        <v>7,495,685.00</v>
+        <v>15,493.60</v>
       </c>
       <c r="E98" t="str">
-        <v>54,411.18</v>
+        <v>3,670.00</v>
       </c>
       <c r="F98" t="str">
-        <v>1.181.18</v>
+        <v>568.40</v>
       </c>
       <c r="G98" t="str">
-        <v>749.40</v>
+        <v>0.460.45</v>
       </c>
       <c r="H98" t="str">
-        <v>723.70</v>
+        <v>15,596.95</v>
       </c>
       <c r="I98" t="str">
-        <v>813.15</v>
+        <v>15,421.40</v>
       </c>
       <c r="J98" t="str">
-        <v>665.35</v>
+        <v>18,592.30</v>
       </c>
       <c r="K98" t="str">
-        <v>866.90</v>
+        <v>12,394.90</v>
       </c>
       <c r="L98" t="str">
-        <v>626.65</v>
+        <v>16,448.70</v>
       </c>
       <c r="M98" t="str">
-        <v>41.19</v>
+        <v>12,110.00</v>
       </c>
       <c r="N98" t="str">
-        <v>17.62</v>
+        <v>0.00</v>
       </c>
       <c r="O98" t="str">
-        <v>29.77</v>
+        <v>--</v>
       </c>
       <c r="P98" t="str">
-        <v>338.05</v>
+        <v>59.61</v>
       </c>
       <c r="Q98" t="str">
-        <v>2.15</v>
+        <v>--</v>
       </c>
       <c r="R98" t="str">
-        <v>2.00</v>
+        <v>0.00</v>
       </c>
       <c r="S98" t="str">
-        <v>222,823</v>
+        <v>10.00</v>
       </c>
       <c r="T98" t="str">
-        <v>0.00</v>
+        <v>50,274</v>
       </c>
       <c r="U98" t="str">
-        <v>12,480,305</v>
+        <v>1.52</v>
+      </c>
+      <c r="V98" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Kotak Mahindra</v>
+        <v>Tech Mahindra</v>
       </c>
       <c r="B99" t="str">
-        <v>1,815.65</v>
+        <v>Computers</v>
       </c>
       <c r="C99" t="str">
-        <v>1,820.00</v>
+        <v>1,486.90</v>
       </c>
       <c r="D99" t="str">
-        <v>2,397,699.00</v>
+        <v>1,479.80</v>
       </c>
       <c r="E99" t="str">
-        <v>42,609.51</v>
+        <v>3,030,660.00</v>
       </c>
       <c r="F99" t="str">
-        <v>1.131.12</v>
+        <v>46,617.61</v>
       </c>
       <c r="G99" t="str">
-        <v>1,830.00</v>
+        <v>1.011.00</v>
       </c>
       <c r="H99" t="str">
-        <v>1,773.00</v>
+        <v>1,543.95</v>
       </c>
       <c r="I99" t="str">
-        <v>2,002.00</v>
+        <v>1,475.05</v>
       </c>
       <c r="J99" t="str">
-        <v>1,638.00</v>
+        <v>1,627.75</v>
       </c>
       <c r="K99" t="str">
-        <v>2,253.00</v>
+        <v>1,331.85</v>
       </c>
       <c r="L99" t="str">
-        <v>1,626.00</v>
+        <v>1,838.00</v>
       </c>
       <c r="M99" t="str">
-        <v>54.36</v>
+        <v>937.00</v>
       </c>
       <c r="N99" t="str">
-        <v>32.69</v>
+        <v>52.93</v>
       </c>
       <c r="O99" t="str">
-        <v>29.77</v>
+        <v>29.06</v>
       </c>
       <c r="P99" t="str">
-        <v>425.01</v>
+        <v>40.84</v>
       </c>
       <c r="Q99" t="str">
-        <v>4.19</v>
+        <v>260.38</v>
       </c>
       <c r="R99" t="str">
+        <v>5.91</v>
+      </c>
+      <c r="S99" t="str">
         <v>5.00</v>
       </c>
-      <c r="S99" t="str">
-        <v>352,643</v>
-      </c>
       <c r="T99" t="str">
-        <v>0.05</v>
+        <v>149,417</v>
       </c>
       <c r="U99" t="str">
-        <v>3,574,282</v>
+        <v>2.93</v>
+      </c>
+      <c r="V99" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>ICICI Prudential</v>
+        <v>HDFC Life</v>
       </c>
       <c r="B100" t="str">
-        <v>497.80</v>
+        <v>Life</v>
       </c>
       <c r="C100" t="str">
-        <v>492.30</v>
+        <v>523.50</v>
       </c>
       <c r="D100" t="str">
-        <v>1,481,944.00</v>
+        <v>522.35</v>
       </c>
       <c r="E100" t="str">
-        <v>7,075.54</v>
+        <v>3,457,606.00</v>
       </c>
       <c r="F100" t="str">
-        <v>0.870.84</v>
+        <v>18,301.11</v>
       </c>
       <c r="G100" t="str">
-        <v>498.35</v>
+        <v>0.820.80</v>
       </c>
       <c r="H100" t="str">
-        <v>476.75</v>
+        <v>530.50</v>
       </c>
       <c r="I100" t="str">
-        <v>541.50</v>
+        <v>516.50</v>
       </c>
       <c r="J100" t="str">
-        <v>443.10</v>
+        <v>574.55</v>
       </c>
       <c r="K100" t="str">
-        <v>724.30</v>
+        <v>470.15</v>
       </c>
       <c r="L100" t="str">
-        <v>418.50</v>
+        <v>775.65</v>
       </c>
       <c r="M100" t="str">
-        <v>4.42</v>
+        <v>497.05</v>
       </c>
       <c r="N100" t="str">
-        <v>108.02</v>
+        <v>5.40</v>
       </c>
       <c r="O100" t="str">
-        <v>78.35</v>
+        <v>98.02</v>
       </c>
       <c r="P100" t="str">
-        <v>84.21</v>
+        <v>76.41</v>
       </c>
       <c r="Q100" t="str">
-        <v>5.67</v>
+        <v>53.42</v>
       </c>
       <c r="R100" t="str">
+        <v>9.91</v>
+      </c>
+      <c r="S100" t="str">
         <v>10.00</v>
       </c>
-      <c r="S100" t="str">
-        <v>68,624</v>
-      </c>
       <c r="T100" t="str">
-        <v>0.42</v>
+        <v>111,816</v>
       </c>
       <c r="U100" t="str">
-        <v>2,086,205</v>
+        <v>0.38</v>
+      </c>
+      <c r="V100" t="str">
+        <v>7,130,110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Bajaj Auto</v>
+        <v>Adani Wilmar</v>
       </c>
       <c r="B101" t="str">
-        <v>3,650.45</v>
+        <v>Consumer</v>
       </c>
       <c r="C101" t="str">
-        <v>3,650.45</v>
+        <v>394.45</v>
       </c>
       <c r="D101" t="str">
-        <v>432,309.00</v>
+        <v>391.25</v>
       </c>
       <c r="E101" t="str">
-        <v>15,515.79</v>
+        <v>9,561,082.00</v>
       </c>
       <c r="F101" t="str">
-        <v>0.740.73</v>
+        <v>37,584.61</v>
       </c>
       <c r="G101" t="str">
-        <v>3,718.00</v>
+        <v>1.711.62</v>
       </c>
       <c r="H101" t="str">
-        <v>3,580.25</v>
+        <v>397.70</v>
       </c>
       <c r="I101" t="str">
-        <v>4,015.45</v>
+        <v>387.00</v>
       </c>
       <c r="J101" t="str">
-        <v>3,285.45</v>
+        <v>430.35</v>
       </c>
       <c r="K101" t="str">
-        <v>4,347.00</v>
+        <v>352.15</v>
       </c>
       <c r="L101" t="str">
-        <v>3,027.05</v>
+        <v>419.90</v>
       </c>
       <c r="M101" t="str">
-        <v>213.95</v>
+        <v>227.00</v>
       </c>
       <c r="N101" t="str">
-        <v>16.78</v>
+        <v>0.00</v>
       </c>
       <c r="O101" t="str">
-        <v>23.21</v>
+        <v>--</v>
       </c>
       <c r="P101" t="str">
-        <v>942.52</v>
+        <v>59.61</v>
       </c>
       <c r="Q101" t="str">
-        <v>3.81</v>
+        <v>25.50</v>
       </c>
       <c r="R101" t="str">
-        <v>10.00</v>
+        <v>15.42</v>
       </c>
       <c r="S101" t="str">
-        <v>103,855</v>
+        <v>1.00</v>
       </c>
       <c r="T101" t="str">
-        <v>3.90</v>
+        <v>51,090</v>
       </c>
       <c r="U101" t="str">
-        <v>411,194</v>
+        <v>0.00</v>
+      </c>
+      <c r="V101" t="str">
+        <v>13,028,072</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V101"/>
   </ignoredErrors>
 </worksheet>
 </file>